--- a/news_data/2020_02.xlsx
+++ b/news_data/2020_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,94 +22,235 @@
     <t>naver_news_articles</t>
   </si>
   <si>
-    <t xml:space="preserve"> 제주도, 국내 관광객 유치 강화 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도, 코로나19 극복...국내 관광객 유치 총력 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도관광약자접근성안내센터, 여행작가 참가자 모집 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 확진환자 없는 제주도…관광 다시 살아나나? </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 코로나19, 제주관광 직격탄…제주도, 5700억원 긴급 수혈 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도, 관광 활성화 위해 한라산 탐방예약제 '유보' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 신종코로나 여파에 제주도 관광객 '반토막'…지역경제 위기 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 항공권 단돈 '3000원'...그래도 관광객은 '뚝'↓ </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도, 오현단에 문화관광해설사 배치…원도심 투어도 운영 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도 코로나 늦장 대응에...관광·경제 '초토화' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도내 관광업계 "재정지원 해달라" 촉구 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 사라진 제주도 유커… 관광업계 직격탄 [신종 코로나 비상] </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도, 중국 관광객 A씨 역학조사 '총력' </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제주도, 신종코로나 확진 판정 받은 中 관광객 주요 동선 공개 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ‘무사증 입국 일시 중지’ 제주도 관광 직격탄 </t>
-  </si>
-  <si>
-    <t>제주도, 국내 관광객 유치 강화 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이제주도, 국내 관광객 유치 강화 오승철2020년 02월 18일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도가 코로나19로 직격탄을 맞은 관광업계를 살리기 위해 국내 관광객 유치에 나섭니다. 제주도에 따르면 지난 13일부터 제주노선 항공기 탑승률이 호전되고 관광객 감소세도 줄고 있음에 따라, 국내 관광객 유치를 위해 온라인 홍보를 강화합니다. 다른지역 공항과 지하철, 영화관 등에서 감염병 청정 제주 이미지를 집중홍보하고, 128억 원을 들여 제주관광 온라인 할인행사 등 마케팅에 나설 계획입니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 04일 08시 13분 24초 탐라문화제 3년 만에 대면행사...10월 6일~10일2022년 10월 04일 07시 20분 00초 동료 해녀 살린 제주의용소방대원 전국대회 1위2022년 10월 04일 07시 20분 00초 현병찬 선생 제41회 세종문화상 수상자 선정2022년 10월 04일 07시 20분 00초 국토부, JDC 정원 28명 감축 추진2022년 10월 04일 07시 20분 00초 오늘 낮까지 '가을비'‥내일부터 기온 내려가 선선2022년 10월 04일 07시 20분 00초TK신공항 밀어주는데.. 가덕도는 조용2022년 10월 04일 07시 20분 00초연중기획-주민들이 주인공으로 등장(리포트)2022년 10월 04일 07시 20분 00초'사상검증 논란' 4.3 수형인 68명 오늘 선고2022년 10월 04일 07시 20분 00초4.3길 사실상 방치?2022년 10월 04일 07시 20분 00초제주도, 국내 관광객 유치 강화 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
-  </si>
-  <si>
-    <t>제주도, 코로나19 극복...국내 관광객 유치 총력 본문 바로가기 이전 페이지 프레시안 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 프레시안 주요뉴스를 볼 수 있습니다. 보러가기 프레시안 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 사설/칼럼 랭킹 제주도, 코로나19 극복...국내 관광객 유치 총력 입력2020.02.17. 오후 8:50 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 입도 관광객 회복 위해…포털·SNS 등 전략적 마케팅 본격 가동 [현창민 기자(=제주)] 제주도가 코로나19로 직격탄을 맞은 관광 업계를 되살리기 위해 국내 관광객을 중점 유치하기 위한 전략을 세우고 바이럴 마케팅에 나선다.도는 지난 13일부터 국내선 항공 예약 상황이 전주 대비 높아지며 내국인 관광객 입도 감소 추세가 점차 회복될 조짐을 보인다고 밝혔다.코로나19 발생과 무사증 일시 중지에 따라 입도관광객은 코로나19 감염병 위기경보‘주의’경보가 내려진 지난 1월 20일이후 2월 16일 기준 총 80만2263명으로 전년 대비 24.7% 급감했다. 제주도가 코로나19 여파로 위기에 빠진 관광 업계를 되살리기 위해 국내 관광객 유치에 총력을 다하기로 했다. ⓒ제주특별자치도 ⓒ하지만 내국인 관광객 수가 전년동일대비 지난 13일(목) 2만4409명(–29.4%), 14일(금) 2만5936명(-26.1%), 15일(토) 2만7679명(-22.1%), 16일(일) 2만6120명(-27.2%)으로 점차 감소세가 줄며 평균 -45%대를 보이던 증감률이 –20%대를 기록하고 있다.실제 2월 둘째 주말인 2월 7일 55.7%, 2월 8일 59.5%, 2월 9일 52.9% 로 평균 56.0%를 기록했던 탑승률이 지난 주말 83.8%, 2월 14일 83.9%, 2월 15일 87.0%, 2월 16일 80.8%까지 올랐다.이에 도는 감염병 청정 제주이미지를 적극 활용하고 국내 관광객 중점 유치를 위한 온라인 홍보에 돌입해 관광 시장 조기 회복에 박차를 가한다.또한 유명 인플루언서 초청 감염병 청정 제주 투어를 통해 내국인 관광객의 위축된 여행 심리를 안전 관광 제주로 전환해 위축된 제주 관광시장 조기 회복을 도모할 방침이다.도외 다중집합장소(공항 5, 지하철 45, 영화관 26 등)에서도 ‘당신이 몰랐던 제주이야기 이미지’를 집중 홍보할 계획이다.이를 위한 예산 규모는 총 128억4천만 원이다.내국인 관광객 유치 마케팅에 56억2천만 원, 동남아권 등 해외 관광객 유치 마케팅에 38억 원, 직항노선·국내외 홍보사무소 접근성 확충에 34억2천 원 등을 투입할 계획이다.또한 예산 조정을 통해 제주 관광시장 최단기 회복을 위한 ‘제주관광 온라인 빅 할인 이벤트’등을 추진하고 단체 관광객 유치를 위한 관광업계 인센티브 지원 강화로 분위기 반전을 노린다는 전략이다.현재 도는 코로나19로 묶여있던 마케팅 예산을 단계별로 집행하기 위해 관광공사·관광협회와 함께 국내외 마케팅, 접근성 확충 방안들을 논의하고 단계별 전략 수립에 착수했다.특히 마케팅 초기단계에서는 도·공사·협회의 SNS 공식채널을 통한 바이럴 마케팅과 함께 대국민 온라인 홍보와 주요 포털 사이트 광고, 항공사 등 유관기관 공동 프로모션에 돌입해 안전 관광과 감염증 청정 제주 등 클린 제주 이미지를 지속적으로 홍보할 계획이다.이어 관광업체별 온라인 홍보 지원을 강화하고 ◈언론․대형 여행사 제주초청 팸투어 ◈대국민 제주여행 포스팅 공모전 ◈관광업계 공동 ‘탐나오 기획전’ 빅 할인 이벤트 ◈에코파티, 로캉스 지역관광상품 출시 ◈전국 주요도시 현장 로드홍보 ◈수학여행단 등 단체관광객 유치 인센티브 지원 등도 병행한다.회복 후 단계에서는 국내외 관광객 유치 극대화를 위한 글로벌 캠페인을 시행하고 기업체·학교·동호회 등 관련 업계의 인센티브를 지원할 방침이다.또한 국내외 직항 노선 증편 등 접근성 확충을 코로나19 발생 이전으로 회복함과 동시에 해외 현지 여행사와 제주상품 프로모션을 강화하는 등 관광시장 다변화를 추진한다.현재 제주도는 무사증 중단이 ‘안전한 관광 제주 ’를 지켜내기 위한 조치였음을 도 해외홍보사무소와 한국관광공사 해외지사 등을 통해 동남아 등 기존 무비자 대상 국가에 홍보하고 있다.한편 도는 코로나19 사태 해제 시를 대비해 민관 공동 마케팅 추진단을 결성해 일본 및 동남아 주요 도시 제주관광설명회와 세일즈 콜을 실시한다.또한 국가별 주력 온라인 플랫폼을 활용해 세계적인 관광목적지로서의 제주 홍보에 총력을 기울일 계획이라고 밝혔다.현창민 기자(=제주) (pressianjeju@gmail.com)▶프레시안 CMS 정기후원▶네이버 프레시안 채널 구독 ▶프레시안 기사제보Copyrightsⓒ PRESSian.com 무단전재 및 재배포금지 현창민 기자(=제주)(pressianjeju@gmail.com) Copyright ⓒ 프레시안. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. '금태섭 찍어내기', 그리고 4년전 새누리당 "페미니즘 이름 걸고 '소수자 혐오'를 하다니" 유승민 불참한 보수통합…여전히 깊은 '탄핵의 강' "2028년 화석연료문명 붕괴 티핑포인트, 살아 남으려면?" 고속道 터널 30중 연쇄추돌...사망 2명, 중·경상 43명 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 프레시안 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 프레시안 헤드라인 '열중쉬어' 안한 尹대통령에 탁현민 "일 점점 크게 만들어, 여태 시끄러운 막말 파동의 근본 원인" 윤석열 대통령이 지난 1일 국군의날 기념식에서 장병들의 경례를 받은 뒤 '부대 열중쉬어'를 하지 않고, 바로 연설을 한 데 대해 탁현민 전 청와대 의전비서관이 "윤석열 정부의 문제는 사소한 실수를 인정하지 않는 태도 대통령실 이전 연쇄효과, 111억 들여 軍사이버사령부 두군데로 쪼개 이전 대통령실 용산 이전에 따른 연쇄효과로 용산에 있던 국군 사이버작전사령부가 두 곳으로 쪼개져 이전하는데, 올해에만 추가로 111억 원의 예산이 든다는 지적이 나왔다. 국회 국방위원회 소속 더불어민주당 정성호 의원실에 범보수 대권 적합도 유승민 19%로 1위…한동훈 18%로 2위 범보수진영 차기 대권주자 적합도에서 유승민 전 의원이 1위를 기록했다는 여론조사 결과가 나왔다. 여론조사 업체 리서치뷰가 지난 9월 29~30일 이틀간 전국 성인 유권자 1000명을 대상으로 실시해 3일 발표한 여론 트럼프, CNN에 명예훼손 소송…"2024년 대선 출마 막으려 히틀러에 비유" 4억7500만달러 손해배상 청구…재임 당시에도 언론과 '적대적 관계' 도널드 트럼프 전 미국 대통령이 3일(현지시간) CNN 방송을 명예훼손 혐의로 고소했다. 에 따르면, 트럼프 대통령(이하 직함 생략) 변호인단은 'NLL포기' 선동과 '쇠고기 협상' 파동, 그리고 윤석열의 '전쟁' 이명박·박근혜보다도 '정치 기술'에 무능하다? 윤석열 정부는 '정치 기술'에도 참 무능한 정부다. 박근혜 정부, 이명박 정부 시절보다도 더 무능하다. 여기 두 가지 예시가 있다. "노무현 대통령이 김정일에게 NLL을 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 이전 뉴스들 보기 3 다음 뉴스들 보기 프레시안이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 프레시안 헤드라인 더보기 '열중쉬어' 안한 尹대통령에 탁현민 "일 점점 크게 만들어, 여태 시끄러운 막말 파동의 근본 원인" 3시간전 대통령실 이전 연쇄효과, 111억 들여 軍사이버사령부 두군데로 쪼개 이전 2시간전 범보수 대권 적합도 유승민 19%로 1위…한동훈 18%로 2위 2시간전 트럼프, CNN에 명예훼손 소송…"2024년 대선 출마 막으려 히틀러에 비유" 2시간전 'NLL포기' 선동과 '쇠고기 협상' 파동, 그리고 윤석열의 '전쟁' 59분전 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 2시간전 프레시안 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 2시간전 2 '열중쉬어' 안한 尹대통령에 탁현민 "일 점점 크게 만들어, 여태 시끄러운 막말 파동의 근본 원인" 3시간전 3 범보수 대권 적합도 유승민 19%로 1위…한동훈 18%로 2위 2시간전 4 홍준표, 이준석·유승민 겨냥 "연탄가스 정치…개혁보수 타령 지겹다" 2시간전 5 대통령실 이전 연쇄효과, 111억 들여 軍사이버사령부 두군데로 쪼개 이전 2시간전 1 범보수 대권 적합도 유승민 19%로 1위…한동훈 18%로 2위 2시간전 2 '열중쉬어' 안한 尹대통령에 탁현민 "일 점점 크게 만들어, 여태 시끄러운 막말 파동의 근본 원인" 3시간전 3 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 2시간전 4 홍준표, 이준석·유승민 겨냥 "연탄가스 정치…개혁보수 타령 지겹다" 2시간전 5 대통령실 이전 연쇄효과, 111억 들여 軍사이버사령부 두군데로 쪼개 이전 2시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 고양시의 한 호프집에서 음식을 먹고 계산하지 않는 이른바 '먹튀' 사건이 발생해 경찰이 수사에 나섰다. 1일 보배드림에 '호프집 먹튀 인간들 수배합니다'라는 제목의 게시물이 올라왔다. 고양시 삼 尹대통령 풍자 그림, 학생공모전 수상…전시 찬반 논란 제목 '윤석열차'…조종석엔 김건희 여사 추정 인물 윤석열 대통령을 풍자한 만화 작품이 최근 개최된 부천국제만화축제에서 전시돼 찬반 논란이 일고 있다. 4일 한국만화영상진흥원에 따르면 9월 30일부터 10월 3일까지 김기현 "문재인 전 대통령, 5년 동안 나라 망쳐놨으면 책임져야" 문재인 전 대통령이 서해 공무원 피살 사건 관련 감사원의 서면조사 통보에 불쾌감을 표한 가운데, 김기현 국민의힘 의원은 "으레 범인이 목소리를 높이기 마련인데, 발끈하시는 걸 보니 두려우신가 보다"라며 직격했습니다. 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" '서해 공무원 피격 사건' 관련, 감사원의 서면 조사 요구에 대해 문재인 전 대통령이 "대단히 무례한 짓"이라고 불쾌감을 드러낸 것을 두고 권성동 국민의힘 의원이 "목함지뢰로 다리가 잘린 군인에게 '짜장면 먹고 싶냐 [단독]감사원 “진실이 다른 방향 갈길 없을것”… ‘서해 공무원 피살’ 현장감사 14일 종료 문재인 전 대통령에 대한 조사로까지 확대된 2020년 서해 공무원 피살 사건에 대한 감사원의 최종 감사 결과가 어떻게 나올지를 두고 관심이 집중되고 있다. 감사원은 이르면 이달 말 감사 결과를 발표할 것으로 알려졌다 재생하기 재생시간01:14 김건희와 칼 든 검사 싣고…학생 공모전 금상 '윤석열차' 최근 한 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 화제가 되고 있다는 기사도 많이 봤습니다. 한국만화영상진흥원에 따르면 어제(3일) 폐막한 제23회 부천국제만화축제 전시장에 '윤석열차'라는 제목의 만화가 "3명 중 1명은 아이폰"…'삼성 텃밭' 한국서 반전 쓴 애플 [배성수의 다다IT선] '삼성 텃밭'으로 불리던 국내 스마트폰 시장에서 지각변동이 일어나고 있다. 좀처럼 20%대 점유율을 벗어나지 못했던 애플이 올해 하반기 들어 한국 시장에서 입지를 크게 키우면서다. 4일 트래픽 분석사이트 스탯카운터에 북 탄도미사일 일본 상공 통과…윤 대통령 “무모한 핵 도발” 북한이 4일 일본 상공을 통과하는 중거리 탄도미사일 1발을 쐈다고 합동참모본부(합참)가 밝혔다. 북한은 최근 열흘 사이에만 다섯 차례 미사일을 쏘았다. 합참은 이날 “오전 7시23분께 자강도 무평리 일대에서 발사돼 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 쌍방울그룹이 북한 광물자원 개발의 대가로 북측에 1천만달러 상당 내의를 제공하려 한 정황이 국가정보원 내부 문건으로 파악됐다. 쌍방울의 대북사업 관련 뇌물 혐의로 이화영 전 부지사가 구속된 가운데 북측과 쌍방울 사이 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 기사내용 요약 만화영상진흥원 "카툰부문 경우 정치적 풍자 성향 있어" "수상작 선정은 진흥원이 아닌 외부 심사위원이 맡아" [부천=뉴한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 자강도 무평리서 1발 발사…8개월만의 IRBM 발사로 도발 수위 끌어올려 이번엔 고각 아닌 정상각도 발사 가능성…ICBM·핵실험 이어지나 우려 북한이 4일 동쪽으로 중거리 탄도미사일(IRBM)을 발사했다. 올해 1월 “왜 대답안해” 16살 딸 청소기로 때린 엄마…전치 8주 진단 사춘기 딸을 청소기로 때려 전치 8주의 상처를 입힌 친모가 징역형 집행유예를 선고받았다. 3일 춘천지법 형사2단독 박진영 부장판사는 아동복지법상 아동학대와 특수상해 혐의로 기소된 A씨(56)에게 징역 8개월에 집행유 재생하기 재생시간02:29 나랏돈 43억 들어가는데…컵 받침으로 쓰인다는 '이것' 나랏돈을 지원받는 국책연구기관들은 해마다 책자와 함께 요즘은 잘 쓰지 않는 CD 형태로 보고서를 만듭니다. 이렇게 정부와 국회에 보낼 보고서를 만드는 데만 한 해에 40억 원 넘게 듭니다. 인터넷에 보고서가 다 공개 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 한동안 대여 공세 발언을 자제하던 이재명 더불어민주당 대표가 최근 윤석열 대통령을 향해 거친 언사를 쏟아내고 있다. 이 대표는 감사원이 ‘서해 공무원 피살 사건’과 관련해 문재인 전 대통령을 조사하자 윤석열 정부에 안심전환대출, 4억이하 1주택자로 확대… 버팀목대출, 신혼부부는 최대 3억까지 6일부터 변동금리 주택담보대출(주담대)을 최저 연 3.7%의 장기·고정금리 상품으로 바꿔주는 ‘우대형 안심전환대출’ 신청 대상이 주택 가격 4억 원 이하까지로 확대된다. 또 21일부터는 서민에게 낮은 금리로 주택 구 '매각불발' 메가스터디교육, 스타강사 현우진과 맞손…재계약 임박 온라인 교육 1위 기업 메가스터디교육이 소속 스타강사 현우진과 재계약을 추진 중인 것으로 확인됐다. 재계약은 임박 단계로 최종 완료가 되면 자율 공시를 할 예정이다. 4일 메가스터디교육 및 관련 업계에 따르면 메가스 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 윤석열 대통령을 풍자하는 그림이 전국학생만화공모전에서 카툰 부문 금상을 받은 가운데 한국만화영상진흥원이 개최한 '한국만화축제'에 약 4일 동안 전시됐습니다. 이에 "지나치게 정치적"이라는 일각의 비판이 제기됐지만 주 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 文 “감사원 서면조사 ‘무례한 짓’”…김연주 “지금이 무슨 ‘왕조시대’도 아니고” 김연주 시사평론가, 文 측 향해…“서면 조사 요청에 감사원의 권한 밖이라 규정하는 건 납득하기 어려워” “‘무례한 자(, 과연 누구인가…진실 밝히는 데 협조하는 일에 너와 내가 따로 있을 수 있겠나” “왜 무고한 우 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] ‘신라 최고의 명품 귀고리가 출토된 고분은 부부총이 아니었다.’ 9월 29~30일 국립중앙박물관 소강당에서 ‘국립박물관 소장 일제강점기 자료의 공개와 활용’ 학술대회가 열렸다. 우선 일제강점기 조선총독부 박물관이 한 우크라 "러 남부 점령지 방어선 돌파…헤르손 곧 수복" 우크라이나군이 남부 요충지인 헤르손주의 러시아군 주요 방어선을 돌파했다고 발표하면서 러시아군이 계속 수세에 몰리고 있다. 우크라이나가 헤르손주 전역을 수복할 경우, 러시아는 주요 점령지들간 연계가 무너지면서 전황이 “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 대전 중구 아파트 리스트 - 제대로 된 정비, 재생사업이 무엇인지 알려주마! 스마트튜브 부동산조사연구소 유료 상처받은 것만으로 표현할 이유는 충분해 카나리아 선생님 유료 대전 동구 아파트 리스트 - 대전 정비사업의 주축! 그래서 기회를 주는 곳!! 스마트튜브 부동산조사연구소 유료 역행자 - 자청 - 책리뷰 업투게더 유료 뜻밖의 횡재세, 인플레이션과 초과이윤세(Windfall Tax) 택스넷 유료 배드민턴에서 축구로, 인니의 국가 스포츠 발전 전략 스포츠LAB 3. 노래를 통해 배우는 사랑에 대한 통계이야기-순열 놀고있네, 통계 유료 이례적 속도…성동구 '금호 벽산' 리모델링 사업 착착 진행 비결은 땅집고 pro 유료 86번가 데일리 (2022년 9월 30일) - 반도체 나홀로 강세, 윈도우 드레싱도 힘을 쓰지 못했던 하루 86번가 유료 내 형제를 죽인 범인을 30년 만에 찾았습니다. 텀크루즈 #8. 과거 최고가를 기준으로 적정 수준의 시세조정을 판단하면 안되는 이유 도시부자김사부 유료 시대를 앞서간 &lt;김씨표류기&gt; 리뷰 영화선우 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 프레시안 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도관광약자접근성안내센터, 여행작가 참가자 모집 &lt; 사회종합 &lt; 사회 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 사회 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 본문영역 이전 기사보기 다음 기사보기 제주도관광약자접근성안내센터, 여행작가 참가자 모집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회종합 제주도관광약자접근성안내센터, 여행작가 참가자 모집 기자명 양경익 기자 입력 2020.02.17 14:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광약자접근성안내센터는 장애인 등 관광 활동에 대한 관심을 증대시키고 사회참여 활동을 도모하기 위해 여행작가 양성과정을 개설, 참가자를 모집하고 있다고 17일 밝혔다.참가자 모집은 이달 말까지 2주간 진행되며 모집 대상은 제주도에 거주하고 있는 장애인, 노인, 임산부 등 관광 약자다.활동내용은 관광 약자가 접근할 수 있는 제주 여행지를 방문해 여행지에 대한 취재 및 글쓰기, 접근성 모니터링 등으로 원활한 활동을 돕기 위해 동행취재 등의 지원과 소정의 활동비도 지급된다.자세한 내용은 관광약자접근성안내센터 홈페이지(easyjeju.net) 및 페이스북(http://www.facebook.com/jtica15664669), 콜센터(1566-4669) 등을 통해 문의하면 된다. 양경익 기자 양경익 기자 yki@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>확진환자 없는 제주도…관광 다시 살아나나? 본문 바로가기 이전 페이지 MBC 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 MBC 주요뉴스를 볼 수 있습니다. 보러가기 MBC 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 세계 생활 저녁방송 생중계 랭킹 확진환자 없는 제주도…관광 다시 살아나나? 입력2020.02.15. 오후 8:34 수정2020.02.15. 오후 8:36 기사원문 박주연 기자 박주연 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 [뉴스데스크]◀ 앵커 ▶제주도에는 발써 봄꽃이 피었습니다. 매화, 유채, 철쭉 등 제주 곳곳에 꽃물결이 일렁이고 있는데요.코로나19 확진 환자도 발생하지 않으면서, 주춤했던 제주 관광객 수가 조금씩 살아날 기미를 보이고 있습니다.박주연 기자입니다.◀ 리포트 ▶파란 하늘 아래 노란 물감을 풀어놓은 듯, 꽃물결이 일렁입니다. 한낮의 따사로운 햇살에 봄꽃의 빛깔이 눈부시고, 진한 꽃내음에 봄의 한복판에 온 듯한 착각이 듭니다. 혹시나 하는 불안감에 망설이다 제주를 찾은 여행객들은, 뜻밖에 만난 봄의 광경에 근심은 저만치 사라집니다. [배세찬·김우재·이태용/서울시]"'코로나 19' 때문에 걱정을 많이 했다가 제주는 청정지역이라고 해서 여행 왔는데… 꽃도 예쁘고 날씨도 좋고 그래서 제주도 오길 잘한 거 같아요."봄의 전령사인 매화는 일찌감치 꽃망울을 터뜨렸습니다. 겨울을 이겨낸 가지에는 새하얀 꽃들이 청아한 자태를 뽐냅니다. [박선희/경기도 일산동구]"파릇파릇 새싹이 돋아나고 꽃들을 볼 수 있어서 정말 기분이 좋고, 코로나 때문에 집에만 있다가 제주에 와서 맑은 공기도 마시고 맑은 하늘도 보고 정말 좋아요."비자 없이 들어오는 '무사증 제도'가 일시 중지됐고, 제주에서 확진자가 한명도 발생하지 않으면서 여행 취소 문의도 크게 줄고 있습니다. 다음달로 예정된 들불 축제도 예정대로 열릴 예정이고, 백록담을 오를 때 미리 예약을 해야했던 한라산 탐방예약제도 일시적으로 중단돼 관련 업계는 관광객 유치에 도움이 될 걸로 기대하고 있습니다.[고성언/여행사 영업부서장]"예약 취소를 고려했던 분들이 제주의 청정 이미지가 있어서 조금씩 제주로 오시겠다는 분들이 늘고 있고요. 점차적으로 예약문의가 증가하고 있는 추세입니다."코로나19 사태가 진정세로 접어든 가운데 봄꽃이 흐드러지게 핀 제주는 본격적인 봄관광에 나설 채비를 하고 있습니다. MBC뉴스 박주연입니다. (영상취재 : 손세호(제주))박주연 기자 [저작권자(c) MBC (https://imnews.imbc.com) 무단복제-재배포 금지]▶ 네이버 홈에서 [MBC뉴스] 채널 구독하기▶ [엠빅뉴스] "우리는 에이스를 얻었다"..류현진 첫 공식 불펜피칭 후 토론토 감독이 말했다▶ [14F] 수만 명이 동접한 ‘텔레그램 N번 방’, 그들은 대체 뭘 공유하고 있나Copyright(c) Since 1996, MBC&amp;iMBC All rights reserved. 박주연 기자 프로필 구독 구독중 박주연 기자 구독자 0 응원수 0 제주의 딸, 제주MBC 박주연 기자입니다. 좀더 가깝게 좀더 깊게 취재해서 바르게 전하겠습니다 태풍에 말라죽은 양배추‥올레길도 사라져 농작물 폐작 위기‥해안은 쓰레기장 MBC의 구독 많은 기자 MBC 기사를 더 보고 싶다면? 구독 MBC 언론사 구독되었습니다. 메인 뉴스판에서 MBC 주요뉴스를 볼 수 있습니다. 보러가기 MBC 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ MBC. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 심상치 않은 일본…확진 환자 속출 3백 명 넘어 첩보작전인가 했더니…중국인 유학생 관리 비상 2주간 격리해제…환한 미소의 행복한 작별 봉테일보다 더 디테일?…재빠른 기생충 마케팅 [앵커로그] '이국종 교수'도 우려…외상센터 간호사의 하루 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 MBC 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! MBC 헤드라인 재생하기 재생시간01:49 북한, 또 탄도미사일‥"태평양 낙하한 듯" ◀ 앵커 ▶ 북한이 사흘 만에 다시 탄도미사일을 쏘아 올렸습니다. 지난달 25일 이후 열흘 사이 벌써 5번째인데 이번에는 일본 상공을 넘어서 태평양으로 향하는 중거리 탄도미사일인 것으로 분석됐습니다. 엄지인 기자입니 윤 대통령 "감사원 감사에 언급은 부적절‥성역없는 진상규명은 일반원칙" 윤석열 대통령은 감사원이 서해 공무원 피살 사건과 관련해 문재인 전 대통령에 대한 서면조사를 통보하고, 문 전 대통령 측이 반발하는 데 대해 "대통령이 뭐라고 언급하는 것은 적절하지 않은 것 같다"고 밝혔습니다. 윤 재생하기 재생시간03:39 발로 차고 던지고‥어느 회장님의 '갑질' ◀ 앵커 ▶ 한 중견기업 회장이 직원들에게 폭언과 폭력을 서슴지 않고, 비서에게 가족 일은 물론 내연녀 심부름까지 수시로 시킨다는 제보가 들어왔습니다. 구나연 기자입니다. ◀ 리포트 ▶ 계열사 6곳과 주유소 14곳, 재생하기 재생시간00:53 [와글와글] 푸틴 동원령에 반발‥러시아 래퍼 극단 선택 '워키'라는 예명으로 활동하는 이 러시아의 래퍼는 최근 정부의 동원령에 반발해 극단적인 선택했습니다. 영국 데일리 메일 등의 보도인데요. 지인이 공개한 그의 휴대전화 메모장에 "무기를 들고 동족을 죽이고 싶지 않다" 재생하기 재생시간00:40 [PD수첩 예고] 엄마의 24년, 거리에서 청소된 사람들 MBC 뉴스는 24시간 여러분의 제보를 기다립니다. ▷ 전화 02-784-4000 ▷ 이메일 mbcjebo@mbc.co.kr ▷ 카카오톡 @mbc제보 [World Now] 머스크 또 '돌출행동' 트위터서 "우크라 종전안 투표하자" 테슬라 최고경영자 일론 머스크가 러시아가 일방적으로 병합을 발표한 우크라이나 점령지에서 유엔 감독 아래 재투표를 포함한 종전안을 제안하자 볼로디미르 젤렌스키 우크라이나 대통령이 발끈하고 나섰다고 로이터 등이 현지시간 이전 뉴스들 보기 3 다음 뉴스들 보기 MBC가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 MBC 헤드라인 더보기 북한, 또 탄도미사일‥"태평양 낙하한 듯" 1시간전 재생하기 윤 대통령 "감사원 감사에 언급은 부적절‥성역없는 진상규명은 일반원칙" 1시간전 발로 차고 던지고‥어느 회장님의 '갑질' 3시간전 재생하기 [와글와글] 푸틴 동원령에 반발‥러시아 래퍼 극단 선택 3시간전 재생하기 [PD수첩 예고] 엄마의 24년, 거리에서 청소된 사람들 1시간전 재생하기 [World Now] 머스크 또 '돌출행동' 트위터서 "우크라 종전안 투표하자" 39분전 MBC 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 발로 차고 던지고‥어느 회장님의 '갑질' 3시간전 재생하기 2 [와글와글] 푸틴 동원령에 반발‥러시아 래퍼 극단 선택 3시간전 재생하기 3 북한, 중거리 탄도미사일 1발 발사‥"고도 970km로 4500km 비행" 3시간전 4 "대단히 무례한 짓"‥민주 "직권남용 고발" 4시간전 재생하기 5 심야택시 호출료 인상‥오늘 국토부 발표 3시간전 재생하기 1 "대단히 무례한 짓"‥민주 "직권남용 고발" 4시간전 재생하기 2 발로 차고 던지고‥어느 회장님의 '갑질' 3시간전 재생하기 3 북한, 중거리 탄도미사일 1발 발사‥"고도 970km로 4500km 비행" 3시간전 4 연쇄 이전에 또‥사이버사령부만 '111억' 4시간전 재생하기 5 '김건희 증인' 줄줄이 해외출장‥야당 반발 4시간전 재생하기 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 "3명 중 1명은 아이폰"…'삼성 텃밭' 한국서 반전 쓴 애플 [배성수의 다다IT선] '삼성 텃밭'으로 불리던 국내 스마트폰 시장에서 지각변동이 일어나고 있다. 좀처럼 20%대 점유율을 벗어나지 못했던 애플이 올해 하반기 들어 한국 시장에서 입지를 크게 키우면서다. 4일 트래픽 분석사이트 스탯카운터에 재생하기 재생시간01:14 김건희와 칼 든 검사 싣고…학생 공모전 금상 '윤석열차' 최근 한 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 화제가 되고 있다는 기사도 많이 봤습니다. 한국만화영상진흥원에 따르면 어제(3일) 폐막한 제23회 부천국제만화축제 전시장에 '윤석열차'라는 제목의 만화가 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” ‘학생들이 투표해서 학생회장을 뽑는데 왜 교장 선생님 도장이 찍힌 임명장을 줄까?’ 전남 강진군에 사는 중학교 3학년 정세희(15)양은 지난해 11월 학생회장에 당선된 뒤 교장 명의의 ‘임명장’을 받고 의문이 들었다 “왜 대답안해” 16살 딸 청소기로 때린 엄마…전치 8주 진단 사춘기 딸을 청소기로 때려 전치 8주의 상처를 입힌 친모가 징역형 집행유예를 선고받았다. 3일 춘천지법 형사2단독 박진영 부장판사는 아동복지법상 아동학대와 특수상해 혐의로 기소된 A씨(56)에게 징역 8개월에 집행유 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 칼 든 검사, 조종석엔 김건희...고등학생이 그린 '윤석열차' 논란 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 전시된 것으로 확인됐다. 이 사실이 알려지며 온라인상에서도 화제가 되고 있다. 3일 한국만화영 정부 “실내 마스크 의무, 2023년 3월쯤 해제” “올겨울 트윈데믹 고비 남아있어” 요양시설 등 집단감염 절반 줄어 4일부터 입소자 대면면회 허용 신종 코로나바이러스 감염증(코로나19) 유행이 안정적으로 유지되면서 정부가 코로나19 출구전략에 속도를 내고 있지만, 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 이언주, 삭발사진 올리며 쓴소리 “‘공정과 상식’ 외치며 文정권 비판해 왔지만…” 이언주 전 의원, 현재 정부여당의 논란 및 갈등 상황 나열하며 비판 수위 끌어올려 “수사 등 사법적 정의를 실현하는 과정이나 잣대가 권력 유무에 따라 달라져” “주권자인 국민, 선거만 끝나면 수임자에게 주권 빼앗기고 퇴임 뒤에도 '내로남불'?…박근혜 털었던 문재인, 자신 향한 서면조사엔 "무례한 짓" 감사원이 '서해 공무원 피살 사건'과 관련해 문재인 전 대통령을 서면조사하려 한 것으로 알려졌다. 문 전 대통령은 질의서 수령을 거부함과 동시에 불쾌감을 피력했으며, 더불어민주당도 "정치보복"이라며 일제히 반발하고 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 재생하기 재생시간03:39 발로 차고 던지고‥어느 회장님의 '갑질' ◀ 앵커 ▶ 한 중견기업 회장이 직원들에게 폭언과 폭력을 서슴지 않고, 비서에게 가족 일은 물론 내연녀 심부름까지 수시로 시킨다는 제보가 들어왔습니다. 구나연 기자입니다. ◀ 리포트 ▶ 계열사 6곳과 주유소 14곳, “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] ‘신라 최고의 명품 귀고리가 출토된 고분은 부부총이 아니었다.’ 9월 29~30일 국립중앙박물관 소강당에서 ‘국립박물관 소장 일제강점기 자료의 공개와 활용’ 학술대회가 열렸다. 우선 일제강점기 조선총독부 박물관이 한 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" '서해 공무원 피격 사건' 관련, 감사원의 서면 조사 요구에 대해 문재인 전 대통령이 "대단히 무례한 짓"이라고 불쾌감을 드러낸 것을 두고 권성동 국민의힘 의원이 "목함지뢰로 다리가 잘린 군인에게 '짜장면 먹고 싶냐 홍준표, 4년 전 이준석 "'나는 왜 정치하나' 아침마다 5번 복창" 발언 두고 "조롱" 홍준표 대구시장이 최근 페이스북 글에서 타깃으로 정해 연일 비판을 가하고 있는 '개혁보수'에 대한 지적을 3일 저녁에도 이어나갔다. 전날인 2일 페이스북을 통해 "박근혜 전 대통령을 민주당과 합작해 끌어내린" "내부 [속보] 尹, 감사원 文조사 논란에 “대통령 언급 부적절” 윤석열 대통령은 감사원이 서해 공무원 피살 사건과 관련해 문재인 전 대통령에 대한 서면조사를 통보하고 문 전 대통령 측이 반발한 데 대해 “대통령이 뭐라고 언급하는 것은 적절치 않다”고 말을 아꼈다. 윤 대통령은 4 이재명 “윤석열 정부, 독재정권처럼 공포정치···모든 걸 걸고 맞서겠다” 이재명 더불어민주당 대표는 4일 윤석열 정부를 향해 “국민을 지키라는 총칼로 경쟁자를 짓밟았던 독재정권처럼 공포정치에 나선 것”이라며 “정권이 국민의 기대를 저버리고 민주주의 파괴를 획책한다면 모든 걸 걸고 맞서겠다 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 고양시의 한 호프집에서 음식을 먹고 계산하지 않는 이른바 '먹튀' 사건이 발생해 경찰이 수사에 나섰다. 1일 보배드림에 '호프집 먹튀 인간들 수배합니다'라는 제목의 게시물이 올라왔다. 고양시 삼 이스라엘 유적지서 동로마시대 금화 무더기 발굴 각 무게 170g 정도의 금화 출토 7세기쯤 제작된 것으로 추정 이스라엘의 한 자연보호구역 내 유적지에서 동로마제국 시대의 금화가 무더기로 발굴돼 학계의 관심을 받고 있다. 3일(현지시간) 외신에 따르면 이스라엘 문 北, 중거리 미사일 ‘화성 12형’ 쐈다…日 상공 통과, 홋카이도 한때 대피령 10일새 이틀에 1회꼴 북한이 4일 동해상으로 탄도미사일을 발사했다. 일본 NHK 방송은 미사일이 일본 열도를 넘어 태평양으로 향했다고 전했다. 합동참모본부는 출입기자단에 보낸 문자공지를 통해 이날 오전 7시 23분 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 시속 137㎞ 좌회전, 뒷좌석 20대 사망…운전자는 만취였다 만취 상태에서 시속 137㎞로 과속 운전하다 동승자를 숨지게 한 30대 남성이 징역형을 선고받았다. 광주지방법원 형사8단독은 교통사고처리 특례법 위반(치사), 도로교통법 위반(음주운전) 혐의로 기소된 A씨(31)에게 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 2022.09.29(목) Signal Report "리바운드의 세 가지 조건 기억하시죠?" 유목민의 시그널리포트 이렇게 된 이상 청와대로 간다! 에세이, 에라이세이 유료 천 만 원짜리 떡볶이 레시피 대 공개 IMCHEF(임셰프) 동영상 기사 유료 재초환 완화: 부담금 얼마예요? 0원 BOODING+ 유료 물적분할 재미 본 티라유텍, 자금 확보해 로봇사업 강화 thebellstock 유료 디지털 시대의 한글! 강자일까? 약자일까? 과학소년 유료 대전 중구 아파트 리스트 - 제대로 된 정비, 재생사업이 무엇인지 알려주마! 스마트튜브 부동산조사연구소 유료 이차전지 산업 현황 &amp; 전망 투자 신세계 유료 수협은행, 이달부터 건설·부동산업 대출 전면 중단 딜북뉴스 유료 삼성고른기회장학재단(공동프로그램) - 생태윤리교육 복지킬러 유료 철학은 텍스트인가? 나는 생각한다 고로 철학한다 몽상가의 만화 영화 연구소 상위 1% 유튜버를 위한 세금 관리는? "법인과 영업권에 주목하면 세후 수입이 바뀝니다"(ft.인플루언서, 연예인 등 1인 사업자) 이상화세무사의 모래세무 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ MBC 예 아니오</t>
-  </si>
-  <si>
-    <t>코로나19, 제주관광 직격탄…제주도, 5700억원 긴급 수혈 본문 바로가기 이전 페이지 파이낸셜뉴스 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 파이낸셜뉴스 주요뉴스를 볼 수 있습니다. 보러가기 파이낸셜뉴스 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 코로나19, 제주관광 직격탄…제주도, 5700억원 긴급 수혈 입력2020.02.13. 오후 12:39 수정2020.02.13. 오후 1:47 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 관광진흥기금 활용…사드사태 때보다 2배 이상 지원 확대 제주도는 13일 코로나19 확산 우려로 침체된 제주경제에 활력을 불어넣기 위한 ‘범도민 위기극복 협의체’ 출범식을 가졌다. [제주=좌승훈 기자] 제주특별자치도가 중국발 코로나19(우한폐렴) 확산 우려로 위축된 관광업계에 총 5700억원에 달하는 관광진흥기금을 특별 지원한다고 13일 밝혔다. 이번 지원은 2015년 메르스(중동호흡기증후군·특별융자 1300억원)나 2017년 사드(고고도미사일방어체계, 특별융자 300억원·상환유예 2280억원) 사태 때와 비교할 두 배 이상 확대된 것이다. 특별융자 지원금 중 3000억원은 신규 융자 형태로 지원하며, 2700억원은 기 융자업체에 대한 상환유예 방식으로 지원된다. 또 이중 2000억원은 34개 전 업종을 대상으로 경영상 어려움을 극복하기 위한 경영안정자금 용도로 지원된다. 이는 기존 대출 유무에 관계없이 융자한도를 20% 확대한 금액으로 지원되면, 이자율도 금융기관과 협의해 추가 인하할 계획이다. 아울러 1000억원은 시설자금으로 쓰인다. 이 역시 기존의 대출과 상관없이 신규 지원으로 진행된다. 시설자금은 26개 업종에 대한 시설 개보수와 공연장·유어장 등 테마시설에 대한 건설·증설 용도로 지원한다. 다만, 숙박시설 등 과잉시설은 제외된다. 나머지 2700억원 규모의 자금은 융자상환기간 연장을 위해 투입된다. 과거 융자금을 지원받고 상환중인 전체 업체(1139건)에 대해 조건 없이 1년간 상환을 연장함으로써, 코로나19 여파로 경영난을 겪고 있는 관광사업체에게 실질적인 도움이 될 수 있을 것으로 도는 기대하고 있다. 도는 이 같은 내용을 담은 '제주관광진흥기금 특별융자 및 상환유예 지원계획'을 오는 17일 도청 홈페이지에 공고하고, 20일부터 5월18일까지 3개월간 수시로 접수한다. 아울러 신속한 행정 처리를 위해 제주관광공사·제주도관광협회와 함께 제주웰컴센터 내에 '제주관광진흥기금 특별지원센터'를 설치하고, 직원 5명을 상주시키기로 했다. 이에 따라 종래 행정시나 관광협회를 경유해 접수를 하거나, 신청기간이 짧아 접수 후 검토 대상자를 선정했던 애로사항들도 일시에 해결될 것으로 전망하고 있다. jpen21@fnnews.com 좌승훈 기자 ▶ 헉! 소리나는 스!토리 뉴스 [헉스]▶ 클릭해, 뉴스 들어간다 [뉴스쿨] ▶ 세상에 이런일이 [fn파스] ※ 저작권자 ⓒ 파이낸셜뉴스. 무단 전재-재배포 금지 좌승훈(jpen21@fnnews.com) Copyright ⓒ 파이낸셜뉴스. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 제주도, 코로나19 위기 극복 사활…범도민 협의체 출범 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 파이낸셜뉴스 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 파이낸셜뉴스 헤드라인 '타다' 법정분쟁 4년… 혁신 엔진은 꺼졌다 [가로막힌 플랫폼 혁신 (上)] 승합차 호출서비스를 운영하다 불법 논란 끝에 재판에 넘겨진 차량호출 서비스 '타다'의 전·현직 경영진이 지난달 29일 2심에서도 무죄를 받았다. 대법원의 판단이 남았지만, 이미 혁신의 불씨는 사실상 꺼졌다. 갈등 해 尹대통령 "순방서 많은 성과..감사원 언급은 부적절" 윤석열 대통령은 4일 순방 논란에 대해 "많은 성과를 거양(擧揚)했다고 생각한다"며 정면 반박했으나, 감사원의 문재인 전 대통령에 대한 '서해 공무원 피살 사건' 서면조사 통보 논란에는 "대통령이 뭐라고 언급하는 것 [속보] '채널A 기자 명예훼손' 최강욱 의원, 1심서 무죄 [파이낸셜뉴스] 8000원짜리 30만원에 팔아도… 처벌 못 하는 온라인 암표 [돌아온 축제, 활개치는 암표] "부국제 무간도 양조위 gv 양도합니다. 30 이상 제시 받습니다." 지난 1일 한 트위터에 올라온 게시글이다. 부산국제영화제에서 상영되는 영화 '무간도' 표를 양도한다는 내용이다. 게시자는 최소 30만원 이상으로 "한 번 착용했는데 자판이 뚝 떨어졌다"..대통령 시계에 불만 쏟아져 정부가 장관 등에게 포상으로 주는 손목시계의 가격과 품질이 부처마다 천차만별인 것으로 나타났다. 3일 국회 행정안전위원회 소속 국민의힘 정우택 의원실에 따르면 교육부가 구매한 장관·급 포창 부상품용 손목시계의 금액은 횡단보도 건너다 택시에 치인 여중생..보름만에 결국 숨져 제주도에서 횡단보도를 건너다 택시에 치인 여중생이 보름 만에 숨졌다. 4일 제주 서귀포경찰서에 따르면 60대 택시기사 A씨를 교통사고 처리 특례법 위반 혐의로 입건해 조사하고 있다. A씨는 추석 연휴인 지난달 11일 이전 뉴스들 보기 3 다음 뉴스들 보기 파이낸셜뉴스가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 파이낸셜뉴스 헤드라인 더보기 '타다' 법정분쟁 4년… 혁신 엔진은 꺼졌다 [가로막힌 플랫폼 혁신 (上)] 16시간전 尹대통령 "순방서 많은 성과..감사원 언급은 부적절" 50분전 [속보] '채널A 기자 명예훼손' 최강욱 의원, 1심서 무죄 22분전 8000원짜리 30만원에 팔아도… 처벌 못 하는 온라인 암표 [돌아온 축제, 활개치는 암표] 5시간전 "한 번 착용했는데 자판이 뚝 떨어졌다"..대통령 시계에 불만 쏟아져 1시간전 횡단보도 건너다 택시에 치인 여중생..보름만에 결국 숨져 2시간전 파이낸셜뉴스 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 2시간전 2 8000원짜리 30만원에 팔아도… 처벌 못 하는 온라인 암표 [돌아온 축제, 활개치는 암표] 5시간전 3 [단독] 나라재산 팔아 16조 채운다는데… 작년 기금 수익 겨우 1%대 5시간전 4 '빅스텝'시 대출금리 8%...영끌족·전세족 모두 '숨 죽여' 5시간전 5 '계급 나눈' 아이폰14, 프로.프로맥스 쏠림에 판매량 줄듯 4시간전 1 칼 든 검사, 운전석엔 김건희..만화축제에 전시된 '윤석열차' 그림 논란 3시간전 2 北피살공무원 아내 "文 무례하다는 말, 저희한테 표현한 것 같다" 3시간전 3 "귀신같은 꿀빨러" 이재명 심야트윗에 누리꾼들 감탄 댓글 3시간전 4 文 "대단히 무례한 짓" 감사원 서면조사에 정국 얼어붙었다 2시간전 5 [속보]尹대통령 "이번 순방에서 많은 성과 거양했다 생각" 1시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 윤석열 대통령을 풍자하는 그림이 전국학생만화공모전에서 카툰 부문 금상을 받은 가운데 한국만화영상진흥원이 개최한 '한국만화축제'에 약 4일 동안 전시됐습니다. 이에 "지나치게 정치적"이라는 일각의 비판이 제기됐지만 주 네이버 일냈다…한국 인터넷 역사상 최대 규모 2조원 ‘빅딜’ 네이버가 승부수를 던졌다. 한국 인터넷 역사상 최대 규모의 빅딜에 나섰다. 네이버는 4일 북미 최대 패션 C2C 커뮤니티 포쉬마크 인수를 통해 커머스 시장 선점에 나선다고 밝혔다. 인수 금액은 2조3000억원에 달한 재생하기 재생시간02:20 우크라, 남부 전선도 돌파…핵 위기 커지나 우크라이나 소식입니다. 동부 요충지를 탈환한 우크라이나군이 남부에서도 주목할만한 전과를 올리고 있습니다. 그런데 우크라이나군이 영토 탈환에 성공할수록 러시아의 핵무기 사용 가능성이 커질 수 있다는 우려가 나옵니다. [단독]감사원 “진실이 다른 방향 갈길 없을것”… ‘서해 공무원 피살’ 현장감사 14일 종료 문재인 전 대통령에 대한 조사로까지 확대된 2020년 서해 공무원 피살 사건에 대한 감사원의 최종 감사 결과가 어떻게 나올지를 두고 관심이 집중되고 있다. 감사원은 이르면 이달 말 감사 결과를 발표할 것으로 알려졌다 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 기사내용 요약 만화영상진흥원 "카툰부문 경우 정치적 풍자 성향 있어" "수상작 선정은 진흥원이 아닌 외부 심사위원이 맡아" [부천=뉴한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 北, 중거리 미사일 ‘화성 12형’ 쐈다…日 상공 통과, 홋카이도 한때 대피령 10일새 이틀에 1회꼴 북한이 4일 동해상으로 탄도미사일을 발사했다. 일본 NHK 방송은 미사일이 일본 열도를 넘어 태평양으로 향했다고 전했다. 합동참모본부는 출입기자단에 보낸 문자공지를 통해 이날 오전 7시 23분 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 전주환의 '두 얼굴'…신상공개 21명 중 18명이 신분증 사진 기사내용 요약 피의자 '머그샷' 거부하면 신분증 증명사진 공개 2019년부터 신상공개 21명…18명이 신분증 사진 공개된 신분증 사진, 언제 찍었는지 알지도 못해 피의자 신분증 사진과 현재 모습 너무 달라 논란 이성 "엔저로 더 싼 일본 갑니다" 예약 폭증…'배짱장사' 제주도는 발동동 일본, 대만, 홍콩까지 오픈되고 있는데, 제주도가 배짱장사를 계속 할 수 있을지...렌트비, 숙박비, 식당 거품이 좀 빠지길 바라봅니다." "결혼기념길에 제주도 여행을 고민해오다가 11월초 오사카 비행기와 호텔을 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 승승장구하던 아시아나도 "거덜 날 판"…항공사들 '초비상' 아시아나항공과 저가항공사(LCC)들이 올 3분기 말 기준 ‘완전 자본잠식’에 빠질 위기에 처했다. 항공기 구매 또는 리스 과정에서 발생한 막대한 달러 빚 때문이다. 최근 원·달러 환율이 급등해 달러 부채를 원화로 환 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 600억짜리 최신형 전투기 또 '산산조각'…러軍, 계속되는 굴욕 최근 우크라이나 동부 도네츠크 리만 지역에서 수백억원에 달하는 러시아 전투기가 박살 난 채 발견됐다. 2일(현지시간) 우크라이나 공군사령부는 동부 요충지인 리만에서 러시아 전투기 수호이(Su)-34 파편을 찾았다고 재생하기 재생시간02:29 나랏돈 43억 들어가는데…컵 받침으로 쓰인다는 '이것' 나랏돈을 지원받는 국책연구기관들은 해마다 책자와 함께 요즘은 잘 쓰지 않는 CD 형태로 보고서를 만듭니다. 이렇게 정부와 국회에 보낼 보고서를 만드는 데만 한 해에 40억 원 넘게 듭니다. 인터넷에 보고서가 다 공개 킴 카다시안, ‘SNS 1건’ 때문에…벌금만 18억원 냈다 ‘이더리움맥스’ 홍보 대가 미고지 美SEC 합의금 18억원 미국의 모델 겸 패션사업가인 킴 카다시안이 자신의 소셜네트워크서비스(SNS)에서 특정 가상화폐를 불법 광고했다. 이에 카다시안은 126만 달러(약 18억19 “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 안심전환대출, 4억이하 1주택자로 확대… 버팀목대출, 신혼부부는 최대 3억까지 6일부터 변동금리 주택담보대출(주담대)을 최저 연 3.7%의 장기·고정금리 상품으로 바꿔주는 ‘우대형 안심전환대출’ 신청 대상이 주택 가격 4억 원 이하까지로 확대된다. 또 21일부터는 서민에게 낮은 금리로 주택 구 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” ‘학생들이 투표해서 학생회장을 뽑는데 왜 교장 선생님 도장이 찍힌 임명장을 줄까?’ 전남 강진군에 사는 중학교 3학년 정세희(15)양은 지난해 11월 학생회장에 당선된 뒤 교장 명의의 ‘임명장’을 받고 의문이 들었다 “사령관을 발가벗겨서...” 리만서 퇴각한 러, 내부서도 군부 조롱 러시아군이 우크라이나 동부 핵심 요충지인 리만에서 패퇴한 가운데, 러시아 국내에서도 이를 놓고 비난 여론이 일고 있다고 외신들이 2일(현지 시각) 보도했다. 미국 워싱턴포스트(WP)는 러시아군이 리만에서 퇴각해 새로 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 '매각불발' 메가스터디교육, 스타강사 현우진과 맞손…재계약 임박 온라인 교육 1위 기업 메가스터디교육이 소속 스타강사 현우진과 재계약을 추진 중인 것으로 확인됐다. 재계약은 임박 단계로 최종 완료가 되면 자율 공시를 할 예정이다. 4일 메가스터디교육 및 관련 업계에 따르면 메가스 재생하기 재생시간03:39 발로 차고 던지고‥어느 회장님의 '갑질' ◀ 앵커 ▶ 한 중견기업 회장이 직원들에게 폭언과 폭력을 서슴지 않고, 비서에게 가족 일은 물론 내연녀 심부름까지 수시로 시킨다는 제보가 들어왔습니다. 구나연 기자입니다. ◀ 리포트 ▶ 계열사 6곳과 주유소 14곳, "귀신같은 꿀빨러" 이준석 팬도 혀 내두른 이재명 심야트윗 “잘 챙겨 보겠습니다. 망 사용료 법 문제점이 있어 보입니다.” 지난 2일 자정 직전에 이재명 더불어민주당 대표는 자신의 트위터에 이같은 글을 적었다. ‘망 사용료’ 지불을 의무화하는 법안의 문제점을 지적한 트위터 '월급 600만원' 싱글 직장인, 알고보니 '돈' 이렇게 벌었다 대기업에서 소프트웨어 개발 업무를 하는 35세 김모씨는 서울 사당동 85㎡ 아파트에서 혼자 살고 있다. 월급이 600만원을 웃돌지만 절반에 가까운 300만원은 적금과 펀드 등에 넣는다. 주말엔 자전거로 배달라이더 일 정부 “실내 마스크 의무, 2023년 3월쯤 해제” “올겨울 트윈데믹 고비 남아있어” 요양시설 등 집단감염 절반 줄어 4일부터 입소자 대면면회 허용 신종 코로나바이러스 감염증(코로나19) 유행이 안정적으로 유지되면서 정부가 코로나19 출구전략에 속도를 내고 있지만, "월급 줄 돈 없다"…기증 인체조직 헐값에 판 공공기관 인체조직을 기증받아 이식재를 생산하는 보건복지부 산하 공공기관이 직원들에게 줄 월급이 없다는 이유로 기증받은 인체조직을 '할인 판매'한 사실이 드러났습니다. 어제(3일) 국회 보건복지위원회 소속 더불어민주당 강선우 '부자아빠' 기요사키, 달러 폭락 예언..."비트코인·금·은 매수할 때" 세계적인 베스트셀러 '부자 아빠 가난한 아빠'의 저자 로버트 기요사키(Robert Kiyosaki)가 달러 폭락 시나리오를 제시해 화제다. 3일(현지시간) 암호화폐 전문지 유투데이에 따르면 기요사키는 "내년 1월 미 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 2022.09.29(목) Signal Report "리바운드의 세 가지 조건 기억하시죠?" 유목민의 시그널리포트 이렇게 된 이상 청와대로 간다! 에세이, 에라이세이 유료 천 만 원짜리 떡볶이 레시피 대 공개 IMCHEF(임셰프) 동영상 기사 유료 재초환 완화: 부담금 얼마예요? 0원 BOODING+ 유료 물적분할 재미 본 티라유텍, 자금 확보해 로봇사업 강화 thebellstock 유료 디지털 시대의 한글! 강자일까? 약자일까? 과학소년 유료 대전 중구 아파트 리스트 - 제대로 된 정비, 재생사업이 무엇인지 알려주마! 스마트튜브 부동산조사연구소 유료 이차전지 산업 현황 &amp; 전망 투자 신세계 유료 수협은행, 이달부터 건설·부동산업 대출 전면 중단 딜북뉴스 유료 삼성고른기회장학재단(공동프로그램) - 생태윤리교육 복지킬러 유료 철학은 텍스트인가? 나는 생각한다 고로 철학한다 몽상가의 만화 영화 연구소 상위 1% 유튜버를 위한 세금 관리는? "법인과 영업권에 주목하면 세후 수입이 바뀝니다"(ft.인플루언서, 연예인 등 1인 사업자) 이상화세무사의 모래세무 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 파이낸셜뉴스 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도, 관광 활성화 위해 한라산 탐방예약제 ‘유보’ - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:37 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 관광 활성화 위해 한라산 탐방예약제 ‘유보’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 관광 활성화 위해 한라산 탐방예약제 ‘유보’ 고경호 기자 승인 2020.02.12 11:17 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주일보 자료사진 신종 코로나바이러스 감염증(이하 신종 코로나) 사태로 직격탄을 맞은 제주 관광업계의 요구에 따라 제주특별자치도가 한라산 탐방예약제를 유보했다. 또 범도민 위기극복 협의체(이하 범도민 협의체)가 13일 출범을 앞두고 각 분과별 첫 회의를 개최했다. 제주특별자치도 재난안전대책본부는 12일 제주도청 기자실에서 ‘13차 신종 코로나 합동 브리핑’을 열고 관광객 유치를 위한 방안으로 한라산 탐방예약제를 한시적으로 유보한다고 밝혔다. 제주도는 신종 코로나에 따른 불안이 관광 기피와 소비 위축으로 이어지면서 지역경제의 위기가 심화됨에 따라 내국인 관광객을 제주에 유치하기 위해 한라산 탐방예약제 시범운영을 일시 중단키로 결정했다. 이에 따라 제주도 세계유산본부는 13일부터 신종 코로나 사태가 진정될 때까지 한라산 탐방예약제 시범운행을 중단한다. 제주도는 유보 기간을 활용해 한라산 탐방예약제 시범 운행 시행 이후 확인된 문제들을 보완할 예정이다. 예약 후 탐방하지 않는 일명 ‘노쇼’(예약 부도자) 행위에 대해 페널티를 부여하는 방안과 노쇼로 인해 피해를 입는 탐방객이 없도록 시간대별 탐방예약제를 도입하는 방안 등이 검토 사항에 포함됐다. 신종 코로나 사태를 극복하기 위한 범도민 협의체는 지난 10~11일 양일간 7개 분과별 첫 회의를 개최했다. 각 분과는 지역경제 위기 극복 등 범도민 협의체의 운영 목표를 공유하고 구체적인 활동 계획을 논의했으며, 분과별 협의회장도 선출했다. 세부적으로는 경제 협력 분과의 경우 소상공인과 중소기업, 수출통상, 일자리, 미래 산업 분야의 피해 극복에 집중할 예정이며, 관광산업 협력 분과는 역량 결집을 위한 행동 과제를 우선 발굴키로 했다. 건설경기 활성화 협력 분과는 부동산 경기 둔화와 미분양 주택 증가 등으로 인한 침체가 지속됨에 따라 건설 분야 신속 발주와 조기 집행, 제도 개선, 도시재생사업 조기 추진 등을 위한 방안을 모색키로 결정했다. 또 1차 산업 협력 분과는 자체 제도개선과 중장기 과제, 정부 건의 사항 등을 논의하는 한편 소비 위축에 대한 대응책 마련에 주력할 예정이다. 지역사회 협력 분과는 범도민 소비촉진 붐을 조성할 예정이며, 사회복지 협력 분과는 혼자사는 노인과 1인 가구 등 신종 코로나에 대한 정보 접근과 감염 우려가 높은 계층을 보호하기 위한 실행 계획을 마련키로 했다. 다음은 각 분과별 협의회장 명단. ▲경제 협력 분과 안귀환 제주경영자총협회장 ▲관광산업 협력 분과 부동석 제주도관광협회장 ▲건설경기 활성화 협력 분과 장태범 대한건설협회 제주도회장 ▲1차산업 협력 분과 강수길 농업인단체협의회장 ▲지역사회 협력 분과 전문수 제주도새마을회장 ▲사회복지 협력 분과 고승화 제주도사회복지협의회장. 고경호 기자  kkh@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 고경호 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>신종코로나 여파에 제주도 관광객 '반토막'…지역경제 위기 본문 바로가기 이전 페이지 MBN 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 MBN 주요뉴스를 볼 수 있습니다. 보러가기 MBN 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 저녁방송 생중계 랭킹 신종코로나 여파에 제주도 관광객 '반토막'…지역경제 위기 입력2020.02.12. 오전 9:32 수정2020.02.19. 오전 10:06 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 신종 코로나바이러스 감염증(신종코로나) 여파로 제주를 찾는 관광객이 반토막 나는 등 제주지역 경제가 심각한 위기에 처했습니다.제주관광협회에 따르면 지난 1일부터 열흘간 제주를 찾은 관광객은 모두 20만7천343명으로 이중 내국인 관광객은 19만3천38명, 외국인 관광객은 1만4천305명입니다.지난해 같은 기간 제주 입도 관광객(39만2천363명)과 비교할 때 47.2％(18만5천20명) 줄어든 수치입니다.내국인 관광객은 45.0％, 외국인 관광객은 무사증 입국 일시 중단 조치가 더해지면서 65.2％ 감소했습니다.신종코로나 위기가 확산하기 직전인 지난달 같은 기간(1월 1∼10일, 42만23명)과 비교하더라도 관광객은 50.6％나 줄어들었습니다.그야말로 반토막이 난 상황입니다.지난 설 연휴 직후부터 서서히 관광객 감소 조짐이 보이더니 제주를 관광한 뒤 귀국한 중국인 여성의 신종코로나 확진 판정 사실이 알려진 지난 1일 이후부터 본격화됐습니다.관광객 감소는 그대로 제주경제의 주축이 되는 관광업계에 영향을 미쳤습니다.제주를 찾는 관광객이 반토막 나면서 도내 한 대형렌터카의 경우 예약 취소가 평소의 2∼3배에 달해 매출이 50％ 이상 급감, 사실상 적자로 돌아섰습니다.호텔 예약률은 물론 제주시티투어 버스 이용객도, 골프장 이용객도 이전에 비해 50％ 이상 줄었습니다.전국 최고 매출을 보이던 제주동문시장 야시장도 신종코로나 사태 이전 만큼의 호황을 기대하지 못하고 있습니다.상황이 이러다 보니 단돈 3천 원짜리 김포발 제주행 항공권까지 등장했습니다.항공사들은 적자폭을 줄이기 위해 김포-제주 노선은 물론 제주와 국내 다른 지역을 잇는 모든 항공편에 대해 30∼50％ 감편 운항하고 있습니다.심각한 경영 위기에 직면한 항공사와 호텔, 관광업체 등을 중심으로 무급휴직을 시행하고 있고, 일부는 임시 휴업도 검토하고 있습니다.항공업계 관계자는 "신종코로나 사태가 극에 달하면서 2월까지 가족여행 자체가 없어졌다. 3월에는 초·중·고등학교가 정상적으로 개학해 사실상 관광비수기에 접어들어 업친데 덮친격이 된다"다고 말했습니다.또 다른 관광업계 관계자는 "업체들마다 '이러다 죽겠다'고 아우성"이라며 "제주의 경우 확진자가 단 한명도 발생하지 않은 신종 코로나바이러스 청정지역이다. 부디 너무 과도한 우려는 접어달라"고 당부했습니다.[MBN 온라인뉴스팀]▶네이버 메인에서 MBN뉴스를 만나보세요!▶MBN 무료 고화질 온에어 서비스 GO!▶파격 특가 비디오! 재미를 팝니다! 오세요 'ㅋㅋ마켙'&lt; Copyright ⓒ MBN(www.mbn.co.kr) 무단전재 및 재배포 금지 &gt; Copyright ⓒ MBN. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 31번 확진자, 예배 보고 호텔 뷔페서 식사…지역사회 확산 일본, 감염자 616명으로 급증…도쿄는 '택시 공포' 5명 숨진 순천~완주 터널…'블랙아이스' 주장 엇갈려 '박근혜 변호인' 유영하, 미래통합당 출범일에 탈당 박성광 결혼 소감 고백 "훌라훌라들에게 축하받길 원해"(손편지 전문) 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 MBN 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! MBN 헤드라인 [속보] '채널A 기자 명예훼손 혐의' 최강욱 1심 무죄 '채널A 기자 명예훼손 혐의' 최강욱 1심 무죄 이재명 "윤석열 정부, 헛발질로 판명난 '북풍몰이' 빌미로 보복감사" 이재명 더불어민주당 대표는 감사원이 문재인 전 대통령에 대한 서면 조사를 통보한 것을 두고 "윤석열 정부가 헛발질로 판명 난 북풍몰이를 빌미로 해서 전직 대통령에 대해서 보복감사를 시도하고 있다"라며 강하게 비판했습 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 블라디미르 푸틴 러시아 대통령이 지난달 30일 러시아 수도 모스크바의 붉은 광장에서 '사람들의 선택: 함께 영원히’라는 제목의 콘서트에서 고가 브랜드의 재킷을 입고 연단에 올라 논란이 일고 있습니다. 해당 행사는 우 이스라엘 유적지서 무더기 금화…전쟁 때 주인이 벽에 숨긴 재산 추정 이스라엘 골란고원에 있는 자연보호구역 내 유적지에서 동로마제국 시대의 금화가 무더기로 발견됐습니다. 이스라엘 문화재청(IAA)은 3일(현지시간) 최근 북부 헤르몬 스트림 자연보호구역 내 바니아스 유적지에서 발굴작업 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 윤석열 대통령을 풍자하는 그림이 전국학생만화공모전에서 카툰 부문 금상을 받은 가운데 한국만화영상진흥원이 개최한 '한국만화축제'에 약 4일 동안 전시됐습니다. 이에 "지나치게 정치적"이라는 일각의 비판이 제기됐지만 주 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 이전 뉴스들 보기 3 다음 뉴스들 보기 MBN이 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 MBN 헤드라인 더보기 [속보] '채널A 기자 명예훼손 혐의' 최강욱 1심 무죄 23분전 이재명 "윤석열 정부, 헛발질로 판명난 '북풍몰이' 빌미로 보복감사" 51분전 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 19시간전 이스라엘 유적지서 무더기 금화…전쟁 때 주인이 벽에 숨긴 재산 추정 1시간전 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 1시간전 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 16시간전 MBN 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 16시간전 2 김기현 "문재인 전 대통령, 5년 동안 나라 망쳐놨으면 책임져야" 1시간전 3 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 1시간전 4 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 19시간전 5 이스라엘 유적지서 무더기 금화…전쟁 때 주인이 벽에 숨긴 재산 추정 1시간전 1 김기현 "문재인 전 대통령, 5년 동안 나라 망쳐놨으면 책임져야" 1시간전 2 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 1시간전 3 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 16시간전 4 민간인 죽어가는데…푸틴, 1100만원짜리 재킷입고 축하 공연 즐겨 19시간전 5 심야택시 호출료 인상…정부, 오늘 택시대책 발표 3시간전 재생하기 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 고양시의 한 호프집에서 음식을 먹고 계산하지 않는 이른바 '먹튀' 사건이 발생해 경찰이 수사에 나섰다. 1일 보배드림에 '호프집 먹튀 인간들 수배합니다'라는 제목의 게시물이 올라왔다. 고양시 삼 尹대통령 풍자 그림, 학생공모전 수상…전시 찬반 논란 제목 '윤석열차'…조종석엔 김건희 여사 추정 인물 윤석열 대통령을 풍자한 만화 작품이 최근 개최된 부천국제만화축제에서 전시돼 찬반 논란이 일고 있다. 4일 한국만화영상진흥원에 따르면 9월 30일부터 10월 3일까지 김기현 "문재인 전 대통령, 5년 동안 나라 망쳐놨으면 책임져야" 문재인 전 대통령이 서해 공무원 피살 사건 관련 감사원의 서면조사 통보에 불쾌감을 표한 가운데, 김기현 국민의힘 의원은 "으레 범인이 목소리를 높이기 마련인데, 발끈하시는 걸 보니 두려우신가 보다"라며 직격했습니다. 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" '서해 공무원 피격 사건' 관련, 감사원의 서면 조사 요구에 대해 문재인 전 대통령이 "대단히 무례한 짓"이라고 불쾌감을 드러낸 것을 두고 권성동 국민의힘 의원이 "목함지뢰로 다리가 잘린 군인에게 '짜장면 먹고 싶냐 [단독]감사원 “진실이 다른 방향 갈길 없을것”… ‘서해 공무원 피살’ 현장감사 14일 종료 문재인 전 대통령에 대한 조사로까지 확대된 2020년 서해 공무원 피살 사건에 대한 감사원의 최종 감사 결과가 어떻게 나올지를 두고 관심이 집중되고 있다. 감사원은 이르면 이달 말 감사 결과를 발표할 것으로 알려졌다 재생하기 재생시간01:14 김건희와 칼 든 검사 싣고…학생 공모전 금상 '윤석열차' 최근 한 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 화제가 되고 있다는 기사도 많이 봤습니다. 한국만화영상진흥원에 따르면 어제(3일) 폐막한 제23회 부천국제만화축제 전시장에 '윤석열차'라는 제목의 만화가 "3명 중 1명은 아이폰"…'삼성 텃밭' 한국서 반전 쓴 애플 [배성수의 다다IT선] '삼성 텃밭'으로 불리던 국내 스마트폰 시장에서 지각변동이 일어나고 있다. 좀처럼 20%대 점유율을 벗어나지 못했던 애플이 올해 하반기 들어 한국 시장에서 입지를 크게 키우면서다. 4일 트래픽 분석사이트 스탯카운터에 북 탄도미사일 일본 상공 통과…윤 대통령 “무모한 핵 도발” 북한이 4일 일본 상공을 통과하는 중거리 탄도미사일 1발을 쐈다고 합동참모본부(합참)가 밝혔다. 북한은 최근 열흘 사이에만 다섯 차례 미사일을 쏘았다. 합참은 이날 “오전 7시23분께 자강도 무평리 일대에서 발사돼 [단독]'쌍방울, 北에 1천만불 약속' 국정원 문건 입수 쌍방울그룹이 북한 광물자원 개발의 대가로 북측에 1천만달러 상당 내의를 제공하려 한 정황이 국가정보원 내부 문건으로 파악됐다. 쌍방울의 대북사업 관련 뇌물 혐의로 이화영 전 부지사가 구속된 가운데 북측과 쌍방울 사이 조종석엔 김건희·칼 든 검사…만화축제 금상 '윤석열차' 전시 논란 기사내용 요약 만화영상진흥원 "카툰부문 경우 정치적 풍자 성향 있어" "수상작 선정은 진흥원이 아닌 외부 심사위원이 맡아" [부천=뉴한국만화영상진흥원이 주최한 한국만화축제에서 윤석열 대통령을 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 자강도 무평리서 1발 발사…8개월만의 IRBM 발사로 도발 수위 끌어올려 이번엔 고각 아닌 정상각도 발사 가능성…ICBM·핵실험 이어지나 우려 북한이 4일 동쪽으로 중거리 탄도미사일(IRBM)을 발사했다. 올해 1월 “왜 대답안해” 16살 딸 청소기로 때린 엄마…전치 8주 진단 사춘기 딸을 청소기로 때려 전치 8주의 상처를 입힌 친모가 징역형 집행유예를 선고받았다. 3일 춘천지법 형사2단독 박진영 부장판사는 아동복지법상 아동학대와 특수상해 혐의로 기소된 A씨(56)에게 징역 8개월에 집행유 재생하기 재생시간02:29 나랏돈 43억 들어가는데…컵 받침으로 쓰인다는 '이것' 나랏돈을 지원받는 국책연구기관들은 해마다 책자와 함께 요즘은 잘 쓰지 않는 CD 형태로 보고서를 만듭니다. 이렇게 정부와 국회에 보낼 보고서를 만드는 데만 한 해에 40억 원 넘게 듭니다. 인터넷에 보고서가 다 공개 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 한동안 대여 공세 발언을 자제하던 이재명 더불어민주당 대표가 최근 윤석열 대통령을 향해 거친 언사를 쏟아내고 있다. 이 대표는 감사원이 ‘서해 공무원 피살 사건’과 관련해 문재인 전 대통령을 조사하자 윤석열 정부에 안심전환대출, 4억이하 1주택자로 확대… 버팀목대출, 신혼부부는 최대 3억까지 6일부터 변동금리 주택담보대출(주담대)을 최저 연 3.7%의 장기·고정금리 상품으로 바꿔주는 ‘우대형 안심전환대출’ 신청 대상이 주택 가격 4억 원 이하까지로 확대된다. 또 21일부터는 서민에게 낮은 금리로 주택 구 '매각불발' 메가스터디교육, 스타강사 현우진과 맞손…재계약 임박 온라인 교육 1위 기업 메가스터디교육이 소속 스타강사 현우진과 재계약을 추진 중인 것으로 확인됐다. 재계약은 임박 단계로 최종 완료가 되면 자율 공시를 할 예정이다. 4일 메가스터디교육 및 관련 업계에 따르면 메가스 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 윤석열 대통령을 풍자하는 그림이 전국학생만화공모전에서 카툰 부문 금상을 받은 가운데 한국만화영상진흥원이 개최한 '한국만화축제'에 약 4일 동안 전시됐습니다. 이에 "지나치게 정치적"이라는 일각의 비판이 제기됐지만 주 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 文 “감사원 서면조사 ‘무례한 짓’”…김연주 “지금이 무슨 ‘왕조시대’도 아니고” 김연주 시사평론가, 文 측 향해…“서면 조사 요청에 감사원의 권한 밖이라 규정하는 건 납득하기 어려워” “‘무례한 자(, 과연 누구인가…진실 밝히는 데 협조하는 일에 너와 내가 따로 있을 수 있겠나” “왜 무고한 우 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 부부가 아니었다…'신라의 명품 귀고리'는 두 여성의 합장분에서 나왔다[이기환의 흔적의 역사] ‘신라 최고의 명품 귀고리가 출토된 고분은 부부총이 아니었다.’ 9월 29~30일 국립중앙박물관 소강당에서 ‘국립박물관 소장 일제강점기 자료의 공개와 활용’ 학술대회가 열렸다. 우선 일제강점기 조선총독부 박물관이 한 우크라 "러 남부 점령지 방어선 돌파…헤르손 곧 수복" 우크라이나군이 남부 요충지인 헤르손주의 러시아군 주요 방어선을 돌파했다고 발표하면서 러시아군이 계속 수세에 몰리고 있다. 우크라이나가 헤르손주 전역을 수복할 경우, 러시아는 주요 점령지들간 연계가 무너지면서 전황이 “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 2022.09.29(목) Signal Report "리바운드의 세 가지 조건 기억하시죠?" 유목민의 시그널리포트 이렇게 된 이상 청와대로 간다! 에세이, 에라이세이 유료 천 만 원짜리 떡볶이 레시피 대 공개 IMCHEF(임셰프) 동영상 기사 유료 재초환 완화: 부담금 얼마예요? 0원 BOODING+ 유료 물적분할 재미 본 티라유텍, 자금 확보해 로봇사업 강화 thebellstock 유료 디지털 시대의 한글! 강자일까? 약자일까? 과학소년 유료 대전 중구 아파트 리스트 - 제대로 된 정비, 재생사업이 무엇인지 알려주마! 스마트튜브 부동산조사연구소 유료 이차전지 산업 현황 &amp; 전망 투자 신세계 유료 수협은행, 이달부터 건설·부동산업 대출 전면 중단 딜북뉴스 유료 삼성고른기회장학재단(공동프로그램) - 생태윤리교육 복지킬러 유료 철학은 텍스트인가? 나는 생각한다 고로 철학한다 몽상가의 만화 영화 연구소 상위 1% 유튜버를 위한 세금 관리는? "법인과 영업권에 주목하면 세후 수입이 바뀝니다"(ft.인플루언서, 연예인 등 1인 사업자) 이상화세무사의 모래세무 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ MBN 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도 항공권 단돈 '3000원'...그래도 관광객은 '뚝'↓ - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:32 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 항공권 단돈 '3000원'...그래도 관광객은 '뚝'↓ 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 항공권 단돈 '3000원'...그래도 관광객은 '뚝'↓ 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.02.11 00:05 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 신종 코로나 여파 제주도 입도 내국인관광객 '반토막'외국인 시장은 '개점휴업'...고육지책 사상 초저가 항공권 등장 신종 코로나바이러스 사태로 매우 한산한 분위기가 연출되는 제주국제공항 여객 청사 도착대합실. ⓒ헤드라인제주 신종 코로나바이러스 감염증(우한 폐렴) 사태가 확산되면서 제주도 관광산업이  사상 최대 위기를 맞고 있는 가운데, 관광객이 급격히 감소한 현실을 반영하듯 단돈 3000원의 제주행 항공권이 등장했다. 이번 주 한 저비용항공사에서 내놓은 김포 출발 제주행 항공권의 최저가는 '3000원'을 기록했다. 지난 주 주중 2500원, 주말 4000원에 이은 사상 최저의 초특가다. 10일과 11일 출발하는 노선은 3500원, 수요일인 12일 출발 노선에서는 3000원, 현재 3000원 판매 항공편은 매진됐으나 3500원 판매 좌석은 여유가 있는 상황이다. 다른 시간대의 항공요금은 이 보다는 조금 비싼 편이나 대부분 6500원선으로 1만원을 넘지 못하고 있다. 이번 주 주말요금도 7900원에 판매되고 있다. 다음 주 주중에도 3500원의 초저가 판매는 이어질 것으로 보인다. 시내 택시요금보다도 싼 이러한 초특가 판매는 신종 코로나바이러스 여파로 관광객 발길이 뚝 끊긴데 따른 고육지책으로 나온 것이다. 외국인 시장은 이미 초토화됐고, 국내에서도 확진환자 증가로 불안감이 크게 확산되면서 내국인들의 제주여행 취소.포기도 급증하면서, 상당수 항공기들이 좌석이 텅빈채 운항되는 것으로 나타났다. 10일 제주특별자치도에 따르면, '무사증 입국'이 중단된 지난 4일 이후 제주도를 방문한 중국인은 942명에 불과했다. 이는 지난해 같은기간 1만5642명이 입도했던 것과 비교하면 무려 94.0% 감소한 수치다. 불과 20일 전인 지난달 21일만 하더라도 24편에 탑승률 86%(탑승자 3697명)에 달했던 것과는 크게 대조적이다. 예년의 10%도 안되는 이 입도객들은 대부분 취업이나 유학 비자를 발급받은 중국인들로, 관광목적의 입도객은 거의 없는 것으로 파악됐다. 제주를 기점으로 한 국제선은 말 그대로 '개점 휴업' 상태다. 내국인 시장도 급격히 무너지고 있다. 신종 코러나바이러스 확산 차단을 위해 여행 자제 붐 등이 일면서 지난 4일부터 9일까지 제주도를 방문한 내국인은 10만9350명으로 집계됐다. 지난해 같은기간 20만2173명이던 것과 비교하면 45.9% 감소한 것이다. 예년에는 하루 4만명이 넘는 관광객이 제주를 방문했으나 지금은 절반인 2만명에도 미치지 못하고 있다. 한 항공사의 제주-김포노선 2월 실시간 항공권 최저가 판매현황. &lt;10일 밤 10시 현재 상황&gt; 제주도 관광객 입도현황(10일 기준). &lt;자료=제주특별자치도&gt; 때문에 국제선의 운항 중단에 이어, 국내선의 항공기 탑승률도 예년도 절반 이하 수준으로 하락한 것으로 나타났다. 한편, 제주특별자치도는  최근 제주도의회에 현안보고를 통해 신종 코로나 사태가 오는 6월까지 지속할 경우 최대 350만명에 달하는 관광객이 감소할 것으로 예측된다고 밝혔다. 관광객 감소에 따른 피해 금액은 1조 5,000억원으로 이를 것으로 전망했다.   &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 제주인 2020-02-11 11:10:21 | 58.***.***.179 더보기 삭제하기 수정하기 관광객 무시하지마라 거지꽅 못변한다 한치앞도 못보는 의회 의원들과 데모꾼들을 빨리 없애야 제주가발전한다 다른도시들은 출렁다리 케이불카로 관광객잡기난리인데 오지말라고 한심한 인간들 굶게생겼다 답글쓰기 4 7 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 오현단에 문화관광해설사 배치…원도심 투어도 운영 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:37 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 오현단에 문화관광해설사 배치…원도심 투어도 운영 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 문화 일반 제주도, 오현단에 문화관광해설사 배치…원도심 투어도 운영 현대성 기자 승인 2020.02.10 17:58 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도 세계유산본부는 제주도 기념물 제1호 ‘오현단’에 문화관광해설사를 배치하고, 1일 1회 제주시 원도심 투어를 오는 12월 중순까지 운영한다고 10일 밝혔다. 제주도 세계유산본부는 1일 3회(오전 10시30분, 오후 1시30분, 오후 4시) 오현단 해설 프로그램을 정기 운영한다. 오현단 문화관광해설사는 오현(五賢)에 얽힌 다채로운 이야기와 오현단 내 자리한 귤림서원, 장수당, 항현사 등의 전통 건축물과 관련된 이야기를 관람객들에게 풀어낼 예정이다. 제주도 세계유산본부는 또 매일 오후 2시 선착순 15명을 대상으로 관광해설사와 함께하는 ‘제주시 원도심 투어’를 마련해 원도심 곳곳에 숨겨진 역사 유적과 추억의 장소를 거닐며 제주의 역사와 문화의 가치를 되새겨 볼 수 있는 기회를 제공한다. 고순향 제주도 세계유산본부장은 “원도심 투어 운영이 침체돼 있던 원도심에 새로운 활력을 불어 넣어 줄 것으로 기대하고 있다”고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도 코로나 늦장 대응에...관광·경제 ‘초토화’ &lt; 제주특별자치도의회 소식 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 09:43 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 코로나 늦장 대응에...관광·경제 ‘초토화’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주특별자치도의회 소식 제주도 코로나 늦장 대응에...관광·경제 ‘초토화’ 기자명 진순현 기자 입력 2020.02.07 13:48 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 코로사 사태 장기화 우려...지역화폐 도입 검토할 시기 더불어민주당 문경운 의원제주도가 신종 코로나바이러스 사태에 늦장대응을 했다는 지적이 일었다.자칫 신종 코로나바이러스 사태가 장기화될 경우 제주경제 손해는 최대 수조 원에 이를 수 있다는 전망이다. 따라서 내수경기를 살리기 위한 방편으로 제주지역화폐 도입을 검토할 시기가 왔다는 주장이 나왔다.제주도의회 농수축경제위원회(위원장 고용호)은 7일 제379회 임시회 폐회 중 회의를 열고 제주도 일자리경제국 등을 대상으로 ‘신종 코로나바이러스 감염증 대응 대책’ 현안업무 보고를 받았다.더불어민주당 문경운 의원(비례대표)은 “제주도가 신종 코로나바이러스 대응에 한박자 늦었다. 예전 사스, 메르스 등을 경험치가 있는 데도 최초 대응에 우왕좌왕 하는 바람에 그 피해는 고스란히 제주도민의 몫이 되고 있다”며 “코로나가 창궐한 지난달 25일부터 지난 4일까지 중국인 관광객은 전년보다 무려 47%가 감소했다”고 예를 들었다. 그러면서 “신종 코로나바이러스 사태 대응 매뉴얼을 재정립할 필요가 있다”며 “앞으로 백서로 남겨 반성도 하고, 제도적 개선을 위해 기록도 남겨야 한다”고 지적했다. 답변에 나선 손영준 일자리경제국장은 “앞으로 어려움에 처한 중소기업과 소상공인 등에게 특별경영자금을 투입, 상생해 나가겠다. 그리고 백서를 남기는 부분도 강구하겠다”고 답했다.문 의원은 “이번 코로나 사태는 제주경제의 큰 악재이자 위기다. 관광객이 많이 찾는 연동의 경우 인건비 부담 때문에 가게 문을 닫거나, 모호텔은 아예 무급휴가를 줘 사실상 폐업수준으로 치닫고 있다”며 “이럴 경우 실업자가 발생하는 데 실업자 구제 대책이 있어야 하지 않느냐”고 물었다.손영준 제주도 일자리통상국장이에 대해 손 국장은 “(일자리 창출을 위해) 지금의 제조업비율 4%를 7% 올릴 수 있는 방안에 대해 과제를 시행하고 있다”고 말했다.그러자 문 의원은 “뜬구름 잡는 대책 말고, 도민들이 피부로 느낄 수 있는 걸 하라”며 “당장 단기 재정일자리 확보를 만들어야 하는 것, 아니냐”고 목소리를 높였다.문 의원은 “지난해 제주도민 일자리 통계자료를 보면 제주지역 서비스업 종사자가 전년 73%에서 3% 상승한 76%다. 지나치게 관광에 의존한 서비스업 비중인 큰 셈이다. 이번 기회에 제주경제 구조를 바꿔야 한다”며 “그렇다면 내수경제를 살려야 한다. 도내 돈이 돌아야 한다. 제주지역화폐 도입을 검토할 시기가 되지 않았느냐”고 제안했다.이에 손 국장은 “대신 상품권을 발행하고 있다. 전통시장에서 골목상권으로 늘렸고, 최근에는 요식업으로 확대키 위해 협의 중”이라며 “제주지역은 섬이라는 특성상 지역화폐 의미보다 상품권이 맞다”고 반론했다.문 의원은 “(신종 코로나바이러스) 사태가 빨리 진정된다해도 2개월까지 갈 것이란 말이 있다. 불안심리를 진정시키는 게 중요한다. 결국 소상공인의 불안심리를 없애주는 건 돈을 풀어주는 것“이라며 ”이에 따른 대책은 무엇이냐“고 캐물었다.손 국장은 “앞서 밝힌바와 같이 중소기업과 소상공인에 당초 코로나 사태 이전 융자 7000억원을 지원하는 것에 추가로 특별경영안정자금 2000억원을 41개 업종에 업체당 최대 1억원까지 기존 대출유무와 관계없이 별도로 지원한다”며 “이에 따른 이자는 3.5%이나 행정에서 2.5% 이상을 보전해주면 실질적으로 소상공인이 부담하는 이자는 1.0% 미만이 된다”고 밝혔다. 그리고 “신용등급이 안 좋은 기업에 대해서는 신용보증재단에서 1000억원의 특별보증으로 소상공인경영안정자금으로 소진할 계획”이라고 설명했다.문 의원은 “그렇다면 최근 대출이 만기된 소상공인은 어떻게 되는 것이냐”고 캐물었다. 손 국장은 “만기 2~3차례는 연기토록 했다”고 답했고, 문 의원은 “만기 연기 신청세는 전화신청만으로 할 수 있도록 편리를 봐 달라”고 주문했다.그러면서 문 의원은 “반면 신종 코로나바이러스 이후 온라인 매출은 늘고 있다. 경제통상진흥원은 이제주몰을 활성화해 제주상품 매출이 늘어날 수 있도록 강구해 달라”고 당부했다. 진순현 기자 jinjin3808 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 양봉 2020-02-11 12:09:34 더보기 삭제하기 문의원~~~톡 까놓고 이 시국에 중국인 관광객이 증가하면 좋겠는가??? 대부분의 도민들은 아예 안들어왔음 하는데,,,자영업자들은 장사가 안되는게 맞는데 코로나 확진자 생기면 더 망하는 길이오,,, 답글쓰기 4 3 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 제주 첫 전국장애인기능경기대회 폐막 오늘의 주요뉴스 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자 인사청문 ‘배신·기회주의자’ 난타 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:29 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도내 관광업계 “재정지원 해달라” 촉구 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도내 관광업계 “재정지원 해달라” 촉구 김형훈 기자 승인 2020.02.05 15:46 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 신종 코로나바이러스 감염증 확산으로 제주도내 관광산업이 타격을 보고 있다. 이에 따라 도내 관광업계가 정부에 특별지원 대책 마련을 촉구했다. 제주관광공사와 제주도관광협회는 5일 “외국인 관광객뿐만 아니라 내국인 관광객마저 급감하고 있고 도내 각종 대규모 축제, 행사들이 기약 없이 연이어 취소되는 등 메르스 때보다 피해가 매우 크다”고 심각성을 강조했다. 업계는 또 “제주경제를 이끌어가고 있는 관광산업이 무너지면 제주경제 전체가 흔들릴 수 있다”며 “관광업계를 비롯한 도내 기업 피해 지원을 위한 관광진흥기금 조기 지원과 관광진흥기금 상환 및 세금납부 유예, 업계 휴업에 따른 지원 등 재정지원을 해줄 것”을 건의했다. 아울러 “정부에서 지원하고 있는 각종 예산을 제주지역에 특별지원해 주길 바란다”고 정부에 강력히 주문하기도 했다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 관련기사 제주 9일 오전 현재 신종 코로나 ‘확진·격리’ 0명 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" 6제주TP 생물자원연구, 한국자원식물학회에서도 ‘주목’ SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
-  </si>
-  <si>
-    <t>사라진 제주도 유커… 관광업계 직격탄 [신종 코로나 비상] 본문 바로가기 이전 페이지 세계일보 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 세계일보 주요뉴스를 볼 수 있습니다. 보러가기 세계일보 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 랭킹 사라진 제주도 유커… 관광업계 직격탄 [신종 코로나 비상] 입력2020.02.04. 오후 11:02 기사원문 임성준 기자 임성준 기자 구독자 0 응원수 0 구독 구독중 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 중국發 항공기 6대 승객 100명 안돼 / 평소엔 하루 2000명 방문 대조적 / 내국인 관광객도 2019년比 반토막 신종 코로나바이러스 감염 공포가 확산하는 가운데 3일 오전 제주국제공항 출국장에서 중국 상하이로 가는 항공기의 승객들이 마스크를 쓴 채 수속을 기다리고 있다. 연합뉴스 제주도에 유커(중국인 관광객)가 사라졌다. 신종 코로나바이러스 감염증(우한 폐렴) 확산 불안감으로 4일 무사증 입국제도가 중단되는 사상 초유의 상태를 맞은 제주국제공항은 썰렁했다. 제주 관광을 온 중국인 관광객들로 발 디딜 틈 없이 붐비던 모습은 찾아보기 힘들 정도로 우한 폐렴의 여파가 현실로 나타났다. 이날 오전 10시5분 상하이 푸둥발 제주행 항공기는 승객 4명만 태우고 도착했다. 이마저도 한국 국적으로 알려졌다. 이날 오후 9시35분 도착한 길상항공과 상하이, 난징, 베이징발 제주행 항공기 등 6대에 오른 승객은 100명에 못미쳤다. 평소 직항편으로 하루 2000명가량 중국인이 제주를 방문했던 것과 대조를 이룬다. 이날 제주에 도착하는 중국발 비행기는 제주∼중국 18개 직항 노선 대부분이 중단·감축 운영되면서 크게 줄었다. 4일 제주시에 위치한 브릭 박물관인 브릭캠퍼스에서 직원들이 신종 코로나바이러스 감염을 막기 위한 방역작업을 하고 있다. 제주=연합뉴스 제주관광공사에 따르면 오는 3월 28일까지 주 단위로 운항하는 149편 중 121편(81.2%)이 중단·감축 운영된다. 내국인마저 제주도 관광을 꺼리면서 제주관광업계가 최악의 상황으로 치닫고 있다. 3일 제주를 방문한 내국인 관광객은 1만9209명으로 지난해 같은 날짜 3만9827명에 비해 51.8%나 감소했다. 우한 폐렴 여파와 무사증 일시 중단 조치로 숙박·여행업, 관광지, 카지노, 음식점 등 관광 업계의 도미노 피해는 불가피할 것으로 보인다. 제주=임성준 기자 jun2580@segye.comⓒ 세상을 보는 눈, 세계일보 임성준 기자 프로필 구독 구독중 임성준 기자 구독자 0 응원수 0 세계일보 임성준 기자입니다. 답답하시죠? 속 시원하게 해드리겠습니다. 오픈카 음주사고 살인 혐의 무죄…항소심서 위험운전치사 징역 4년 수소경제시대… 제주가 이끈다 세계일보의 구독 많은 기자 세계일보 기사를 더 보고 싶다면? 구독 세계일보 언론사 구독되었습니다. 메인 뉴스판에서 세계일보 주요뉴스를 볼 수 있습니다. 보러가기 세계일보 언론사 구독 해지되었습니다. 닫기 Copyright ⓒ 세계일보. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 룰라 김지현 "이혼이나 아이 둘, 큰 문제 안돼" 진중권 "임종석·추미애, 다 죽어…윤석열 정치하도록 몰아넣지 마라" "우리 방송국 나올 생각마"…'미스터트롯' 한 참가자가 들은 말 [단독] "강간 치상으로 5억 벌자" 강용석, 도도맘 폭행 사건 조작 의혹 논란 이훈 "30억 빚더미…두 아들 대하기 어렵다" 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 세계일보 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 세계일보 헤드라인 [속보] ‘채널A기자 명예훼손 혐의’ 최강욱, 1심 무죄 더불어민주당 최강욱 의원. 연합뉴스 ‘채널A기자 명예훼손 혐의’ 최강욱, 1심 무죄 권성동, ‘감사원 무례’ 文 향해 “다리 잘린 군인에 ‘짜장면 먹고싶냐’ 물은 게 무례” “‘무례’는 봉건시대 왕의 언어… 법치 앞에 어떤 예외도 없을 것” 권성동 국민의힘 의원. 국회 사진기자단 문재인 전 대통령이 감사원으로부터 ‘서해 공무원 피격 사건’ 관련 서면조사를 통보받자 “대단히 무례한 짓”이 횡단보도 건너다 택시에 치인 여중생…보름 만에 숨져 제주에서 횡단보도를 건너던 여중생이 택시에 치여 보름만에 세상을 떠났다. 제주 서귀포경찰서는 60대 택시기사 A씨를 교통사고 처리 특례법 위반 혐의로 입건해 조사하고 있다고 3일 밝혔다. A씨는 추석 연휴인 지난달 정부 “실내 마스크 의무, 2023년 3월쯤 해제” “올겨울 트윈데믹 고비 남아있어” 요양시설 등 집단감염 절반 줄어 4일부터 입소자 대면면회 허용 신종 코로나바이러스 감염증(코로나19) 유행이 안정적으로 유지되면서 정부가 코로나19 출구전략에 속도를 내고 있지만, 고등학생이 그린 ‘윤석열차’ 수상 논란… 조종석엔 김건희 여사도 제23회 부천국제만화축제 금상 수상작 진흥원 “현실 풍자는 예전부터 있었고 문제 되지 않아” 최근 한국만화영상진흥원이 개최한 한국만화축제에서 윤석열 대통령을 풍자한 그림이 금상 수상작으로 선정되며 논란이다. 4일 한 ‘공포의 하얀차’ 김근식, 외출·이동 제한 어디까지 가능할까? [이슈+] 법원 김씨 외출 금지 오후10시~오전9시 확대 적용 학부모 등 학생 등교시간 외 범죄 가능성에 우려 현행 법률로 제한 한계… 법무부 ‘사후 감호’ 법안내 일각 이중처벌 우려… 법조계 내년 상반기 적용 무게 “하교 시 이전 뉴스들 보기 3 다음 뉴스들 보기 세계일보가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 세계일보 헤드라인 더보기 [속보] ‘채널A기자 명예훼손 혐의’ 최강욱, 1심 무죄 13분전 권성동, ‘감사원 무례’ 文 향해 “다리 잘린 군인에 ‘짜장면 먹고싶냐’ 물은 게 무례” 37분전 횡단보도 건너다 택시에 치인 여중생…보름 만에 숨져 2시간전 정부 “실내 마스크 의무, 2023년 3월쯤 해제” 4시간전 고등학생이 그린 ‘윤석열차’ 수상 논란… 조종석엔 김건희 여사도 1시간전 ‘공포의 하얀차’ 김근식, 외출·이동 제한 어디까지 가능할까? [이슈+] 4시간전 세계일보 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 정부 “실내 마스크 의무, 2023년 3월쯤 해제” 4시간전 2 ‘공포의 하얀차’ 김근식, 외출·이동 제한 어디까지 가능할까? [이슈+] 4시간전 3 민주 “현 정부가 노린 것은 결국 文… 대국민 선전포고” 3시간전 4 北 중거리미사일 5년만에 日열도 통과 태평양 낙하....긴급피난 비상 2시간전 5 [속보] 尹 “감사원은 헌법기관으로 독립적 운영… 언급 적절치 않아” 1시간전 1 민주 “현 정부가 노린 것은 결국 文… 대국민 선전포고” 3시간전 2 감사원, 文 서면조사 후폭풍…野 "尹정부가 노린 건 결국 문재인" 4시간전 3 정부 “실내 마스크 의무, 2023년 3월쯤 해제” 4시간전 4 감사원, 文에 서면조사 통보…국민의힘 “법 앞에 평등” VS 민주 “尹 묵인 없이 가능한가” 2시간전 5 배명진 "AI도 尹대통령 비속어 인식 못해… MBC의 뻔뻔한 언론탄압 주장" 17시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 칼 든 검사, 조종석엔 김건희...고등학생이 그린 '윤석열차' 논란 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 전시된 것으로 확인됐다. 이 사실이 알려지며 온라인상에서도 화제가 되고 있다. 3일 한국만화영 '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 코로나19 이후 주택 가격 폭등기 때 빚을 내 산 집이 2030세대에 ‘빚 폭탄’이라는 부메랑으로 돌아왔다. 특히 주택이 없는 동년배와 비교해 2년 반 사이 소득 대비 빚 부담 증가폭이 13배에 달했다. *주택보유는 재생하기 재생시간01:37 중부 이어 남부 전선 돌파..."러시아 방어 능력 곧 상실" 우크라이나군이 중부에 이어 남부 지역의 요충지 여러 곳을 탈환했습니다. 러시아는 점령지 강제 병합에 성공했지만, 우크라이나군의 전방위 압박에 마주치게 됐습니다. 류재복 기자의 보도입니다. [기자] 우크라이나 국기를 홍준표, 4년 전 이준석 "'나는 왜 정치하나' 아침마다 5번 복창" 발언 두고 "조롱" 홍준표 대구시장이 최근 페이스북 글에서 타깃으로 정해 연일 비판을 가하고 있는 '개혁보수'에 대한 지적을 3일 저녁에도 이어나갔다. 전날인 2일 페이스북을 통해 "박근혜 전 대통령을 민주당과 합작해 끌어내린" "내부 尹대통령 풍자 그림, 학생공모전 수상…전시 찬반 논란 제목 '윤석열차'…조종석엔 김건희 여사 추정 인물 윤석열 대통령을 풍자한 만화 작품이 최근 개최된 부천국제만화축제에서 전시돼 찬반 논란이 일고 있다. 4일 한국만화영상진흥원에 따르면 9월 30일부터 10월 3일까지 "직원 바쁜 것 확인하고"...호프집서 '먹튀'한 중년 남녀 8명 고양시의 한 호프집에서 음식을 먹고 계산하지 않는 이른바 '먹튀' 사건이 발생해 경찰이 수사에 나섰다. 1일 보배드림에 '호프집 먹튀 인간들 수배합니다'라는 제목의 게시물이 올라왔다. 고양시 삼 [단독] "아내 외도 탓" "연인 관계"... 스토킹범죄 황당한 봐주기 사유 스토킹처벌법 위반으로 재판에 넘겨진 가해자에게 실형이 내려진 판결이 6건 중 1건에 불과한 것으로 나타났다. 법조계에선 집행유예와 벌금형이 절반을 넘은 것을 두고 "피해자보다는 가해자 사정만 과하게 참작한다"는 쓴소 [속보]尹, 감사원 文 조사 논란에 “감사원은 독립 헌법기관…대통령 언급 적절하지 않아” “북한의 무모한 핵 도발은 결연한 대응에 직면할 것” “이번 순방에서 상당한 성과를 거양” 윤석열 대통령은 4일 감사원이 문재인 전 대통령에게 서면 조사를 통보한 것을 두고 논란이 벌어지는 것과 관련해 “감사원은 헌 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 전주환의 '두 얼굴'…신상공개 21명 중 18명이 신분증 사진 기사내용 요약 피의자 '머그샷' 거부하면 신분증 증명사진 공개 2019년부터 신상공개 21명…18명이 신분증 사진 공개된 신분증 사진, 언제 찍었는지 알지도 못해 피의자 신분증 사진과 현재 모습 너무 달라 논란 이성 재생하기 재생시간01:14 김건희와 칼 든 검사 싣고…학생 공모전 금상 '윤석열차' 최근 한 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 화제가 되고 있다는 기사도 많이 봤습니다. 한국만화영상진흥원에 따르면 어제(3일) 폐막한 제23회 부천국제만화축제 전시장에 '윤석열차'라는 제목의 만화가 文, 이미 알고 있었다…탈원전 추진하면 5년 뒤 전기료 인상 불가피하다는 걸 산업통상자원부가 2017년 문재인 정부 출범 초기 국정기획자문위원회에 탈원전 정책을 추진하면 5년 뒤부터 전기요금 인상이 불가피할 것으로 예상된다고 보고한 것으로 나타났다. 4일 국회 산업통상자원중소벤처기업위원회 소 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN 고물가에 '명품백' 내다 판다…"샤넬 캐비어 팝니다" 고물가와 경기 불황 상황이 지속되며 평소 가지고 있던 명품을 중고시장에 내놓는 사례가 눈에 띄게 늘면서 거래 사기 등 피해 예방책을 마련해야 한다는 지적이 나오고 있다. 지난달 27일부터 29일까지 중고거래 플랫폼 "월급 줄 돈 없다"…기증 인체조직 헐값에 판 공공기관 인체조직을 기증받아 이식재를 생산하는 보건복지부 산하 공공기관이 직원들에게 줄 월급이 없다는 이유로 기증받은 인체조직을 '할인 판매'한 사실이 드러났습니다. 어제(3일) 국회 보건복지위원회 소속 더불어민주당 강선우 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 “보고 싶어서” 일본 70대 남성, 10대 소녀 집 앞에서 나흘간 매복 일본에서 70대 남성이 10대 여성을 “보고 싶다”는 이유로 스토킹한 혐의로 체포됐다. 지난 2일 사이타마신문에 따르면 사이타마현 경찰은 가와지마정에 70대 남성 A씨를 스토커규제법 위반 혐의로 지난달 30일 체포했 재생하기 재생시간03:39 발로 차고 던지고‥어느 회장님의 '갑질' ◀ 앵커 ▶ 한 중견기업 회장이 직원들에게 폭언과 폭력을 서슴지 않고, 비서에게 가족 일은 물론 내연녀 심부름까지 수시로 시킨다는 제보가 들어왔습니다. 구나연 기자입니다. ◀ 리포트 ▶ 계열사 6곳과 주유소 14곳, 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 ‘태세전환’ 이재명, 윤 대통령 향해 “국민의 심판 기억해야” 한동안 대여 공세 발언을 자제하던 이재명 더불어민주당 대표가 최근 윤석열 대통령을 향해 거친 언사를 쏟아내고 있다. 이 대표는 감사원이 ‘서해 공무원 피살 사건’과 관련해 문재인 전 대통령을 조사하자 윤석열 정부에 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 [단독]감사원 “진실이 다른 방향 갈길 없을것”… ‘서해 공무원 피살’ 현장감사 14일 종료 문재인 전 대통령에 대한 조사로까지 확대된 2020년 서해 공무원 피살 사건에 대한 감사원의 최종 감사 결과가 어떻게 나올지를 두고 관심이 집중되고 있다. 감사원은 이르면 이달 말 감사 결과를 발표할 것으로 알려졌다 "헬스 코치와 모텔 간 아내, 뺨 3대 때리고 발로 찼더니…" 헬스 트레이너와 모텔에 들어가는 아내를 발견한 남편이 아내를 폭행해 고소당할 위기에 처했다. 지난달 30일 YTN 라디오 ‘양소영 변호사의 상담소’에는 아내의 외도를 알게 된 남편 A씨가 이혼 소송 및 양육권에 관해 [포착] 러軍 퇴각한 리만서 500억대 Su-34 전투기 ‘공중분해’ 굴욕 러시아군이 퇴각한 우크라이나 동부 요충지 리만에서 500억 원대 러시아 전투기가 산산조각이 난 채 발견됐다. 2일(이하 현지시간) 우크라이나 공군사령부는 동부 도네츠크 리만에서 러시아 신형 전술 폭격기 수호이(Su) 文 “감사원 서면조사 ‘무례한 짓’”…김연주 “지금이 무슨 ‘왕조시대’도 아니고” 김연주 시사평론가, 文 측 향해…“서면 조사 요청에 감사원의 권한 밖이라 규정하는 건 납득하기 어려워” “‘무례한 자(, 과연 누구인가…진실 밝히는 데 협조하는 일에 너와 내가 따로 있을 수 있겠나” “왜 무고한 우 우크라 "러 남부 점령지 방어선 돌파…헤르손 곧 수복" 우크라이나군이 남부 요충지인 헤르손주의 러시아군 주요 방어선을 돌파했다고 발표하면서 러시아군이 계속 수세에 몰리고 있다. 우크라이나가 헤르손주 전역을 수복할 경우, 러시아는 주요 점령지들간 연계가 무너지면서 전황이 BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 김건희 여사는 조종석·검사는 칼 들고…금상 받은 '윤석열차' 만화 논란 윤석열 대통령을 풍자하는 그림이 전국학생만화공모전에서 카툰 부문 금상을 받은 가운데 한국만화영상진흥원이 개최한 '한국만화축제'에 약 4일 동안 전시됐습니다. 이에 "지나치게 정치적"이라는 일각의 비판이 제기됐지만 주 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 윤석열 대통령의 ‘비속어 파문’ 여파 탓에 정부와 여당 지지율이 동반 하락하는 가운데 국민의힘이 격랑의 한 주를 맞았다. ‘정진석 비상대책위원회’의 존폐와 이준석 전 대표 추가 징계가 한꺼번에 결정될 가능성이 적지 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 대전 중구 아파트 리스트 - 제대로 된 정비, 재생사업이 무엇인지 알려주마! 스마트튜브 부동산조사연구소 유료 상처받은 것만으로 표현할 이유는 충분해 카나리아 선생님 유료 대전 동구 아파트 리스트 - 대전 정비사업의 주축! 그래서 기회를 주는 곳!! 스마트튜브 부동산조사연구소 유료 역행자 - 자청 - 책리뷰 업투게더 유료 뜻밖의 횡재세, 인플레이션과 초과이윤세(Windfall Tax) 택스넷 유료 배드민턴에서 축구로, 인니의 국가 스포츠 발전 전략 스포츠LAB 3. 노래를 통해 배우는 사랑에 대한 통계이야기-순열 놀고있네, 통계 유료 이례적 속도…성동구 '금호 벽산' 리모델링 사업 착착 진행 비결은 땅집고 pro 유료 86번가 데일리 (2022년 9월 30일) - 반도체 나홀로 강세, 윈도우 드레싱도 힘을 쓰지 못했던 하루 86번가 유료 내 형제를 죽인 범인을 30년 만에 찾았습니다. 텀크루즈 #8. 과거 최고가를 기준으로 적정 수준의 시세조정을 판단하면 안되는 이유 도시부자김사부 유료 시대를 앞서간 &lt;김씨표류기&gt; 리뷰 영화선우 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 세계일보 예 아니오</t>
-  </si>
-  <si>
-    <t>제주도, 중국 관광객 A씨 역학조사 '총력' &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 중국 관광객 A씨 역학조사 '총력' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 중국 관광객 A씨 역학조사 '총력' 기자명 김승환 기자 입력 2020.02.03 14:04 수정 2020.02.03 14:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 자가 격리 9명, 능동감시 3명 추가… 빅데이터 기반 방역대책 수립 (제주=국제뉴스) 김승환 기자 = 제주특별자치도는 제주를 거쳐 중국으로 귀국한 후 신종 코로나바이러스 감염증 확진 판정을 받은 중국인 관광객 A씨가 옷가게와 편의점을 추가로 들른 것을 확인하고 집중 관찰 대상자들을 격리 조치하는 등 후속 조치에 총력을 기울이고 있다고 3일 밝혔다.도는 지난 1일부터 중국인 관광객 A씨와 동행한 딸의 진술을 토대로 지난달 21일부터 25일까지 1차적인 동선을 파악한 뒤, 일자별 상세 이동에 대해 신용카드 이용 내역·CCTV 분석·현장 방문 조사 등을 병행한 결과 24일의 주요 동선을 확정했다.현재까지 확인된 조사에 따르면 25일에는 숙소에서 시내버스를 이용해 공항으로 간 뒤 귀국한 것으로 파악됐으며, 지난 24일 저녁에는 제주시 연동 누웨마루거리 소재 옷가게에서 옷을 구입하고 근처 편의점으로 이동해 제주 기념품과 먹거리를 구입한 것으로 밝혀졌다.특히 약국을 방문해 해열제를 구입한 것으로 알려졌지만 역학조사관이 약사와 면담하고 현장 CCTV를 분석한 결과 "A씨가 약국에서 휴대폰 사진을 보여주며 기력회복제와 해열진통제를 구입했지만, 당시 A씨가 증상이 전혀 없었으며 제3자의 약을 사주려고 온 것"이라고 추가로 밝혔다.도는 24일 A씨가 약국 방문 후에도 도보로 여행한 상세 동선 등을 봤을 때 제주에서는 증상이 없었던 것으로 추정한다고 설명했다.더불어 24일 오전 1100고지에서 240번 버스를 타고 이동했지만 버스 내 CCTV를 통해 버스기사 외 다른 승객과의 접촉이 없었던 것으로 확인됐다.25일에도 숙소에서 버스를 타고 공항으로 이동했지만, 기사는 마스크를 착용했고 함께 탄 승객은 없었지만 도는 해당 버스기사를 자가 격리 조치했다.도는 24일 확인된 동선에 따라 숙소 직원 5명에 이어 버스 운전기사 1명, 옷가게에서 계산을 담당했던 점원 1명, 편의점 종사자 2명 등 9명을 자가 격리 조치했다.또한 옷가게와 편의점 점주, 버스기사를 능동 감시 대상자로 분리하고, 관할 보건소를 통해 1대1 관리에 돌입했다. 특히 중국인 관광객 A씨가 신종 코로나바이러스 최초 발생지인 중국 우한 출신인 것으로 밝혀짐에 따라 동선 분석에 총력을 기울이는 중이며 앞으로 22일과 23일의 상세 동선이 확보되는 대로 도민들에게 공개할 방침이다.A씨의 딸의 진술을 통해 후베이성 여권사진을 확보하고 우한 출신임을 확인했으며, 우한에서 양저우까지는 기차로, 양저우에서 제주는 춘추항공 직항편으로 이동한 것을 확인했다.또한 중국인 A씨의 제주여행 일정을 고려할 때 2월 4일부터 단계적으로 잠복기가 종료되기 때문에 시급한 방역조치가 필요한 동선을 역순으로 역학 조사를 진행하고, 격리조치 등을 신속히 추진할 계획이다.역학 조사는 증상 발현일로부터 가까운 일자별로 조사가 진행됨에 따라 도 보건건강위생과내 역학조사관을 중심으로 3개팀을 구성해 분석하고 있다.이중환 재난안전대책본부 총괄조정관은 "신종 코로나 바이러스 감염증을 예방하기 위해서는 평소 올바른 손 씻기와 마스크 착용을 생활화하는 등 도민의 위생 수칙 준수가 절실한 시점"이라며 청정 제주를 지키기 위한 협조를 당부했다.한편 도는 도내 유동인구가 많은 지역에 대한 현황 정보를 파악해 감염병 예방 시 최적 대응을 위한 빅데이터 지도를 제작하고, 데이터에 기반한 방역 대책을 추진할 방침이다.이는 제주 빅데이터 플랫폼에서 수집한 통신사 데이터와 공공 와이파이 데이터를 활용해 유동인구 빈도를 시각화함으로써 방역의 우선순위를 결정하고 신속한 감염병 예방 전략을 수립하기 위해 제작됐다.도는 이 자료에 근거해 동지역 다중집합장소 300개소에 대해 살균 소독 등 장소별 맞춤 방역 소독을 실시할 계획이다. 김승환 기자 qjqantk0603@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 신종코로나 확진 판정 받은 中 관광객 주요 동선 공개 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-04 10:31 (화) 실시간 뉴스 교황, 푸틴 핵 위협에 "전쟁 멈출 것" 경고 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 문송희, ‘사랑나눔자선콘서트’ 화려한 오프닝 공연 예고 아이피샵, 2022 광주국제아트페어 참여 김해 민간 장기 임대아파트 '용두지구 성원상떼빌' 분양 코요태 빽가, 지석진과 한솥밥 먹는다...컴백 일정은? [이만수의 야구 이야기] 꿈에 그리던 동남아시아 야구 대회 개최 오에스피 공모주 청약일정·수요예측·상장일은? '공모가 8400원 확정' HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 291호(2022-09) 작은 승리 거둔 이준석 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 신종코로나 확진 판정 받은 中 관광객 주요 동선 공개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 신종코로나 확진 판정 받은 中 관광객 주요 동선 공개 기자명 김연화 기자 입력 2020.02.03 15:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 도내 유증상자 12명, 모두 음성… 2일 17시 기준 추가 유증상자 없어 - 자가 격리중인 집중 관찰 대상자 5人 건강 이상 없음… 상세 동선 역 추적중 제주특별자치도청사 전경 [시사매거진/제주=김연화 기자] 제주특별자치도는 도내 신종 코로나바이러스 감염증 유증상자는 2월 2일 17시 기준 12명으로 진단 결과 모두 음성이며, 금일 추가로 발생한 유증상자는 없다고 밝혔다. 또한 제주 여행을 하고 귀국한 뒤 발열 증세와 신종 코로나바이러스 감염 확진 판정을 받은 중국인 관광객 A와 관련해, 자가 격리중인 집중 관찰 대상자 5명을 모니터링 한 결과 이상이 없음을 확인했다. 이와 함께 중국인 관광객 A씨의 모든 동선을 역추적하고 있는 상황으로 4박 5일간의 일정을 모두 확인하는 데는 다소 시일이 소요될 것으로 예상된다고 밝혔다. 도민들의 불안을 최소화하기 위해 확진자 딸과의 통화에서 확보한 정보와 CCTV를 통해 확인한 주요 동선을 다음과 같이 공개한다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 상생소비복권 '당첨자발표일' 제외업종 공개 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 주요기사 정부조직 개편안 조만간 발표...여가부 폐지 중점 논의 [오늘날씨] 일본기상청 '첫눈·상현 반월' 서울날씨 '19도 기온뚝' 비소식, 2022년 단풍시기·명소 정진석 "국정동력 확보 위해 정부 조직개편 논의해야" 尹정부 첫 국정감사 4일 개막...여야 격돌 전망 여야, 감사원 '文 서면조사' 요구 놓고 공방 격화 [속보]러시아, 우크라이나 전쟁 중 핵 사용할까 '서방 경계심 강화' 최신뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 포토뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 인기뉴스 1 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 2 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? 3 '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 4 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 5 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 6 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 7 상생소비복권 '당첨자발표일' 제외업종 공개 8 애플 아이폰14·PRO 통신 3사 사전예약 혜택·가격·출시일·색상 화제 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>‘무사증 입국 일시 중지’ 제주도 관광 직격탄 본문 바로가기 이전 페이지 한겨레 구독 언론사를 구독하면 메인에서 바로 볼 수 있어요! 메인 뉴스판에서 한겨레 주요뉴스를 볼 수 있습니다. 보러가기 한겨레 언론사 구독 해지되었습니다. 주요뉴스 정치 경제 사회 생활 세계 IT 사설/칼럼 신문보기 생중계 랭킹 ‘무사증 입국 일시 중지’ 제주도 관광 직격탄 입력2020.02.03. 오후 3:08 수정2020.02.03. 오후 3:40 기사원문 공감 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 댓글 본문 요약봇 본문 요약봇도움말 자동 추출 기술로 요약된 내용입니다. 요약 기술의 특성상 본문의 주요 내용이 제외될 수 있어, 전체 맥락을 이해하기 위해서는 기사 본문 전체보기를 권장합니다. 닫기 텍스트 음성 변환 서비스 사용하기 성별 남성 여성 말하기 속도 느림 보통 빠름 이동 통신망을 이용하여 음성을 재생하면 별도의 데이터 통화료가 부과될 수 있습니다. 본문듣기 시작 닫기 글자 크기 변경하기 가1단계 작게 가2단계 보통 가3단계 크게 가4단계 아주크게 가5단계 최대크게 SNS 보내기 인쇄하기 제주여행 다녀간 중국인 신종 코로나 확진 파장면세점·약국 등 휴업…확진자 접촉 9명 자가격리중국 노선 대부분 중단…내국인 관광객도 감소세 3일 제주시의 한 면세점에 임시휴업 안내문이 내걸린 가운데 중국인 관광객들로 붐비던 주변 거리가 한산한 모습을 보였다.3일 낮 중국인 관광객들이 자주 찾는 제주시 연동은 회색빛 하늘에 더해 움츠러든 듯했다. 지난주만 해도 마스크를 낀 채 여행용 가방을 들고 이동하거나 가족끼리 다니던 중국인 여행객들은 눈에 띄게 줄었다.지난달 25일 제주여행을 왔다가 중국으로 돌아간 중국인(52)이 지난달 30일 신종 코로나바이러스 감염증 확진 판명을 받자 제주 관광이 직격탄을 맞고 있다. 정부는 제주도와 협의를 통해 4일 0시부터 중국인 관광객에 대한 ‘무사증 입국 일시 중지’에 들어갔다.아침 일찍부터 200여m 이상 길게 줄을 선 채 개점을 기다리던 신라면세점과 롯데면세점은 이날 오전 ‘임시휴업 안내문’이 나붙은 채 문이 닫혀 있었다. 면세점 쪽은 “오는 5일까지 일시 휴점에 들어갔지만, 상황에 따라 길어질 수도 있다”고 말했다. 이날 오후 면세점을 찾은 20대 중국인 남성 2명은 휴업안내문을 읽고는 아쉬운 듯 발걸음을 돌렸다.중국인 관광객으로 붐비던 면세점 주변 편의점과 카페 등도 손님이 보이지 않았다. 면세점 뒤의 한 약국 앞에서는 중국인 4~5명이 마스크를 대량으로 구매하는 모습이 눈에 들어왔다. 중국인 관광객들이 3일 오후 제주시 연동의 한 약국 앞에서 마스크를 대량으로 구매하고 있다.이날 오전 현재 제주와 중국을 잇는 18개 항공 노선 가운데 15개 노선이 중단됐다. 중국 상하이와 선전, 난징 노선만 부분적으로 줄여 운항에 들어갔다.올해 들어 지난 2일까지 제주를 찾은 중국인 관광객은 9만5천여명으로 지난해보다 42%나 증가했고, 내국인 관광객도 5.2% 증가했다. 신종 코로나바이러스 감염증이 퍼지기 전이다.그러나 신종 코로나바이러스 감염증이 확산하면서 급감하기 시작해 1일에는 지난해 같은 기간에 견줘 63%, 2일에는 66.9%나 급감했다. 지난달 21일 이후 중국 직항편의 탑승률은 종전 86.3%에서 44.3%로 크게 떨어졌다.내국인 관광객도 1일 2만5200여명으로 지난해 같은 기간보다 28%가 줄어든 데 이어 2일에는 41%, 3일에는 45%로 급격하게 줄고 있다.관광업계 관계자는 “호텔 등의 예약 취소율이 많이 늘어나고 있다. 신종 코로나바이러스 감염증이 퍼지면 제주도 관광산업 전반에 상당한 영향을 미칠 것 같다”고 말했다. 중국인 관광객들이 많이 찾는 제주시 연동 누웨마루 거리가 3일 오후 한산한 모습을 보였다.도 관계자는 “내일부터 무사증 입국이 전면 중단되기 때문에 제주지역 관광업계에 상당한 어려움이 예상된다. 관계 기관과 업계 회의를 통해 현장 피해 상황을 점검해 각종 지원기금 등 예산 지원 방안을 종합 검토하고 있다”고 말했다.한편 제주여행을 다녀간 뒤 지난달 30일 중국에서 신종 코로나바이러스 감염증 확진 판정을 받은 중국인(52)은 제주도내 약국에서 휴대폰에 저장된 사진을 보여주며 해열진통제를 구매한 것으로 밝혀졌다. 애초 제주도는 해당 약국 약사와 면담 결과라며 “가지고 있던 약을 보여주었다”고 말한 바 있다.도는 이날 브리핑을 통해 이 중국인은 지난달 25일에는 숙소에서 시내버스로 공항으로 간 뒤 귀국했으며, 전날인 24일에는 제주시 연동 누웨마루거리의 옷가게에서 옷을 사고 근처 편의점에서 기념품과 먹거리를 산 것으로 밝혀졌다. 도는 이 중국인이 접촉한 9명을 자가격리했다.배종면 제주도 감염병관리지원단장은 “폐회로텔레비전을 확인한 결과 이 중국인은 제주도에 체류할 때까지는 증상이 없었다고 판단하는 것이 합리적이다”고 말했다.글·사진 허호준 기자 hojoon@hani.co.kr▶네이버에서 한겨레 구독하기▶신문 보는 당신은 핵인싸!▶조금 삐딱한 뉴스 B딱![ⓒ한겨레신문 : 무단전재 및 재배포 금지] 허호준(hojoon@hani.co.kr) Copyright ⓒ 한겨레. All rights reserved. 무단 전재 및 재배포 금지. 이 기사는 언론사에서 사회 섹션으로 분류했습니다. 기사 섹션 분류 안내 기사의 섹션 정보는 해당 언론사의 분류를 따르고 있습니다. 언론사는 개별 기사를 2개 이상 섹션으로 중복 분류할 수 있습니다. 닫기 구독 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 구독해보세요! 구독중 메인에서 바로 보는 언론사 편집 뉴스 지금 바로 확인해보세요! 보러가기 주요뉴스해당 언론사에서 선정하며 언론사 페이지(아웃링크)로 이동해 볼 수 있습니다. 맛녀석 5주년…"뚱뚱이들이 밥 먹는 걸 누가 볼까 했어요" 타이 "독감·에이즈 치료제 혼합물 효과"…코로나 백신 개발 박차 오픈마켓 "마스크 폭리 막겠다"지만… 참기름 바르면 예방?…신종 코로나 '가짜뉴스 감염' 경보 이건희, 지난해 삼성전자 배당금 3538억원 좋아요 0 훈훈해요 0 슬퍼요 0 화나요 0 후속기사 원해요 0 이 기사를 추천합니다 안내 모두에게 보여주고 싶은 기사라면?beta 이 기사를 추천합니다 버튼을 눌러주세요. 집계 기간 동안 추천을 많이 받은 기사는 네이버 자동 기사배열 영역에 추천 요소로 활용됩니다. 레이어 닫기 한겨레 언론사홈 바로가기 언론사 구독 후 기사보기 구독 없이 계속 보기 더 많은 콘텐츠를 만나는 방법 이 가을, 영화 콘텐츠 한 편 어떠세요? 영화 채널과 함께 문화 지식도 Up! 다양한 영화와 관련된 숨겨진 이야기들도 만나보세요! 한겨레 헤드라인 북 탄도미사일 일본 상공 통과…윤 대통령 “무모한 핵 도발” 북한이 4일 일본 상공을 통과하는 중거리 탄도미사일 1발을 쐈다고 합동참모본부(합참)가 밝혔다. 북한은 최근 열흘 사이에만 다섯 차례 미사일을 쏘았다. 합참은 이날 “오전 7시23분께 자강도 무평리 일대에서 발사돼 박용진 “윤 대통령, 집토끼 단속은커녕 토끼장에 갇힌 모양새” 박용진 더불어민주당 의원이 4일 비속어 파문에 사과 대신 왜곡 보도 주장을 펴는 윤석열 대통령을 겨냥해 “집토끼 단속은커녕 오히려 본인이 토끼장에 갇히는 모양새가 됐다”고 말했다. 박 의원은 이날 &lt;불교방송&gt;(BBS [단독] 온실가스 뿜어댄 기업들, 그 덕에 되레 5600억 벌었다 포스코 557만톤(t), 삼성전자 99만톤 등 국내 산업부문 450개 안팎의 기업이 온실가스 배출권거래제 1·2차 계획기간(2015~2020년) 동안 정부에서 할당받은 배출권(배출 가능한 온실가스양) 중 2620만톤 국민 73% “정부 물가안정 대책 효과 체감 못 해” 할당관세 적용, 농축산물 할인쿠폰 사업, 수매비축 정책…. 정부가 실시하는 다양한 물가안정 대책에도 불구하고, 국민 10명 중 7명은 실질적인 정책효과를 체감하지 못하는 것으로 나타났다. 4일 무소속 윤미향 의원실( [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 소비자들이 쿠팡에서 물건을 살 때 참고하는 리뷰(상품평) 상당수가 전문 업체가 모집한 아르바이트생들의 ‘작업’ 결과물이라는 정황이 포착됐다. 가 김용민 더불어민주당 국회의원을 통해 확보한 ㅈ 마케팅 업체 내부 문건과 토성 얼음위성서 생명체에 필요한 ‘6대 원소’ 모두 발견 과학자들은 태양계에서 지구 말고도 생명체가 존재했거나 존재하고 있을 가능성이 있는 것으로 10여곳을 꼽는다. 화성과 금성, 토성의 위성 타이탄과 엔셀라두스, 트리탄과 목성의 위성 유로파와 이오, 칼리스토, 가니메데, 이전 뉴스들 보기 3 다음 뉴스들 보기 한겨레가 이 기사의 댓글 정책을 결정합니다. 안내 댓글 정책 언론사별 선택제 섹션별로 기사의 댓글 제공여부와 정렬방식을 언론사가 직접 결정합니다. 기사 섹션 정보가정치를 포함해 중복 분류된 경우 정치섹션 정책이 적용됩니다. 단, 운영규정에 따른삭제나 이용제한 조치는 네이버가 직접수행합니다. 레이어 닫기 한겨레 헤드라인 더보기 북 탄도미사일 일본 상공 통과…윤 대통령 “무모한 핵 도발” 2시간전 박용진 “윤 대통령, 집토끼 단속은커녕 토끼장에 갇힌 모양새” 31분전 [단독] 온실가스 뿜어댄 기업들, 그 덕에 되레 5600억 벌었다 3시간전 국민 73% “정부 물가안정 대책 효과 체감 못 해” 40분전 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 5시간전 토성 얼음위성서 생명체에 필요한 ‘6대 원소’ 모두 발견 36분전 한겨레 랭킹 뉴스 오전 9시~10시까지 집계한 결과입니다. 오전 7시~10시까지 집계한 결과입니다. 더보기 더보기 많이 본 댓글 많은 1 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 5시간전 2 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” 5시간전 3 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 3시간전 4 북 탄도미사일 일본 상공 통과…윤 대통령 “무모한 핵 도발” 2시간전 5 주춤하는 중국 반도체 인해전술…미국 포위망 뚫을까 3시간전 1 “대통령 지지층마저 등 돌려”…여론은 “자막 조작”에 싸늘 19시간전 2 북 탄도미사일 일본 상공 통과…윤 대통령 “무모한 핵 도발” 2시간전 3 학생들이 뽑은 학생회장에 왜 교장이 ‘임명장’?…“당선증 주세요” 5시간전 4 지지율 하락에 비대위 가처분까지…국민의힘 ‘운명의 한주’ 3시간전 5 [단독] 쿠팡은 알바 놀이터…최상위 구매평 다섯 중 넷은 ‘조작’ 5시간전 함께 볼만한 뉴스 안내 이 기사를 본 이용자들이 함께 많이 본 기사, 해당 기사와 유사한 기사, 관심 기사 등을 자동 추천합니다 닫기 시어머니 잔소리에 ‘눈 떨림’... 마그네슘 부족 vs 스트레스 중년 여성 중 극심한 스트레스를 겪은 후 눈이 떨려 고생했다고 토로하는 경우가 있다. 흔히들 '눈 떨림'은 마그네슘 부족으로 알고 있는데 스트레스가 더 큰 이유일까? 눈꺼풀 떨림은 50대에 가장 많이 발생하고, 여자 부기 빼려 ‘이것’하단… 콩팥 망가진다 수시로 몸이 붓는 사람들이 있다. 부었다가 가라앉으면 괜찮은데, 부종이 심해지며 통증이 생길 때도 있다. 겉보기에 살찐 것 같아 거슬리기도 한다. 체액이 쌓여 몸이 부었으니, 소변을 자주 보면 부기가 빠질 거로 생각 이재명 “윤석열 정부, 독재정권처럼 공포정치···모든 걸 걸고 맞서겠다” 이재명 더불어민주당 대표는 4일 윤석열 정부를 향해 “국민을 지키라는 총칼로 경쟁자를 짓밟았던 독재정권처럼 공포정치에 나선 것”이라며 “정권이 국민의 기대를 저버리고 민주주의 파괴를 획책한다면 모든 걸 걸고 맞서겠다 킴 카다시안, 돈 받고 인스타에 암호화폐 광고…18억 벌금폭탄 미국 리얼리티 TV 스타 킴 카다시안이 자신의 인스타그램에 금전적 대가를 받고 암호화폐를 홍보했다가 미 금융당국의 제재를 받았다. 미 증권거래위원회(SEC)는 3일(현지시간) 유명 인플루언서인 카다시안이 암호화폐 이 칼 든 검사, 조종석엔 김건희...고등학생이 그린 '윤석열차' 논란 문화체육관광부와 경기도, 부천시가 건립한 한국만화영상진흥원이 최근 개최한 한국만화축제에서 윤석열 대통령을 풍자하는 그림이 전시된 것으로 확인됐다. 이 사실이 알려지며 온라인상에서도 화제가 되고 있다. 3일 한국만화영 BTS 사는 '나인원한남' 전셋값도 2년째 1위…"전용 244㎡ 80억" 올해 전국에서 전세보증금(실거래가 신고기준)이 가장 높은 아파트는 용산구 한남동 '나인원한남'인 것으로 나타났다. 4일 국회 국토교통위원회 박상혁 더불어민주당 의원실이 국토교통부로부터 제출받은 '2020년 이후 연도 퇴임 뒤에도 '내로남불'?…박근혜 털었던 문재인, 자신 향한 서면조사엔 "무례한 짓" 감사원이 '서해 공무원 피살 사건'과 관련해 문재인 전 대통령을 서면조사하려 한 것으로 알려졌다. 문 전 대통령은 질의서 수령을 거부함과 동시에 불쾌감을 피력했으며, 더불어민주당도 "정치보복"이라며 일제히 반발하고 안심전환대출, 4억이하 1주택자로 확대… 버팀목대출, 신혼부부는 최대 3억까지 6일부터 변동금리 주택담보대출(주담대)을 최저 연 3.7%의 장기·고정금리 상품으로 바꿔주는 ‘우대형 안심전환대출’ 신청 대상이 주택 가격 4억 원 이하까지로 확대된다. 또 21일부터는 서민에게 낮은 금리로 주택 구 재생하기 재생시간01:14 김건희와 칼 든 검사 싣고…학생 공모전 금상 '윤석열차' 최근 한 만화축제에서 윤석열 대통령을 풍자하는 그림이 전시돼 화제가 되고 있다는 기사도 많이 봤습니다. 한국만화영상진흥원에 따르면 어제(3일) 폐막한 제23회 부천국제만화축제 전시장에 '윤석열차'라는 제목의 만화가 “담배 연기 가볍게 봤다가, 암보다 더 최악” ‘이것’ 먹으면 피해 막는다? “호흡기 손상으로 전세계 10초에 한명씩 사망, 예방책 있나?” 장(腸) 건강에 도움을 주는 것으로만 알려져있던 프로바이틱스 유산균이 담배 연기로 인해 유발되는 심각한 호흡기 손상(만성폐쇄성질환)을 예방할 수 있다는 “도와야겠어”…생방중 이재민에 뛰어간 카메라맨 [영상] 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해 상황을 보도하던 방송사 카메라맨이 생방송 도중 카메라를 내려놓고 이재민을 돕는 모습이 포착돼 이목을 모았다. 1일(현지시간) CNN 등에 따르면 지난달 28일 [단독]감사원 “진실이 다른 방향 갈길 없을것”… ‘서해 공무원 피살’ 현장감사 14일 종료 문재인 전 대통령에 대한 조사로까지 확대된 2020년 서해 공무원 피살 사건에 대한 감사원의 최종 감사 결과가 어떻게 나올지를 두고 관심이 집중되고 있다. 감사원은 이르면 이달 말 감사 결과를 발표할 것으로 알려졌다 [포착] 러軍 퇴각한 리만서 500억대 Su-34 전투기 ‘공중분해’ 굴욕 러시아군이 퇴각한 우크라이나 동부 요충지 리만에서 500억 원대 러시아 전투기가 산산조각이 난 채 발견됐다. 2일(이하 현지시간) 우크라이나 공군사령부는 동부 도네츠크 리만에서 러시아 신형 전술 폭격기 수호이(Su) 북한, 중거리탄도미사일 발사…일본 상공 넘어 태평양 낙하(종합2보) 자강도 무평리서 1발 발사…8개월만의 IRBM 발사로 도발 수위 끌어올려 이번엔 고각 아닌 정상각도 발사 가능성…ICBM·핵실험 이어지나 우려 북한이 4일 동쪽으로 중거리 탄도미사일(IRBM)을 발사했다. 올해 1월 김기현 "문재인 전 대통령, 5년 동안 나라 망쳐놨으면 책임져야" 문재인 전 대통령이 서해 공무원 피살 사건 관련 감사원의 서면조사 통보에 불쾌감을 표한 가운데, 김기현 국민의힘 의원은 "으레 범인이 목소리를 높이기 마련인데, 발끈하시는 걸 보니 두려우신가 보다"라며 직격했습니다. "월급 줄 돈 없다"…기증 인체조직 헐값에 판 공공기관 인체조직을 기증받아 이식재를 생산하는 보건복지부 산하 공공기관이 직원들에게 줄 월급이 없다는 이유로 기증받은 인체조직을 '할인 판매'한 사실이 드러났습니다. 어제(3일) 국회 보건복지위원회 소속 더불어민주당 강선우 '영끌'해 집 산 2030 빚 부담 증가폭, 집 없는 동년배의 13배 코로나19 이후 주택 가격 폭등기 때 빚을 내 산 집이 2030세대에 ‘빚 폭탄’이라는 부메랑으로 돌아왔다. 특히 주택이 없는 동년배와 비교해 2년 반 사이 소득 대비 빚 부담 증가폭이 13배에 달했다. *주택보유는 美태평양함대, '일본해' 아닌 동해·'한반도 동쪽수역'으로 명기 김병수 특파원 = 미 해군이 최근 자군의 활동을 전하는 뉴스에서 '동해'를 '일본해'(SEA OF JAPAN) 아닌 '동해'(East Sea) 또는 '한반도 동쪽 수역'(WATERS EAST OF THE KOREAN 편의점서 1억3천만원 결제…도대체 뭘 샀길래 CU 10년 효자상품 분석 참이슬 소주 누적 3억개 팔려 삼각김밥은 '참치마요'가 1위 점포수·매출액 2배로 늘어 편의점서 1억 넘게 쓴 고객도 편의점 CU에서 지난 10년 동안 가장 많이 팔린 상품은 무엇일까. 편 文 직격 권성동 "다친 군인에 '짜장면 먹고 싶냐' 한 게 무례" '서해 공무원 피격 사건' 관련, 감사원의 서면 조사 요구에 대해 문재인 전 대통령이 "대단히 무례한 짓"이라고 불쾌감을 드러낸 것을 두고 권성동 국민의힘 의원이 "목함지뢰로 다리가 잘린 군인에게 '짜장면 먹고 싶냐 북 탄도미사일 일본 상공 통과…윤 대통령 “무모한 핵 도발” 북한이 4일 일본 상공을 통과하는 중거리 탄도미사일 1발을 쐈다고 합동참모본부(합참)가 밝혔다. 북한은 최근 열흘 사이에만 다섯 차례 미사일을 쏘았다. 합참은 이날 “오전 7시23분께 자강도 무평리 일대에서 발사돼 허리케인 생방중 카메라맨이 사라졌다…그가 물에 뛰어든 이유 미국 플로리다를 강타한 초강력 허리케인 ‘이안’의 피해상황을 보도하던 방송사 카메라맨이 생방송 도중 이재민을 돕는 모습이 포착돼 화제가 되고 있다. 1일(현지 시각) CNN 등에 따르면 지난달 28일 호주 7뉴스 소 "필로폰하면 살 빠지는데"…마약 전문 유튜버도 놀란 돈스파이크 몸 사이즈 마약에 중독됐다가 벗어나 마약 근절 콘텐츠를 만들며 유명해진 한 유튜버가 작곡가 겸 가수 돈스파이크(45·본명 김민수)의 마약 투약과 관련해 마약 하면 살이 빠지는 데 체형을 유지해 놀랐다고 밝혀 화제입니다. 유튜브 '매각불발' 메가스터디교육, 스타강사 현우진과 맞손…재계약 임박 온라인 교육 1위 기업 메가스터디교육이 소속 스타강사 현우진과 재계약을 추진 중인 것으로 확인됐다. 재계약은 임박 단계로 최종 완료가 되면 자율 공시를 할 예정이다. 4일 메가스터디교육 및 관련 업계에 따르면 메가스 손가락 꺾으며 '뚝' 소리 내는 습관… 당장 멈추세요 습관적으로 손가락을 꺾으며 '뚝' 하는 소리를 내거나, 손가락을 바깥쪽으로 잡아당기는 사람들이 있다. 하지만 이런 행위는 손가락 관절에 염증을 일으킬 수 있어 주의해야 한다. 관절을 꺾거나 비틀 때 소리가 나는 현상 배우 박민영 교제설 터진 회사 인바이오젠 이사진, 재벌 뺨치는 고위급들 배우 박민영씨가 실소유주와 교제 중이라면서 화제가 된 회사가 있다. 회사 이름은 인바이오젠. 이름은 바이오회사처럼 보이지만 주업은 신발 제조와 판매와 키오스크 유통 사업이다. 2008년 03월 설립, 2008년 04 자고 나면 뛰는 전세대출 금리… 청춘들 ‘이자 지옥’에 산다 [뉴스 투데이] 고금리에 곳곳서 ‘악소리’ 1년 새 기준금리 2%P 상승 이자 부담 수십만원씩 올라 전세대출 최대한도 5억원 땐 102만원→203만원으로 껑충 고물가에 “한 푼이라도 절약” ‘무지출 챌린지’ 속속 늘어나 대전에서 신 네이버 일냈다…한국 인터넷 역사상 최대 규모 2조원 ‘빅딜’ 네이버가 승부수를 던졌다. 한국 인터넷 역사상 최대 규모의 빅딜에 나섰다. 네이버는 4일 북미 최대 패션 C2C 커뮤니티 포쉬마크 인수를 통해 커머스 시장 선점에 나선다고 밝혔다. 인수 금액은 2조3000억원에 달한 이준석 "어떻게 해석해도 망했다"…BBC의 尹대통령 '욕설' 풍자, '웃음 포인트'는? 이준석 국민의힘 대표가 윤석열 대통령의 '뉴욕 막말 파문'이 영국 언론 BBC의 시사풍자쇼 소재로 등장한 사실을 공유하며 "이제 당에서는 영락없이 MBC에 대응한 것 이상으로 BBC에 대응해야 할텐데 뭘 할지 기대된 文 “감사원 서면조사 ‘무례한 짓’”…김연주 “지금이 무슨 ‘왕조시대’도 아니고” 김연주 시사평론가, 文 측 향해…“서면 조사 요청에 감사원의 권한 밖이라 규정하는 건 납득하기 어려워” “‘무례한 자(, 과연 누구인가…진실 밝히는 데 협조하는 일에 너와 내가 따로 있을 수 있겠나” “왜 무고한 우 이전 뉴스들 보기 5 다음 뉴스들 보기 함께 볼만한 프리미엄 안내 프리미엄콘텐츠는 네이버가 인터넷뉴스 서비스사업자로서 제공, 매개하는 기사가 아니고, 해당 콘텐츠 제공자가 프리미엄 회원을 대상으로 별도로 발행·제공하는 콘텐츠입니다. 닫기 유료 대전 중구 아파트 리스트 - 제대로 된 정비, 재생사업이 무엇인지 알려주마! 스마트튜브 부동산조사연구소 유료 상처받은 것만으로 표현할 이유는 충분해 카나리아 선생님 유료 대전 동구 아파트 리스트 - 대전 정비사업의 주축! 그래서 기회를 주는 곳!! 스마트튜브 부동산조사연구소 유료 역행자 - 자청 - 책리뷰 업투게더 유료 뜻밖의 횡재세, 인플레이션과 초과이윤세(Windfall Tax) 택스넷 유료 배드민턴에서 축구로, 인니의 국가 스포츠 발전 전략 스포츠LAB 3. 노래를 통해 배우는 사랑에 대한 통계이야기-순열 놀고있네, 통계 유료 이례적 속도…성동구 '금호 벽산' 리모델링 사업 착착 진행 비결은 땅집고 pro 유료 86번가 데일리 (2022년 9월 30일) - 반도체 나홀로 강세, 윈도우 드레싱도 힘을 쓰지 못했던 하루 86번가 유료 내 형제를 죽인 범인을 30년 만에 찾았습니다. 텀크루즈 #8. 과거 최고가를 기준으로 적정 수준의 시세조정을 판단하면 안되는 이유 도시부자김사부 유료 시대를 앞서간 &lt;김씨표류기&gt; 리뷰 영화선우 이전 콘텐츠들 보기 3 다음 콘텐츠들 보기 구독 본문 듣기를 종료하였습니다. 이 기사를 추천했습니다. 추천을 취소했습니다. 맨위로 로그인 전체서비스 서비스안내 뉴스도움말 오류신고 본 콘텐츠의 저작권은 제공처 또는 네이버에 있으며, 이를 무단이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. ⓒ NAVER Corp. ⓒ 한겨레 예 아니오</t>
+    <t>[동정] 부동석 제주도관광협회장, 대구시관광협회에 방역물품 지원</t>
+  </si>
+  <si>
+    <t>제주도 본토 갈치조림 향의 향연, 중문관광단지 맛집 '색달식당 중문본점' 가...</t>
+  </si>
+  <si>
+    <t>제주도, 여행업.관광숙박업 '특별고용지원업종' 지정 건의</t>
+  </si>
+  <si>
+    <t>제주도 가볼만한 곳 '박물관은살아있다' 이색적인 전시공간으로 관광객들에게...</t>
+  </si>
+  <si>
+    <t>제주도 "지하상가-관광지 등 공공시설 임대료 30% 인하"</t>
+  </si>
+  <si>
+    <t>제주도, 고강도 방역으로 '제주 관광' 지킨다</t>
+  </si>
+  <si>
+    <t>“제주도가 웁니다” 관광객 60%↓…3500원 항공권 재등장</t>
+  </si>
+  <si>
+    <t>제주도 실내 공영관광지 12곳 임시 휴관</t>
+  </si>
+  <si>
+    <t>제주도 입도객 절반으로 뚝↓...거리.관광지 '사람이 없다'</t>
+  </si>
+  <si>
+    <t>부쩍 따뜻해진 날씨에 찾아가기 좋은, 제주도 중문 관광단지 그리고 '이조은식...</t>
+  </si>
+  <si>
+    <t>제주도, 국내 관광객 유치 강화</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 극복...국내 관광객 유치 총력</t>
+  </si>
+  <si>
+    <t>제주도관광약자접근성안내센터, 여행작가 참가자 모집</t>
+  </si>
+  <si>
+    <t>확진환자 없는 제주도…관광 다시 살아나나?</t>
+  </si>
+  <si>
+    <t>코로나19, 제주관광 직격탄…제주도, 5700억원 긴급 수혈</t>
+  </si>
+  <si>
+    <t>제주도, 관광 활성화 위해 한라산 탐방예약제 '유보'</t>
+  </si>
+  <si>
+    <t>신종코로나 여파에 제주도 관광객 '반토막'…지역경제 위기</t>
+  </si>
+  <si>
+    <t>제주도 항공권 단돈 '3000원'...그래도 관광객은 '뚝'↓</t>
+  </si>
+  <si>
+    <t>제주도, 오현단에 문화관광해설사 배치…원도심 투어도 운영</t>
+  </si>
+  <si>
+    <t>제주도 코로나 늦장 대응에...관광·경제 '초토화'</t>
+  </si>
+  <si>
+    <t>제주도내 관광업계 "재정지원 해달라" 촉구</t>
+  </si>
+  <si>
+    <t>사라진 제주도 유커… 관광업계 직격탄 [신종 코로나 비상]</t>
+  </si>
+  <si>
+    <t>제주도, 중국 관광객 A씨 역학조사 '총력'</t>
+  </si>
+  <si>
+    <t>제주도, 신종코로나 확진 판정 받은 中 관광객 주요 동선 공개</t>
+  </si>
+  <si>
+    <t>‘무사증 입국 일시 중지’ 제주도 관광 직격탄</t>
+  </si>
+  <si>
+    <t>제주도, 4일부터 '무사증 중단'…중국인 관광객 74%↓전망</t>
+  </si>
+  <si>
+    <t>제주 시내버스 관광 중국인, 귀국 후 확진 판정… 제주도가 발칵</t>
+  </si>
+  <si>
+    <t>중국인 무비자 입국 제주도 뚫려… 면세점·관광지 들러</t>
+  </si>
+  <si>
+    <t>제주도, '코로나' 확진 중국인관광객 제주여행 동선 공개</t>
+  </si>
+  <si>
+    <t>한국인·중국인 모두 상대국 관광 목적 입국금지…제주도 무사증 입국제도 중...</t>
+  </si>
+  <si>
+    <t>중국 관광객 '확진자' 방문···제주도내 면세점 '휴업'</t>
+  </si>
+  <si>
+    <t>中 관광객 '신종 코로나' 확진, 제주도 '초긴장'…"중국인 입국 일시 금지" 요...</t>
+  </si>
+  <si>
+    <t>제주도 `신종코로나` 비상…中 관광객 접촉자 자가격리</t>
+  </si>
+  <si>
+    <t>제주도, ‘신종 코로나’ 中관광객 숙박업소 직원 격리 조치</t>
+  </si>
+  <si>
+    <t>제주도 뚫렸나…中 관광객 귀국 후 신종 코로나 확진</t>
+  </si>
+  <si>
+    <t>제주도 '신종 코로나' 비상…양저우 확진자 4박5일 관광</t>
+  </si>
+  <si>
+    <t>제주도 우한 폐렴 비상… 中 관광객 귀국후 확진</t>
+  </si>
+  <si>
+    <t>4박5일 제주여행 中관광객 신종 코로나 '확진'...제주도 6시간 넘게 '쉬쉬'</t>
+  </si>
+  <si>
+    <t>제주도, 신종 코로나 확진 중국인 관광객 동선 자체 조사</t>
+  </si>
+  <si>
+    <t>제주도, 관광 종사자·입도객에게 마스크 배부</t>
+  </si>
+  <si>
+    <t>[동정] 부동석 제주도관광협회장, 대구시관광협회에 방역물품 지원 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [동정] 부동석 제주도관광협회장, 대구시관광협회에 방역물품 지원 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 [동정] 부동석 제주도관광협회장, 대구시관광협회에 방역물품 지원 편집팀 iheadline@hanmail.net 승인 2020.02.29 22:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 부동석 제주도관광협회장 부동석 제주특별자치도관광협회 회장은  29일 코로나19 사태로 최대 피해 지역인 대구시관광협회(회장 윤현)에 500만원 상당의 방역물품을 지원했다. 이번 물품지원은 지난 20일 전국 시.도관광협회장단들이 제주를 찾아, 청정 제주홍보와 함께 코로나19 사태 위기극복 등 국내관광활성화에 힘을 모아주었던 일환으로 이뤄졌다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 본토 갈치조림 향의 향연, 중문관광단지 맛집 ‘색달식당 중문본점’ 가볼만한 곳으로 이목 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-11 14:49 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 본토 갈치조림 향의 향연, 중문관광단지 맛집 ‘색달식당 중문본점’ 가볼만한 곳으로 이목 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 본토 갈치조림 향의 향연, 중문관광단지 맛집 ‘색달식당 중문본점’ 가볼만한 곳으로 이목 기자명 최태협 입력 2020.02.29 11:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 최근 많은 사람들이 제주도 맛집을 찾고 있다. 그 중에서도 핫하게 떠오르고 있는 곳은 색달식당중문본점으로 이는 중문관광단지 맛집 필수코스이다.특히나 3월에 구경할 수 있는 관광지로 근처 상효원에 튤립축제나 매화명소를 보고 올 수 있는 가까운 접근성을 갖추고 있는 색달식당은 가족단위나 커플단위에게 인기가 좋다.서귀포 맛집으로 떠오르고 있으며 색달식당은 중문관광단지에서 1분 거리에 위치해 있어 여행객들이 손쉽게 접근하기가 좋다.이곳의 메인 요리는 통갈치조림으로 생물갈치를 사용하고 있어 신선함과 당일 날 바로 맛볼 수 있는 감칠맛이 있다. 또한 이에 나오는 더불어 세트메뉴도 가성비 좋게 먹을 수 있으며 이게 끝이 아니라 픽업서비스를 제공해서 근처 숙소에서 편하게 방문할 수 있다.기본적으로 많이 나가는 건 문어 통갈치 세트 메뉴이며, 고등어구이가 서비스로 나오고 돌솥밥과 성게미역국이 기본으로 포함되어 나오며 이는 손질도 직원분들이 다 하고 있어 편안하게 먹을 수 있다.근처에 있는 관광지 산방산, 카멜리아힐, 중문색달해변을 방문하기에도 좋다.또한 제주롯데 호텔, 제주신라 호텔 등 숙소 근처에 있는 색달식당으로 제주 중문 맛집, 중문관광단지 맛집으로 찾는 사람들의 발길이 끊이질 않고 있다.제주 갈치조림 맛집, 이색적인 갈치조림을 맛볼 수 있는 곳으로 오랜 기간의 노하우를 가지고 있는 전문 향토 음식점으로서 음식 맛에 대한 평가도 매우 높은 점수를 받고 있어 많은 사랑을 받고 있으며 이는 합리적인 가격대로 제시를 하고 있어 현재 많은 관광객의 입소문을 타고 전국적인 인지도를 가지고 있을 만큼 유명하다.특히나 외국인들도 많이 찾고 있는 곳으로 제주도에 가거든 꼭 들려야하는 제주도 맛집으로 볼 수 있다.또한 색달식당 중문본점'은 매일 오전 10시부터 오후 9시 30분까지 운영하고 있으며 편안하게 식사를 할 수 있고, 이곳. 색달식당에 대한 보다 자세한 정보는 전화를 통하여 알아볼 수 있고 미리 예약 도 가능하다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 도심 속 장미 축제 '로즈 아워 페스타', 내년 5월 다시 돌아온다 DGB금융지주, 대한민국 교육기부 대상 수상 카카오뱅크 임원진, 자사주 5만 5천주 매입 "주가 부양과 주주 가치 제고" 신한은행, 뉴 쏠 광고모델에 ‘뉴진스’ 발탁 카카오페이손보, 첫 상품 출시 '함께하는 금융안심보험' 이 시각 추천뉴스 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 토요타 노조와 대조되는 현대차·기아 노조 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 하림펫푸드, 반려동물용 닭고기 가격 인상 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 NH농협은행 ‘2022년 환율전망 세미나’ 개최 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 토요타 노조와 대조되는 현대차·기아 노조 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 많이 본 뉴스 1 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 2 토요타 노조와 대조되는 현대차·기아 노조 3 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 4 하림펫푸드, 반려동물용 닭고기 가격 인상 5 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 6 NH농협은행 ‘2022년 환율전망 세미나’ 개최 7 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 8 뮤지컬 '광주', 美 브로드웨이서 쇼케이스…현지 배우·스태프 참여 9 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 10 CJ제일제당, 삼양식품과 손잡고 불닭소스 컵밥 내놓는다 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 이 시각 헤드라인 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 토요타 노조와 대조되는 현대차·기아 노조 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 여행업.관광숙박업 '특별고용지원업종' 지정 건의 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 여행업.관광숙박업 '특별고용지원업종' 지정 건의 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 여행업.관광숙박업 '특별고용지원업종' 지정 건의 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2020.02.29 13:06 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 코로나19 사태 후 고용유지지원금 신청 폭증 29일 오전 제주도청 기자실에서 코로나19 대응상황 브리핑을 하고 있는 원희룡 제주도지사. ⓒ헤드라인제주 제주특별자치도는 코로나 바이러스 감염증-19(코로나19) 사태로 직격탄을 맞으면서 최대 위기에 처한 여행업, 관광숙박업 등 관광업에 대한 특별고용지원업종 조속 지정도 정부에 건의했다고 29일 밝혔다. 특별고용지원업종으로 지정되면, 전직·재취업 및 창업지원, 생활안정자금 융자, 고용유지지원금을 지원받게 된다. 원희룡 지사는 이날 제주도청 기자실에서 가진 코로나19 대응상황 브리핑에서 "관광업에 대한 지원방안이 조속히 이뤄지도록 정부에 적극 건의할 계획"이라고 밝혔다. 원 지사는 "선 고용유지 조치를 취한 뒤 후에 고용유지지원금을 지급하는 방식의 현행 방식을 개선해, 우선 고용유지지원금을 지급하고 나중에 확인하는 형식으로 제도 개선이 절실한 시점"이라고 피력했다. 한편, 제주지역의 경우 서비스업 비중이 73.7%에 이르는데, 이번 코로나19 사태로 직격탄을 맞으면서 상당수 업체가 개점휴업 상태에 빠져 고용유지가 어려운 것으로 나타났다. 실제, 지난 2월 4일 무사증 입국 제도가 일시 중단되면서 제주도내 영세 여행업 등 관광업계 중심으로 고용유지지원금 신청이 평년 25배 수준으로 신청이 급증했다. 이달 26일 기준 총 61개 업체 731명이 신청했는데, 이중 여행업체가 28개 업체로 파악됐다. 제주도는 신청 사업장에서 고용유지 조치를 이행중이며, 1개월 단위로 이행상황을 점검 후 지원금을 지급할 예정이라고 밝혔다. 제주도는 이번 정부건의에서 고용유지지원금 지급 기간을 현행 6개월에서 1년으로 연장할 것도 요청할 방침이다.  &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도, 신천지 관련자 소재 파악 마무리...모두 '음성' 판정 원희룡 지사, 공항 국내선 발열감시카메라 설치 특례 건의 여행업 등 관광 4개 업종 '특별고용지원업종'으로 지정 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 가볼만한 곳 '박물관은살아있다' 이색적인 전시공간으로 관광객들에게 인기 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-11 14:49 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 가볼만한 곳 '박물관은살아있다' 이색적인 전시공간으로 관광객들에게 인기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 제주도 가볼만한 곳 '박물관은살아있다' 이색적인 전시공간으로 관광객들에게 인기 기자명 최태협 입력 2020.02.29 09:00 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도의 2월은 한해 중에서 가장 많은 관광객이 몰리는 시기이다. 겨울 바다의 한적한 정취와 더불어 2월에 동백꽃이 만개하는 카멜리아 힐 같은 제주도 관광지 때문인데, 그래서 국내 관광객은 물론이고, 외국인 관광객들의 관광 수요 또한 매우 높은 편이다. 그러나 최근에는 이처럼 잘 알려진 관광 명소 말고도 제주 가볼만한 곳으로 '박물관은살아있다'가 손꼽히는 관광 코스로 주목받고 있다.현재 인터넷 상에서 제주도 여행 핫플레이스로 가장 주목받고 있는 '박물관은살아있다'는 이름에서부터 알수 있듯이 착시현상을 이용한 트릭아트를 전시해둔 곳이다. 착시현상을 이용한 재미있는 미술품이 가득하기 때문에 이색적이고 몽환적인 분위기가 풍기는 곳이며, 예술품과 함께 독특한 사진을 찍을 수 있기 때문에 최근 가장 주목받는 제주도 놀거리로 여겨지고 있다. 때문에 관광객은 물론이고 지역 주민들의 방문 또한 매우 많은 편이다.이 곳은 세계적으로 유명한 그림 작품을 독특하게 패러디한 그림부터 살아서 움직이는 듯한 미디어 아트와 오브제 아트 등 다양한 주제의 작품을 한 자리에서 만나볼 수 있다. 착시 현상을 이용한 트릭아트와는 달리 여기서는 예술품을 즐길 수 있다는 것과 동시에, 사진을 남길수 있기 때문에 이 점에서 이용자들의 보다 좋은 반응을 얻고 있다. 그래서 최근에는 제주도 여행 코스로서, 제주 중문 가볼만한 곳 리스트에 빠짐없이 등장하는 곳으로 자리매김 했다. 제주도 갈만한 곳으로 손꼽히는 이곳은 창의적인 미술 작품과 함께하는 포토존과 더불어 LED 전구를 이용해 만든 장미 포토존, 이색적인 체험을 할 수 잇는 거울 포토존 등, 제각각의 개성이 넘치는 부스들을 마련해두고 있다. 최근 가장 많은 인기를 얻고있는 곳은 거대한 오르골을 만나볼 수 있는 룸이다. 여기서는 실제로 청아한 오르골 음악을 들을 수 있을 뿐만 아니라, 인생 사진을 찍기 위한 명소로 주목받고 있으며, 인터넷에서 후기 사진들도 손쉽게 찾아볼 수 있다.'박물관은살아있다'는 이처럼 신비롭고 이색적인 공간을 마련해, 영유아부터 청년층은 물론, 기성세대에게서도 좋은 반응을 얻고 있다. 제주도 하면 흔히 제주 관광지만을 떠올리게 되지만, 이처럼 이색적인 전시 공간이 관광객들의 입소문을 통해서 널리 알려지면서 지금은 제주도 관광지 못지않은 꼭 가볼만한 곳으로 명성을 떨치고 있다.'박물관은살아있다' 에서는 관광객의 편의를 위하여 직접 박물관에서 다양한 촬영 도구들을 대여해주는 서비스를 실시하고 있으며, 삼각대를 비롯해서 블루투스 리모콘까지, 멋진 사진을 찍기 위한 많은 장비들을 저렴한 가격으로 대여하고 있으며, 어린 자녀를 두고 있는 관광객의 편의를 위해 무료로 휠체어아 유모차도 대여해주고 있다.'박물관은살아있다'는 오전 9시부터 오후 9시 30분까지 넉넉한 시간 운영하고 있으며, 포털에서 '서귀포 가볼만한 곳', '제주도 갈만한 곳' 등의 키워드로 검색하면 다양한 후기 사진들을 참고해볼 수도 있다. 최태협 newspaper3859@naver.com 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 도심 속 장미 축제 '로즈 아워 페스타', 내년 5월 다시 돌아온다 DGB금융지주, 대한민국 교육기부 대상 수상 카카오뱅크 임원진, 자사주 5만 5천주 매입 "주가 부양과 주주 가치 제고" 신한은행, 뉴 쏠 광고모델에 ‘뉴진스’ 발탁 카카오페이손보, 첫 상품 출시 '함께하는 금융안심보험' 이 시각 추천뉴스 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 토요타 노조와 대조되는 현대차·기아 노조 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 하림펫푸드, 반려동물용 닭고기 가격 인상 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 NH농협은행 ‘2022년 환율전망 세미나’ 개최 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 토요타 노조와 대조되는 현대차·기아 노조 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 많이 본 뉴스 1 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 2 토요타 노조와 대조되는 현대차·기아 노조 3 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 4 하림펫푸드, 반려동물용 닭고기 가격 인상 5 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 6 NH농협은행 ‘2022년 환율전망 세미나’ 개최 7 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 8 뮤지컬 '광주', 美 브로드웨이서 쇼케이스…현지 배우·스태프 참여 9 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 10 CJ제일제당, 삼양식품과 손잡고 불닭소스 컵밥 내놓는다 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 이 시각 헤드라인 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 토요타 노조와 대조되는 현대차·기아 노조 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 "지하상가-관광지 등 공공시설 임대료 30% 인하" :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 "지하상가-관광지 등 공공시설 임대료 30% 인하" 등록 2020.02.28 12:01:04 작게 크게 지역경제단체선 '착한 건물주' 자율실천 운동 [제주=뉴시스]강경태 기자 = 제주지역에서 신종 코로나바이러스 감염증(코로나19) 확진자가 발생한 뒤 24일 제주시 동문재래시장에서 한 상인이 간이의자에 앉아 손님을 기다리고 있다. 2020.02.24. ktk2807@newsis.com[제주=뉴시스] 강경태 기자 = 제주에서 신종 코로나바이러스 감염증(코로나19) 여파로 어려움을 겪고 있는 영세 소상공인들을 위한 착한 건물주 운동에 민관이 동참하기로 했다. 제주특별자치도는 지하상가와 시장, 관광지 등 공공시설을 임대해 사용하는 소상공인과 시장 상인들의 임대료 부담을 덜어주기 위해 임대료와 사용료를 감면하겠다고 28일 밝혔다. 도는 제주도 공유재산 관리조례에 의거 상가와 관광지, 구내식당, 사무실 등의 시설 사용료 30%를 감면하며, 공설 시장의 경우 50%까지 사용료를 감면할 계획이다. 이번 감면 조치로 상가 등 415개소에서 사용료 4억2000만원 감면 혜택을 받게 된다. 이와 함께 제주지역경제단체장협의회(협의회)는 이날 오전 11시 제주도청 기자실에서 도내 경제 주체들을 향해 코로나19 위기를 극복하기 위한 자율실천운동을 제안했다. 특히 민간에서 스스로 경제 위기를 극복하기 위해 건물 임대료를 인하하는 ‘착한 임대인 운동’을 강조했다. [제주=뉴시스] 강정만 기자= 김대형 제주지역경제단체협회의 회장(왼쪽 첫번째)을 비롯 단체장들이 28일 오전 제주도청 브리핑룸에서 '코로나19 위기극복을 위한 호소문'을 발표하고 있다. 2020.02.28 kjm@newsis.com서귀포시 매일올레시장상인회는 지난 27일 자체 회의를 열고 착한 임대료 인하 운동에 적극적인 참여를 결정했다. 코로나19 확산을 막기 위해 결혼식과 돌잔치 등 각종 행사나 모임을 취소하며 도민들이 받는 위약금 피해를 줄이기 위해 앞장서겠다고 밝히기도 했다. 김대형 협의회장은 “상생과 배려의 제주정신은 지역 경제에 활력을 불어넣고, 코로나19 사태 종식을 앞당기는 원동력이 될 것”이라며 “제주 경제주체들은 제주도의 짐을 나눠서 진다는 자세로 도정과 적극적으로 협력해 위기를 극복하는 데 최선을 다하겠다”고 말했다. ◎공감언론 뉴시스 ktk2807@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 파주시, 12월까지 긴급복지지원제도 확대 지원 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, GS25 전용 빵빠레 샌드 카스타드 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 BAT "궐련형 전자담배 전환시 연초 대비 '위해 저감' 효과" 주장 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 연세대 고등과학원, 노벨상 수상 석학 초청 행사 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 물품 대금 5억 빼돌린 안성 지역농협 직원 자수...검찰 송치 [안성소식] 시, 하반기 농민기본소득 지급 등 수원시, 빅데이터 활용 ‘맞춤형 체납 징수’ 나선다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" 김대중컨벤션센터서 광주식품대전 개막…13~16일 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 고강도 방역으로 '제주 관광' 지킨다 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 고강도 방역으로 '제주 관광' 지킨다 등록 2020.02.28 13:44:33 작게 크게 [제주=뉴시스] 제주도소방본부 코로나19 구급대원들이 환자를 실을 구급차 내부를 방역하고 있다.(제주도소방본부 제공) 【제주=뉴시스】배상철 기자 = 제주도는 신종 코로나바이러스 감염증(코로나19) 감염 예방 및 확산 방지를 위해 관광 관련 기관단체 간 협력체계를 구축하고 고강도 방역을 추진하고 있다고 28일 밝혔다. 이는 정부가 지난 23일 코로나19 위기경보 단계를 ‘심각’으로 격상함에 따라 안전한 관광제주를 지켜내기 위한 일환이다. 도는 관광시설 종사자와 이용객의 마스크 착용을 의무화하는 한편 마스크를 착용하지 않으면 실내 관광지에 입장하지 못하도록 계도하고 있다. 아울러 공영 및 사설 관광지 466개소에 마스크 착용 안내문을 부착하고 이용객에게 개인위생수칙 준수를 당부하고 있다. 도는 관광산업협력분과협의회와 논의한 사항도 시행하고 있다. 지난 25일부터 27일까지 3일간 831개 관광업체를 방문해 제주관광 홍보포스터 1800부와 감염 예방 수칙을 담은 건전지 3000매, 손 세정제 1800개 등을 배부했다. 아울러 업체별 상황대처 매뉴얼에 따라 1065개소에 철저한 방역을 요청했다. 도와 관광 관련기관은 숙박업소와 관광업체에 방역소독 살균제 3450개와 손 세정제 8000개를 추가 배부할 계획이다. 강영돈 도 관광국장은 “코로나19 사태로 제주관광 산업이 심각한 위기 상황에 놓여있다”며 “시간과 싸움이기에 행정과 관광사업체가 하나로 대응하겠다”고 말했다. 한편 도는 관광사업체의 경제적 어려움을 지원하기 위해 지난 20일부터 오는 5월 18일까지 관광기금지원 신청을 받고 있다. 26일 현재 486건 757억원이 접수됐다. ◎공감언론 뉴시스 bsc@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 파주시, 12월까지 긴급복지지원제도 확대 지원 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, GS25 전용 빵빠레 샌드 카스타드 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 BAT "궐련형 전자담배 전환시 연초 대비 '위해 저감' 효과" 주장 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 연세대 고등과학원, 노벨상 수상 석학 초청 행사 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 물품 대금 5억 빼돌린 안성 지역농협 직원 자수...검찰 송치 [안성소식] 시, 하반기 농민기본소득 지급 등 수원시, 빅데이터 활용 ‘맞춤형 체납 징수’ 나선다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" 김대중컨벤션센터서 광주식품대전 개막…13~16일 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>“제주도가 웁니다” 관광객 60%↓…3500원 항공권 재등장 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; “제주도가 웁니다” 관광객 60%↓…3500원 항공권 재등장 파이낸셜뉴스입력 2020.02.27 23:49수정 2020.02.28 00:23 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 코로나19 확산에 내국인 여행수요도 ‘뚝’…항공업계 직격탄 제주국제공항 국내선 도착장에 설치된 열 감지 카메라 [사진=제주도 제공/fnDB] [제주=좌승훈 기자] 코로나19가 전국적으로 확산되면서 제주를 찾는 입도객이 예년의 절반 이하로 줄어든 가운데 국내 항공사들이 항공권 초특가 할인에 나섰다. 27일 제주도에 따르면, 코로나19 위기경보가 ‘심각’단계로 격상된 23일부터 26일까지 입도객은 6만7518명으로 지난해 같은 기간의 16만5124명에 비해 59.1%나 감소한 것으로 나타났다. 이 중 내국인은 6만5432명으로 지난해 같은 기간의 14만6947명에 비해 55.5%나 줄어든 것으로 파악됐다. 외국인은 2086명으로 지난해 같은 기간의 1만8177명에 비해 무려 88.5%나 감소했다. 내국인 관광객이 오히려 증가했던 2015년 중동호흡기증후군(MERS·메르스) 사태와 사드 배치 문제로 한중 갈등이 최고조에 달했던 2017년과는 전혀 다른 상황이 벌어지고 있다. 이에 따라 제주-김포 구간 항공권이 커피 한잔 값도 안 되는 3500원까지 떨어졌다. 티웨이항공은 파격적인 할인 공세에 나서 이 구간에 27일 4500원, 28일 3500원, 29일 4500원, 3월1일~4일 4500원, 5일 6500원(이상 편도 기준)짜리 초특가 항공권을 내놨다. 6일 이후에도 31일까지 최저 9500원에서 최대 4만6900원 수준의 최저가 요금을 제시했다. 새 학기를 앞둔 2월은 통상 성수기에 속한다. 하지만 코로나19 위기로 수요가 크게 줄어들면서 항공사들이 ‘울며 겨자 먹기’식으로 초특가 항공권을 쏟아내고 있다. 현재 제주관광시장은 지난 4일부터 외국인 무사증(노비자) 입국 일시 중단으로 제주 기점 18개 중국노선 운항이 전면 중단됐된 데다, 코로나19 위기경보가 ‘심각’ 단계로 격상되면서 역대급 위기 상황에 봉착했다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 실내 공영관광지 12곳 임시 휴관 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 실내 공영관광지 12곳 임시 휴관 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도 실내 공영관광지 12곳 임시 휴관 기자명 김봉철 기자 입력 2020.02.26 10:57 수정 2020.02.26 14:35 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도립미술관 전경도립미술관·현대미술관·제주추사관·별빛누리공원 등 만장굴·성산일출봉·제주추사관 등 실내시설 한해 휴관제주도는 최근 코로나19 위기경보 단계가 경계에서 '심각'으로 격상됨에 따라 감염 사전예방과 확산방지를 위해 제주지역 공영관광지 60곳중 실내 관광지 12곳을 임시 휴관했다고 26일 밝혔다. 도는 휴관을 모르고 방문하는 불편함이 없도록 도민과 관광객이 유의해 줄 것을 당부했다. 관광지별 휴관 현황은 △국제평화센터 2월 25일(화)~3월 2일(월) △제주도립미술관 2월 25일(화)~3월 2일(월) △현대미술관·김창열미술관 2월 25일(화)~상황 종료시까지 △한라산국립공원 2월 24일(월)~별도 알림시까지(전시관) △제주추사관 2월 26일(수)~3월 2일(월) △제주별빛누리공원 2월 25일(화)~3월 2일(월) △이중섭미술관 2월 25일(화)~3월 2일(월) △기당미술관 2월 25일(화)~3월 2일(월) △소암현중화기념관 2월 25일(화)~3월 2일(월) △서복전시관 2월 25일(화)~3월 2일(월) △서귀포천문과학문화관 2월 26일(수)~3월 2일(월) 등이다. 이와 함께 제주도 세계유산본부가 관리하는 직영 공공시설의 실내전시관 등도 지난 25일부터 상황종료시까지 임시 휴관에 들어갔다. 세계자연유산센터는 전시실과 영상관이 휴관하고 거문오름 탐방은 정상운영된다.제주칠머리당영등굿·갓·제주불교의식 등의 무형문화재전수관과 고산리안내유적센터, 한란전시관도 휴관한다. 항몽유적지와 삼양선사유적지, 제주추사관은 실외시설에 한해 관람 가능하다. 만장굴과 성산일출봉, 한라수목원 등은 홍보관·수유실·휴게실·전시실 등을 제외하고 탐방은 정상운영한다. 한라산국립공원 성판악·관음사·어리목지구는 탐방안내소와 관음사야영장이 휴관 또는 운영중지하며 한라산 탐방은 가능하다. 세계유산본부는 본부 공공청사 15곳의 시설별 출입구를 단일화하는 한편 출입구별 인원을 배치해 관람객 방문시 발열검사를 실시하고 있다. 김봉철 기자 bckim@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 입도객 절반으로 뚝↓...거리.관광지 '사람이 없다' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 입도객 절반으로 뚝↓...거리.관광지 '사람이 없다' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도 입도객 절반으로 뚝↓...거리.관광지 '사람이 없다' 홍창빈.윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2020.02.25 17:49 댓글 5 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 코로나19 '심각' 단계 격상 후, 내국인 입도객 56% 감소제주공항 '썰렁',관광지.시내거리 '한산'...사상최대 불황사태 우려 코로나19 위기경보가 '심각' 단계로 격상된 24일을 기점으로 제주도를 찾는 입도객도 예년 절반 이하 수준으로 다시 확 줄어들었고, 제주공항과 관광지는 물론 시내거리도 매우 한산한 분위기가 이어지고 있다. 25일 제주특별자치도에 따르면, 24일 제주도를 방문한 입도객은 총 1만6903명으로 지난해 같은 날과 비교해 58.7% 감소한 것으로 나타났다. 이 중 내국인 1만6379명으로, 지난해 같은 날(3만 7137명)과 비교하면 무려 55.9%의 감소율을 기록했다. 이는 외국인에 대한 '무비자 입국 중단' 조치가 내려진 시점(2월 4일) 때보다 더 위축된 수치다. 2월 4일부터 일주일간 제주 방문 내국인은 35~45% 수준의 감소율을 보이다가 제주도가 관광객 유치활동 및 경제위기 극복 시책을 내놓으면서 다시 예년의 80% 수준으로 회복된 바 있다. 그러나 지난 21일과 22일 제주에서 코로나19 확진환자가 연이어 발생하고, 24일 정부가 위기경보를 '심각' 단계로 격상하면서는 내국인 관광객이 급속히 줄고 있다. 2월 누적(1~24일) 제주를 방문한 내국인은 53만 3001명으로, 지난해 같은 기간(84만 8711명)과 비교해 37.2% 감소한 것으로 집계됐다. 25일부터는 대한항공을 비롯해 각 항공사들이 확진환자가 집중적으로 발생하고 있는 대구노선의 항공기 운항을 중단하면서 입도객은 더욱 줄어들 것으로 전망된다. 실제 25일 제주국제공항에서는 국내선에서 제주~대구 노선은 티웨이항공에서만 운항됐고, 나머지 항공사에서는 운항계획이 모든 취소된 것으로 확인됐다. 이러한 가운데 외국인 입도객은 24일 기준 524명에 불과했다. 중국인은 단 '6명'인 것으로 나타났다. '무비자 입국' 중단조치가 취해진 지 2주만인 지난 17일부터 제주국제공항의 중국노선 운항은 전면 중단됐다. 불과 한달전인 지난달 21일만 하더라도 제주기점 중국노선 운항노선이 24편에 달했고, 탑승률도 86%로 높았으나 지금은 완전한 '단절' 수준이다. 때문에 제주공항 국제선 대합실은 '개점 휴업' 상황이다. 입도객이 크게 줄면서 공항 뿐만 아니라 제주도내 관광지들과 주요 거리도 매우 한산한 분위기를 보이고 있다. 한편, 25일부터 제주도내 도서관.체육관.관광시설 등 대부분의 공공시설이 임시 휴관에 들어갔다. 어린이집도 전면 휴원했고, 초.중.고등학교의 개학원은 일주일 연기됐다. 3월 예정됐던 제주들불축제와 제주왕벚꽃축제 등 문화관광 행사들도 대부분 취소되면서, 코로나19 사태가 장기화될 경우 지역경제는 사상 최악의 불황사태에 직면할 것으로 우려되고 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈.윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 비행기 탑승객 65% 감소...제주행 '3500원' 항공권 다시 등장 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 5 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 정의인 2020-02-29 21:16:36 | 61.***.***.149 더보기 삭제하기 수정하기 제주도 입도자 중에서 감염원이 나올텐데 무신 지역경제 걱정인가. 지금은 입도자를 배트남 수준으로 격리 관리해야할지경이다. 세계적 역병이 섬에 다 퍼져야 정신나겠나 답글쓰기 3 0 좋아 2020-02-28 14:36:51 | 39.***.***.206 더보기 삭제하기 수정하기 정말 좋아요 제주는 당분간 진정할필요가 있어요 연동에 드림타워 보면서 두려움을느낀니다 조만간 저시설이 운영되고 중국인이 몰려들기 시작하면 어떠게될까 당분간이라도 쾌적함과 여유로울을 느끼고 싶네요 답글쓰기 3 0 제주 섬돌이 2020-02-26 13:16:45 | 223.***.***.248 더보기 삭제하기 수정하기 지금이 딱 살기좋지 조용하고. 쓰레기없고 답글쓰기 4 2 크리스탈 2020-02-26 07:08:00 | 49.***.***.135 더보기 삭제하기 수정하기 관광객이 줄어들면 도내 경제가 위태로워지고...그렇다고 오는 사람들이 마냥 반갑지는 않은 게 솔직한 심정이네요;;; 어서 사태가 마무리되었으면 좋겠어요!! 답글쓰기 9 0 성산사위 2020-02-25 19:40:34 | 14.***.***.188 더보기 삭제하기 수정하기 요즘 제주살기최고 행복해요 ㅡ차량이동 최고 속도 ㅡ쓰레기 없고... ㅡ짱개들 없어 동네 조용하고.. ㅡ 동내 마트 장사 대박.. 영원히 현상태로 가다 답글쓰기 14 10 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>부쩍 따뜻해진 날씨에 찾아가기 좋은, 제주도 중문 관광단지 그리고 '이조은식당'      - 한국면세뉴스 × 전체기사 DF산업 전체 국내면세점 해외면세점 산업동향 금융 DF정책 브랜드·유통 전체 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 전체 인터뷰·칼럼 What’s NEW 글로벌 라이프 여행·레저 전체 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 보도자료 UPDATED. 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체기사 DF산업 국내면세점 해외면세점 산업동향 DF정책 브랜드·유통 뷰티 패션·인테리어 주류·담배 식품·음료 가전·IT·게임 유통채널 포커스 인터뷰·칼럼 What’s NEW 글로벌 ISSUE 라이프 여행·레저 국내여행·숙박 해외여행·숙박 항공사·항공권 아웃도어 핫뉴스 핫뉴스 생활 엔터테인먼트 보도자료 기사검색 검색 이전 다음 부쩍 따뜻해진 날씨에 찾아가기 좋은, 제주도 중문 관광단지 그리고 '이조은식당' 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 상태바 HOME 핫뉴스 생활 부쩍 따뜻해진 날씨에 찾아가기 좋은, 제주도 중문 관광단지 그리고 '이조은식당' 박홍규 승인 2020.02.24 18:07 댓글 0 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 URL복사 × 봄이면 노란 유채꽃으로 물드는 아름다운 섬 제주도는 복잡한 도심을 떠나 힐링을 꿈꾸는 사람들의 여행심리를 자극하고 있다. 사실 여행코스를 계획하는것만으로도 여행의 즐거움이 더해질만큼, 여유로움과 자연을 그대로 간직하고 있는 제주도는 다양한 테마여행이 가능하다는 특징이 있다. 특히 제주 중문관광단지는 제주도만이 가지고 있는 자연경관과 함께 각종 테마 체험, 맛집 등 다채로운 여행요소를 두루 갖춰 많은 관광객들이 찾는다. 푸른 바다를 만날 수 있는 잠수함을 타고 해저의 뛰어난 경관을 바다 속에서 가까이 관람할 수 있다. 또 섭지코지와 휴애리자연공원, 카멜리아힐과 대포주상절리, 오설록티뮤지엄, 용머리해안 등도 강추하고픈 명소다. 다양한 제주도 중문 가볼만한곳 중에는 다양한 테마의 카페와 맛집도 빼놓을 수 없다. 제주도 중문관광단지 맛집 '이조은식당'은 친근한 내부인테리어와 갈치조림으로 유명하다. 제주 중문 맛집 이조은식당 대표메뉴는 갈치회,통갈치구이,갈치조림까지 한 번에 즐길 수 있는 '갈치정식'이다. 특히 도톰한 갈치를 특제양념장으로 감칠맛을 살린 갈치조림은 연예인들과 유명인사들의 입맛까지도 사로잡아 '유명인 단골 맛집'으로 통한다. 또 고등어회, 고등어구이, 고등어조림으로 구성되어있는 '고등어정식'과 흑돼지구이, 갈치조림,전복뚝배기로 구성된 '이조은정식'도 인기메뉴다. 코로나19가 물러나고 제주 여행길에 오른다면 꼭 가봐야할 맛집이다. 박홍규 기자 kdf@kdfnews.com 저작권자 © 한국면세뉴스 무단전재 및 재배포 금지 박홍규 다른기사 보기 페이스북 트위터 카카오스토리 카카오톡 URL복사 기사공유하기 관련기사 쿠팡·위메프·이베이코리아 등 이커머스 업계, 코로나19 확산으로 재택근무 실시 강남반영구화장학원 '메르뷰아카데미', 수준별 밀착 지도로 반영구화장 경쟁력 향상 대구 '코로나19' 방역 총괄팀장 확진 판정…신천지 교인 밝혀져 '문화콘텐츠와 저작권' 출간…저작권 이렇게 쉬워? 아시아종묘, 주방세제 '미인풋고추 푸르르미' 출시...USDA·로하스 인증 [오늘날씨] 전국 맑고 포근…공기도 깨끗 대한항공, 올 추석연휴 하와이 전세기 운행…백신접종 완료시 자가격리 면제 더보기+ 주요기사 LF ‘아떼 바네사브루노’,가을 시즌 패션·뷰티 브랜드 통합 기획전 열어 [kdf LF] 오늘부터 개량백신 접종 시작 日 도요타 자동차의 미래형 실험도시 '우븐 시티' 11월초 첫삽 유경준 의원, 'KTX-이음' 승차감 이상 195회…코레일·현대로템 개선방안 찾아야 LG에너지솔루션·포스코홀딩스, '이차전지 사업협력' 협약..."100년 기업으로 함께 성장" KB국민카드, ‘KB페이’ 중심 ‘원 플랫폼’ 서비스 구축 당신만 안 본 뉴스 [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] 카카오톡 PC·모바일 오류 발생…메시지 전송 속도 저하 및 로그인 불가 [속보] 美 허리케인 '이안(Ian)' 4등급 폭풍 격상...플로리다 비상사태 선포 '강제 주민 대피령' [KDF Disaster] 지수, 글로벌 VVIP 등극, LVMH 아르노 회장과 어깨 나란히 [KDF Dior] 이세영, '법대로 아름다워라' 자연미인의 성숙미란 이런것! [속보] 모스크바 주재 美 대사관, 러시아 거주-여행 미국인 철수령...이중 국적 미국인 동원령 징집 경고 [KDF World] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신뉴스 지수, 송강, 앤 마리도 모두 모여, PARTY~PARTY! [KDF Cartier] 이복현 금감원장, 은행권 이자 장사 지적에 "금리인하요구권 불수용 개선책 요구할 것" 김승연 회장, 한화 창립 70주년 맞아 "늘 새로워지자" LF ‘아떼 바네사브루노’,가을 시즌 패션·뷰티 브랜드 통합 기획전 열어 [kdf LF] 포인터웍스, 최대 캠핑 축제 ‘고아웃 캠프’ 체험 부스 운영 KDFN 인터뷰 윤석열차는 계속 달려야 한다 [안창현의 돋보기] 윤석열 대통령이 취임 5개월을 목전에 두고 외교, 안보, 경제 분야에서 난맥상을 보이며 미국에서 비속어 발언 논란까지 겹쳐 국정 지지율이 급락하는 가뜩이나 어려운 국면에 각료인 박... 농협하나로마트와 양두구육(羊頭狗肉)...점검 2곳 중 1곳은 수입농산물 판매 중 농협하나로마트를 운영하는 농협하나로유통 홈페이지에는 ‘농민과 함께 대한민국에 믿을 수 있는 행복한 먹거리를 제공하는 초일류 농식품 유통전문기업’, ‘진심을 판다! 안심을 산다!’라... 2022 국정감사 민생에 주력해야 [안창현의 돋보기] 2022년 5월에 취임한 윤석열 대통령과 정부에 대한 국정감사가 4일부터 막이 오르며 여당인 국민의힘과 야당인 더불어민주당은 한 치의 양보도 없는 혈전을 예고하고 있다.취임 5개월... What's NEW 내 남자가 낯설게, 프리해 보일 때 바바토스 ‘존? 누구세요?’[KDF varvatos] 아메리칸 맨즈웨어 브랜드 존 바바토스가 반포 솔빛섬 ‘무드서울 by 겟올라잇’에서 10월 12일 가을·겨울 프레젠테이션을 진행한다. 이번 시즌 테마인 ‘When You Are St... 라이언 고슬링, 깊은 눈빛의 젠틀한 트래블맨 변신 [KDF Gucci] 라이언 고슬링이 우수 어린 눈빛으로 먼 곳을 응시하는 트래블러로 변신했다. 고슬링은 구찌 발리제리아에 둘러싸여 낯선 곳을 지나는 여행자가 됐다. 6일 구찌(Gucci)가 공개한 ‘... 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 한국면세뉴스 KoreaDutyFreeNews 등록번호 서울 아 03561 등록일 2015-02-02 발행인 박홍규 편집인 박홍규 청소년보호책임자 박주범 서울특별시 서초구 서초대로55길 3 애니빌딩 6층 (서초동 1696-13) 02-3478-1767 mail to kdf@kdfnews.com / 4067park@naver.com 한국면세뉴스 · 면세뉴스아시아 © 2022 kdfnews.com All rights reserved. 한국면세뉴스의 모든 콘텐츠는 저작권법의 보호를 받으며, 무단 전재와 복사, 배포 등을 금합니다. 위로</t>
+  </si>
+  <si>
+    <t>제주도, 국내 관광객 유치 강화 ::::: 기사 본문 바로가기 검색사이드메뉴바사이드메뉴바OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항 로그인 로그인검색 검색 로그인 로그인 사이드메뉴바 닫기OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항투데이제주도, 국내 관광객 유치 강화 오승철2020년 02월 18일 07시 20분 00초 글자 크기 인쇄 페이스북에 공유트위터에 공유 카카오톡에 공유 제주도가 코로나19로 직격탄을 맞은 관광업계를 살리기 위해 국내 관광객 유치에 나섭니다. 제주도에 따르면 지난 13일부터 제주노선 항공기 탑승률이 호전되고 관광객 감소세도 줄고 있음에 따라, 국내 관광객 유치를 위해 온라인 홍보를 강화합니다. 다른지역 공항과 지하철, 영화관 등에서 감염병 청정 제주 이미지를 집중홍보하고, 128억 원을 들여 제주관광 온라인 할인행사 등 마케팅에 나설 계획입니다. 오승철ogija@jejumbc.com 최신 뉴스 뉴스투데이2022년 10월 11일 08시 31분 35초개교 100년 넘은 학교도 저출산으로 학생수 급감2022년 10월 11일 07시 20분 00초 고질체납차량·비과세 감면차량 일제 조사2022년 10월 11일 07시 20분 00초 홍해삼·전복 수산종자 91만 마리 방류2022년 10월 11일 07시 20분 00초휘발류보다 비싼 경유..디젤 차량 등록 첫 감소2022년 10월 11일 07시 20분 00초제주 해녀 10년 동안 1천200여 명 감소2022년 10월 11일 07시 20분 00초 오늘 맑고 찬바람 강해 쌀쌀‥내일 아침기온 뚝2022년 10월 11일 07시 20분 00초강원영동) 고향사랑기부금제 내년 도입2022년 10월 11일 07시 20분 00초(인터뷰)재일제주인 연구에 평생2022년 10월 11일 07시 20분 00초연중기획-마을공동체가 여행사업에 참여(리포트)2022년 10월 11일 07시 20분 00초제주도, 국내 관광객 유치 강화 방송편성규약게시판 운영원칙광고안내프로그램 구입 안내지상파DMB개인정보취급방침이용약관이메일무단수집거부 MBC Family MBC경남 대구MBC 대전MBC 목포MBC 부산MBC MBC강원영동 안동MBC여수MBC 울산MBC 광주MBC 원주MBC 전주MBC 제주MBC MBC충북 춘천MBC 포항MBC MBC C&amp;I MBC아카데미 MBC ARTS MBC PLUS MBC AMERICA MBC PlayBe 꿈나무축구재단 MBCNET MBC나눔 iMBC 회사명 : 제주문화방송(주) | 대표자 : 이정식 | 제주특별자치도 제주시 문연로 35 (연동) 064-740-2114 팩스번호 : 064-746-9020 | 뉴스제보 : 064-740-2000ㅣ광고문의 : 064-740-2400© 2019. Jeju Munhwa Broadcasting Corp. All rights reserved. Copyright © Jeju Munhwa Broadcasting Corp. All rights reserved. OnAir TV 표준FM FM4U기획뉴스2022 지방선거코로나19이슈추적뉴스줌인4 · 3 기 획공동기획창사기획2018지방선거2017 대선신년기획뉴스제주MBC 뉴스뉴스데스크뉴스투데이뉴스제보뉴스를 만드는 사람들취재기자카메라기자편집기자TVTV편성표명쾌한週우리동네 이슈多TV매거진 타임라인모두의 티비다큐M시청자TV 시선테마기행 길제주MBC 스포츠종영'선택 2022' 한 표가 미래다와랑와랑TVTV 매거진 해피플러스다큐에세이 그사람웃음주식회사 속암수다시사진단2020 4·15 총선 토론회생방송 제주가 좋다두드림 시즌2두드림 시즌3두드림 시즌4스토리공감탐라기행특집특집프로그램보도특집프로그램제주MBC 아나운서 소개카메라감독라디오표준FM 편성표FM4U 편성표즐거운 오후 2시라디오 제주시대굿모닝 FM제주종영정오의 희망곡특집프로그램관광외국어캠페인제주속담캠페인문화행사회사소개제주MBC 소개인사말연혁조직도결산공고방송구역도CI오시는길시청자와 함께시청자 의견FAQ시청자위원회시청자 위원회 회의록시청자 고충처리 (방송피해신고)고충처리인 활동대외홍보외부수상 현황윤리위원회광고안내방송광고협찬광고공지사항로그인 로그인</t>
+  </si>
+  <si>
+    <t>제주도, 코로나19 극복...국내 관광객 유치 총력 최종편집 2022년 10월 11일 14시 46분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도, 코로나19 극복...국내 관광객 유치 총력 정기후원 제주도, 코로나19 극복...국내 관광객 유치 총력 입도 관광객 회복 위해…포털·SNS 등 전략적 마케팅 본격 가동 현창민 기자(=제주) | 기사입력 2020.02.17. 20:49:34 최종수정 2020.02.17. 20:49:50 페이스북 트위터 카카오스토리 밴드 URL복사 제주도가 코로나19로 직격탄을 맞은 관광 업계를 되살리기 위해 국내 관광객을 중점 유치하기 위한 전략을 세우고 바이럴 마케팅에 나선다.도는 지난 13일부터 국내선 항공 예약 상황이 전주 대비 높아지며 내국인 관광객 입도 감소 추세가 점차 회복될 조짐을 보인다고 밝혔다.코로나19 발생과 무사증 일시 중지에 따라 입도관광객은 코로나19 감염병 위기경보‘주의’경보가 내려진 지난 1월 20일이후 2월 16일 기준 총 80만2263명으로 전년 대비 24.7% 급감했다. 제주도가 코로나19 여파로 위기에 빠진 관광 업계를 되살리기 위해 국내 관광객 유치에 총력을 다하기로 했다. ⓒ제주특별자치도 ⓒ 하지만 내국인 관광객 수가 전년동일대비 지난 13일(목) 2만4409명(–29.4%), 14일(금) 2만5936명(-26.1%), 15일(토) 2만7679명(-22.1%), 16일(일) 2만6120명(-27.2%)으로 점차 감소세가 줄며 평균 -45%대를 보이던 증감률이 –20%대를 기록하고 있다.실제 2월 둘째 주말인 2월 7일 55.7%, 2월 8일 59.5%, 2월 9일 52.9% 로 평균 56.0%를 기록했던 탑승률이 지난 주말 83.8%, 2월 14일 83.9%, 2월 15일 87.0%, 2월 16일 80.8%까지 올랐다.이에 도는 감염병 청정 제주이미지를 적극 활용하고 국내 관광객 중점 유치를 위한 온라인 홍보에 돌입해 관광 시장 조기 회복에 박차를 가한다.또한 유명 인플루언서 초청 감염병 청정 제주 투어를 통해 내국인 관광객의 위축된 여행 심리를 안전 관광 제주로 전환해 위축된 제주 관광시장 조기 회복을 도모할 방침이다.도외 다중집합장소(공항 5, 지하철 45, 영화관 26 등)에서도 ‘당신이 몰랐던 제주이야기 이미지’를 집중 홍보할 계획이다.이를 위한 예산 규모는 총 128억4천만 원이다.내국인 관광객 유치 마케팅에 56억2천만 원, 동남아권 등 해외 관광객 유치 마케팅에 38억 원, 직항노선·국내외 홍보사무소 접근성 확충에 34억2천 원 등을 투입할 계획이다.또한 예산 조정을 통해 제주 관광시장 최단기 회복을 위한 ‘제주관광 온라인 빅 할인 이벤트’등을 추진하고 단체 관광객 유치를 위한 관광업계 인센티브 지원 강화로 분위기 반전을 노린다는 전략이다.현재 도는 코로나19로 묶여있던 마케팅 예산을 단계별로 집행하기 위해 관광공사·관광협회와 함께 국내외 마케팅, 접근성 확충 방안들을 논의하고 단계별 전략 수립에 착수했다.특히 마케팅 초기단계에서는 도·공사·협회의 SNS 공식채널을 통한 바이럴 마케팅과 함께 대국민 온라인 홍보와 주요 포털 사이트 광고, 항공사 등 유관기관 공동 프로모션에 돌입해 안전 관광과 감염증 청정 제주 등 클린 제주 이미지를 지속적으로 홍보할 계획이다.이어 관광업체별 온라인 홍보 지원을 강화하고 ◈언론․대형 여행사 제주초청 팸투어 ◈대국민 제주여행 포스팅 공모전 ◈관광업계 공동 ‘탐나오 기획전’ 빅 할인 이벤트 ◈에코파티, 로캉스 지역관광상품 출시 ◈전국 주요도시 현장 로드홍보 ◈수학여행단 등 단체관광객 유치 인센티브 지원 등도 병행한다.회복 후 단계에서는 국내외 관광객 유치 극대화를 위한 글로벌 캠페인을 시행하고 기업체·학교·동호회 등 관련 업계의 인센티브를 지원할 방침이다.또한 국내외 직항 노선 증편 등 접근성 확충을 코로나19 발생 이전으로 회복함과 동시에 해외 현지 여행사와 제주상품 프로모션을 강화하는 등 관광시장 다변화를 추진한다.현재 제주도는 무사증 중단이 ‘안전한 관광 제주 ’를 지켜내기 위한 조치였음을 도 해외홍보사무소와 한국관광공사 해외지사 등을 통해 동남아 등 기존 무비자 대상 국가에 홍보하고 있다.한편 도는 코로나19 사태 해제 시를 대비해 민관 공동 마케팅 추진단을 결성해 일본 및 동남아 주요 도시 제주관광설명회와 세일즈 콜을 실시한다.또한 국가별 주력 온라인 플랫폼을 활용해 세계적인 관광목적지로서의 제주 홍보에 총력을 기울일 계획이라고 밝혔다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도, 코로나19 극복...국내 관광객 유치 총력 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자(=제주) 최근글보기 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광약자접근성안내센터, 여행작가 참가자 모집 &lt; 사회종합 &lt; 사회 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 사회 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 본문영역 이전 기사보기 다음 기사보기 제주도관광약자접근성안내센터, 여행작가 참가자 모집 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회종합 제주도관광약자접근성안내센터, 여행작가 참가자 모집 기자명 양경익 기자 입력 2020.02.17 14:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도관광약자접근성안내센터는 장애인 등 관광 활동에 대한 관심을 증대시키고 사회참여 활동을 도모하기 위해 여행작가 양성과정을 개설, 참가자를 모집하고 있다고 17일 밝혔다.참가자 모집은 이달 말까지 2주간 진행되며 모집 대상은 제주도에 거주하고 있는 장애인, 노인, 임산부 등 관광 약자다.활동내용은 관광 약자가 접근할 수 있는 제주 여행지를 방문해 여행지에 대한 취재 및 글쓰기, 접근성 모니터링 등으로 원활한 활동을 돕기 위해 동행취재 등의 지원과 소정의 활동비도 지급된다.자세한 내용은 관광약자접근성안내센터 홈페이지(easyjeju.net) 및 페이스북(http://www.facebook.com/jtica15664669), 콜센터(1566-4669) 등을 통해 문의하면 된다. 양경익 기자 양경익 기자 yki@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>확진환자 없는 제주도…관광 다시 살아나나? 본문 바로가기 메뉴 바로가기 뉴스데스크 박주연 확진환자 없는 제주도…관광 다시 살아나나? 확진환자 없는 제주도…관광 다시 살아나나? 입력 2020-02-15 20:34 | 수정 2020-02-15 20:34 가 가 가 해당 기사를 북마크했습니다. 확인 내 북마크 보기 페이스북 트위터 카카오 스토리 카카오톡 밴드 링크 복사 본문 복사 레이어 닫기 Previous Next 전체재생 상세 기사보기 재생목록 연속재생 닫기 ◀ 앵커 ▶ 제주도에는 발써 봄꽃이 피었습니다. 매화, 유채, 철쭉 등 제주 곳곳에 꽃물결이 일렁이고 있는데요. 코로나19 확진 환자도 발생하지 않으면서, 주춤했던 제주 관광객 수가 조금씩 살아날 기미를 보이고 있습니다. 박주연 기자입니다. ◀ 리포트 ▶ 파란 하늘 아래 노란 물감을 풀어놓은 듯, 꽃물결이 일렁입니다. 한낮의 따사로운 햇살에 봄꽃의 빛깔이 눈부시고, 진한 꽃내음에 봄의 한복판에 온 듯한 착각이 듭니다. 혹시나 하는 불안감에 망설이다 제주를 찾은 여행객들은, 뜻밖에 만난 봄의 광경에 근심은 저만치 사라집니다. [배세찬·김우재·이태용/서울시] "'코로나 19' 때문에 걱정을 많이 했다가 제주는 청정지역이라고 해서 여행 왔는데… 꽃도 예쁘고 날씨도 좋고 그래서 제주도 오길 잘한 거 같아요." 봄의 전령사인 매화는 일찌감치 꽃망울을 터뜨렸습니다. 겨울을 이겨낸 가지에는 새하얀 꽃들이 청아한 자태를 뽐냅니다. [박선희/경기도 일산동구] "파릇파릇 새싹이 돋아나고 꽃들을 볼 수 있어서 정말 기분이 좋고, 코로나 때문에 집에만 있다가 제주에 와서 맑은 공기도 마시고 맑은 하늘도 보고 정말 좋아요." 비자 없이 들어오는 '무사증 제도'가 일시 중지됐고, 제주에서 확진자가 한명도 발생하지 않으면서 여행 취소 문의도 크게 줄고 있습니다. 다음달로 예정된 들불 축제도 예정대로 열릴 예정이고, 백록담을 오를 때 미리 예약을 해야했던 한라산 탐방예약제도 일시적으로 중단돼 관련 업계는 관광객 유치에 도움이 될 걸로 기대하고 있습니다. [고성언/여행사 영업부서장] "예약 취소를 고려했던 분들이 제주의 청정 이미지가 있어서 조금씩 제주로 오시겠다는 분들이 늘고 있고요. 점차적으로 예약문의가 증가하고 있는 추세입니다." 코로나19 사태가 진정세로 접어든 가운데 봄꽃이 흐드러지게 핀 제주는 본격적인 봄관광에 나설 채비를 하고 있습니다. MBC뉴스 박주연입니다. (영상취재 : 손세호(제주)) #제주도 #코로나19 #관광 #봄꽃 #들불축제 #지역M 가 가 가 해당 기사를 북마크했습니다. 확인 내 북마크 보기 페이스북 트위터 카카오 스토리 카카오톡 밴드 링크 복사 본문 복사 레이어 닫기 이 기사 어땠나요? 좋아요 훌륭해요 슬퍼요 화나요 후속요청 당신의 의견을 남겨주세요 0/300 등록 최신순 공감순 반대순 더보기 이시각 주요뉴스 많이 본 뉴스 MBC 포털 SNS 유튜브 분야별 추천 뉴스 관련 뉴스 인기 키워드 취재플러스 14F 엠빅뉴스</t>
+  </si>
+  <si>
+    <t>코로나19, 제주관광 직격탄…제주도, 5700억원 긴급 수혈 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 코로나19, 제주관광 직격탄…제주도, 5700억원 긴급 수혈 파이낸셜뉴스입력 2020.02.13 12:37수정 2020.02.13 13:45 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 관광진흥기금 활용…사드사태 때보다 2배 이상 지원 확대 제주도는 13일 코로나19 확산 우려로 침체된 제주경제에 활력을 불어넣기 위한 ‘범도민 위기극복 협의체’ 출범식을 가졌다. [제주=좌승훈 기자] 제주특별자치도가 중국발 코로나19(우한폐렴) 확산 우려로 위축된 관광업계에 총 5700억원에 달하는 관광진흥기금을 특별 지원한다고 13일 밝혔다. 이번 지원은 2015년 메르스(중동호흡기증후군·특별융자 1300억원)나 2017년 사드(고고도미사일방어체계, 특별융자 300억원·상환유예 2280억원) 사태 때와 비교할 두 배 이상 확대된 것이다. 특별융자 지원금 중 3000억원은 신규 융자 형태로 지원하며, 2700억원은 기 융자업체에 대한 상환유예 방식으로 지원된다. 또 이중 2000억원은 34개 전 업종을 대상으로 경영상 어려움을 극복하기 위한 경영안정자금 용도로 지원된다. 이는 기존 대출 유무에 관계없이 융자한도를 20% 확대한 금액으로 지원되면, 이자율도 금융기관과 협의해 추가 인하할 계획이다. 아울러 1000억원은 시설자금으로 쓰인다. 이 역시 기존의 대출과 상관없이 신규 지원으로 진행된다. 시설자금은 26개 업종에 대한 시설 개보수와 공연장·유어장 등 테마시설에 대한 건설·증설 용도로 지원한다. 다만, 숙박시설 등 과잉시설은 제외된다. 나머지 2700억원 규모의 자금은 융자상환기간 연장을 위해 투입된다. 과거 융자금을 지원받고 상환중인 전체 업체(1139건)에 대해 조건 없이 1년간 상환을 연장함으로써, 코로나19 여파로 경영난을 겪고 있는 관광사업체에게 실질적인 도움이 될 수 있을 것으로 도는 기대하고 있다. 도는 이 같은 내용을 담은 '제주관광진흥기금 특별융자 및 상환유예 지원계획'을 오는 17일 도청 홈페이지에 공고하고, 20일부터 5월18일까지 3개월간 수시로 접수한다. 아울러 신속한 행정 처리를 위해 제주관광공사·제주도관광협회와 함께 제주웰컴센터 내에 '제주관광진흥기금 특별지원센터'를 설치하고, 직원 5명을 상주시키기로 했다. 이에 따라 종래 행정시나 관광협회를 경유해 접수를 하거나, 신청기간이 짧아 접수 후 검토 대상자를 선정했던 애로사항들도 일시에 해결될 것으로 전망하고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광 활성화 위해 한라산 탐방예약제 ‘유보’ - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 관광 활성화 위해 한라산 탐방예약제 ‘유보’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 관광 활성화 위해 한라산 탐방예약제 ‘유보’ 고경호 기자 승인 2020.02.12 11:17 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주일보 자료사진 신종 코로나바이러스 감염증(이하 신종 코로나) 사태로 직격탄을 맞은 제주 관광업계의 요구에 따라 제주특별자치도가 한라산 탐방예약제를 유보했다. 또 범도민 위기극복 협의체(이하 범도민 협의체)가 13일 출범을 앞두고 각 분과별 첫 회의를 개최했다. 제주특별자치도 재난안전대책본부는 12일 제주도청 기자실에서 ‘13차 신종 코로나 합동 브리핑’을 열고 관광객 유치를 위한 방안으로 한라산 탐방예약제를 한시적으로 유보한다고 밝혔다. 제주도는 신종 코로나에 따른 불안이 관광 기피와 소비 위축으로 이어지면서 지역경제의 위기가 심화됨에 따라 내국인 관광객을 제주에 유치하기 위해 한라산 탐방예약제 시범운영을 일시 중단키로 결정했다. 이에 따라 제주도 세계유산본부는 13일부터 신종 코로나 사태가 진정될 때까지 한라산 탐방예약제 시범운행을 중단한다. 제주도는 유보 기간을 활용해 한라산 탐방예약제 시범 운행 시행 이후 확인된 문제들을 보완할 예정이다. 예약 후 탐방하지 않는 일명 ‘노쇼’(예약 부도자) 행위에 대해 페널티를 부여하는 방안과 노쇼로 인해 피해를 입는 탐방객이 없도록 시간대별 탐방예약제를 도입하는 방안 등이 검토 사항에 포함됐다. 신종 코로나 사태를 극복하기 위한 범도민 협의체는 지난 10~11일 양일간 7개 분과별 첫 회의를 개최했다. 각 분과는 지역경제 위기 극복 등 범도민 협의체의 운영 목표를 공유하고 구체적인 활동 계획을 논의했으며, 분과별 협의회장도 선출했다. 세부적으로는 경제 협력 분과의 경우 소상공인과 중소기업, 수출통상, 일자리, 미래 산업 분야의 피해 극복에 집중할 예정이며, 관광산업 협력 분과는 역량 결집을 위한 행동 과제를 우선 발굴키로 했다. 건설경기 활성화 협력 분과는 부동산 경기 둔화와 미분양 주택 증가 등으로 인한 침체가 지속됨에 따라 건설 분야 신속 발주와 조기 집행, 제도 개선, 도시재생사업 조기 추진 등을 위한 방안을 모색키로 결정했다. 또 1차 산업 협력 분과는 자체 제도개선과 중장기 과제, 정부 건의 사항 등을 논의하는 한편 소비 위축에 대한 대응책 마련에 주력할 예정이다. 지역사회 협력 분과는 범도민 소비촉진 붐을 조성할 예정이며, 사회복지 협력 분과는 혼자사는 노인과 1인 가구 등 신종 코로나에 대한 정보 접근과 감염 우려가 높은 계층을 보호하기 위한 실행 계획을 마련키로 했다. 다음은 각 분과별 협의회장 명단. ▲경제 협력 분과 안귀환 제주경영자총협회장 ▲관광산업 협력 분과 부동석 제주도관광협회장 ▲건설경기 활성화 협력 분과 장태범 대한건설협회 제주도회장 ▲1차산업 협력 분과 강수길 농업인단체협의회장 ▲지역사회 협력 분과 전문수 제주도새마을회장 ▲사회복지 협력 분과 고승화 제주도사회복지협의회장. 고경호 기자  kkh@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 고경호 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>신종코로나 여파에 제주도 관광객 '반토막'…지역경제 위기 본문 바로가기 신종코로나 여파에 제주도 관광객 '반토막'…지역경제 위기 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 사회 신종코로나 여파에 제주도 관광객 '반토막'…지역경제 위기 기사입력 2020-02-12 09:32 l 최종수정 2020-02-19 10:05 신종 코로나바이러스 감염증(신종코로나) 여파로 제주를 찾는 관광객이 반토막 나는 등 제주지역 경제가 심각한 위기에 처했습니다. 제주관광협회에 따르면 지난 1일부터 열흘간 제주를 찾은 관광객은 모두 20만7천343명으로 이중 내국인 관광객은 19만3천38명, 외국인 관광객은 1만4천305명입니다. 지난해 같은 기간 제주 입도 관광객(39만2천363명)과 비교할 때 47.2％(18만5천20명) 줄어든 수치입니다. 내국인 관광객은 45.0％, 외국인 관광객은 무사증 입국 일시 중단 조치가 더해지면서 65.2％ 감소했습니다. 신종코로나 위기가 확산하기 직전인 지난달 같은 기간(1월 1∼10일, 42만23명)과 비교하더라도 관광객은 50.6％나 줄어들었습니다. 그야말로 반토막이 난 상황입니다. 지난 설 연휴 직후부터 서서히 관광객 감소 조짐이 보이더니 제주를 관광한 뒤 귀국한 중국인 여성의 신종코로나 확진 판정 사실이 알려진 지난 1일 이후부터 본격화됐습니다. 관광객 감소는 그대로 제주경제의 주축이 되는 관광업계에 영향을 미쳤습니다. 제주를 찾는 관광객이 반토막 나면서 도내 한 대형렌터카의 경우 예약 취소가 평소의 2∼3배에 달해 매출이 50％ 이상 급감, 사실상 적자로 돌아섰습니다. 호텔 예약률은 물론 제주시티투어 버스 이용객도, 골프장 이용객도 이전에 비해 50％ 이상 줄었습니다. 전국 최고 매출을 보이던 제주동문시장 야시장도 신종코로나 사태 이전 만큼의 호황을 기대하지 못하고 있습니다. 상황이 이러다 보니 단돈 3천 원짜리 김포발 제주행 항공권까지 등장했습니다. 항공사들은 적자폭을 줄이기 위해 김포-제주 노선은 물론 제주와 국내 다른 지역을 잇는 모든 항공편에 대해 30∼50％ 감편 운항하고 있습니다. 심각한 경영 위기에 직면한 항공사와 호텔, 관광업체 등을 중심으로 무급휴직을 시행하고 있고, 일부는 임시 휴업도 검토하고 있습니다. 항공업계 관계자는 "신종코로나 사태가 극에 달하면서 2월까지 가족여행 자체가 없어졌다. 3월에는 초·중·고등학교가 정상적으로 개학해 사실상 관광비수기에 접어들어 업친데 덮친격이 된다"다고 말했습니다. 또 다른 관광업계 관계자는 "업체들마다 '이러다 죽겠다'고 아우성"이라며 "제주의 경우 확진자가 단 한명도 발생하지 않은 신종 코로나바이러스 청정지역이다. 부디 너무 과도한 우려는 접어달라"고 당부했습니다. [MBN 온라인뉴스팀] Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 화제 뉴스 '우울증·생활고에'…경남에서 초등생 자녀 살해 후 극단 선택 잇따라 김재원 "윤 대통령, 한동훈 아주 애정어린 눈으로 지켜보지 않을까" 정진석 "조선, 안에서 썩어 문드러져"…민주 "식민사관 언어" 직장인 올해 남은 '대체 휴일'은? 신혜성, 음주운전 인정…"본인 차 아닌지 몰랐다" '우영우 팽나무', 천연기념물 지정…명예 이장에 배우 정규수 위촉 오늘의 이슈픽 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 항공권 단돈 '3000원'...그래도 관광객은 '뚝'↓ - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 항공권 단돈 '3000원'...그래도 관광객은 '뚝'↓ 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도 항공권 단돈 '3000원'...그래도 관광객은 '뚝'↓ 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.02.11 00:05 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 신종 코로나 여파 제주도 입도 내국인관광객 '반토막'외국인 시장은 '개점휴업'...고육지책 사상 초저가 항공권 등장 신종 코로나바이러스 사태로 매우 한산한 분위기가 연출되는 제주국제공항 여객 청사 도착대합실. ⓒ헤드라인제주 신종 코로나바이러스 감염증(우한 폐렴) 사태가 확산되면서 제주도 관광산업이  사상 최대 위기를 맞고 있는 가운데, 관광객이 급격히 감소한 현실을 반영하듯 단돈 3000원의 제주행 항공권이 등장했다. 이번 주 한 저비용항공사에서 내놓은 김포 출발 제주행 항공권의 최저가는 '3000원'을 기록했다. 지난 주 주중 2500원, 주말 4000원에 이은 사상 최저의 초특가다. 10일과 11일 출발하는 노선은 3500원, 수요일인 12일 출발 노선에서는 3000원, 현재 3000원 판매 항공편은 매진됐으나 3500원 판매 좌석은 여유가 있는 상황이다. 다른 시간대의 항공요금은 이 보다는 조금 비싼 편이나 대부분 6500원선으로 1만원을 넘지 못하고 있다. 이번 주 주말요금도 7900원에 판매되고 있다. 다음 주 주중에도 3500원의 초저가 판매는 이어질 것으로 보인다. 시내 택시요금보다도 싼 이러한 초특가 판매는 신종 코로나바이러스 여파로 관광객 발길이 뚝 끊긴데 따른 고육지책으로 나온 것이다. 외국인 시장은 이미 초토화됐고, 국내에서도 확진환자 증가로 불안감이 크게 확산되면서 내국인들의 제주여행 취소.포기도 급증하면서, 상당수 항공기들이 좌석이 텅빈채 운항되는 것으로 나타났다. 10일 제주특별자치도에 따르면, '무사증 입국'이 중단된 지난 4일 이후 제주도를 방문한 중국인은 942명에 불과했다. 이는 지난해 같은기간 1만5642명이 입도했던 것과 비교하면 무려 94.0% 감소한 수치다. 불과 20일 전인 지난달 21일만 하더라도 24편에 탑승률 86%(탑승자 3697명)에 달했던 것과는 크게 대조적이다. 예년의 10%도 안되는 이 입도객들은 대부분 취업이나 유학 비자를 발급받은 중국인들로, 관광목적의 입도객은 거의 없는 것으로 파악됐다. 제주를 기점으로 한 국제선은 말 그대로 '개점 휴업' 상태다. 내국인 시장도 급격히 무너지고 있다. 신종 코러나바이러스 확산 차단을 위해 여행 자제 붐 등이 일면서 지난 4일부터 9일까지 제주도를 방문한 내국인은 10만9350명으로 집계됐다. 지난해 같은기간 20만2173명이던 것과 비교하면 45.9% 감소한 것이다. 예년에는 하루 4만명이 넘는 관광객이 제주를 방문했으나 지금은 절반인 2만명에도 미치지 못하고 있다. 한 항공사의 제주-김포노선 2월 실시간 항공권 최저가 판매현황. &lt;10일 밤 10시 현재 상황&gt; 제주도 관광객 입도현황(10일 기준). &lt;자료=제주특별자치도&gt; 때문에 국제선의 운항 중단에 이어, 국내선의 항공기 탑승률도 예년도 절반 이하 수준으로 하락한 것으로 나타났다. 한편, 제주특별자치도는  최근 제주도의회에 현안보고를 통해 신종 코로나 사태가 오는 6월까지 지속할 경우 최대 350만명에 달하는 관광객이 감소할 것으로 예측된다고 밝혔다. 관광객 감소에 따른 피해 금액은 1조 5,000억원으로 이를 것으로 전망했다.   &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 제주인 2020-02-11 11:10:21 | 58.***.***.179 더보기 삭제하기 수정하기 관광객 무시하지마라 거지꽅 못변한다 한치앞도 못보는 의회 의원들과 데모꾼들을 빨리 없애야 제주가발전한다 다른도시들은 출렁다리 케이불카로 관광객잡기난리인데 오지말라고 한심한 인간들 굶게생겼다 답글쓰기 4 7 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 오현단에 문화관광해설사 배치…원도심 투어도 운영 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 오현단에 문화관광해설사 배치…원도심 투어도 운영 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 문화 일반 제주도, 오현단에 문화관광해설사 배치…원도심 투어도 운영 현대성 기자 승인 2020.02.10 17:58 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도 세계유산본부는 제주도 기념물 제1호 ‘오현단’에 문화관광해설사를 배치하고, 1일 1회 제주시 원도심 투어를 오는 12월 중순까지 운영한다고 10일 밝혔다. 제주도 세계유산본부는 1일 3회(오전 10시30분, 오후 1시30분, 오후 4시) 오현단 해설 프로그램을 정기 운영한다. 오현단 문화관광해설사는 오현(五賢)에 얽힌 다채로운 이야기와 오현단 내 자리한 귤림서원, 장수당, 항현사 등의 전통 건축물과 관련된 이야기를 관람객들에게 풀어낼 예정이다. 제주도 세계유산본부는 또 매일 오후 2시 선착순 15명을 대상으로 관광해설사와 함께하는 ‘제주시 원도심 투어’를 마련해 원도심 곳곳에 숨겨진 역사 유적과 추억의 장소를 거닐며 제주의 역사와 문화의 가치를 되새겨 볼 수 있는 기회를 제공한다. 고순향 제주도 세계유산본부장은 “원도심 투어 운영이 침체돼 있던 원도심에 새로운 활력을 불어 넣어 줄 것으로 기대하고 있다”고 말했다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 코로나 늦장 대응에...관광·경제 ‘초토화’ &lt; 제주특별자치도의회 소식 &lt; 정치일반 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도 코로나 늦장 대응에...관광·경제 ‘초토화’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 정치일반 제주특별자치도의회 소식 제주도 코로나 늦장 대응에...관광·경제 ‘초토화’ 기자명 진순현 기자 입력 2020.02.07 13:48 댓글 1 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 코로사 사태 장기화 우려...지역화폐 도입 검토할 시기 더불어민주당 문경운 의원제주도가 신종 코로나바이러스 사태에 늦장대응을 했다는 지적이 일었다.자칫 신종 코로나바이러스 사태가 장기화될 경우 제주경제 손해는 최대 수조 원에 이를 수 있다는 전망이다. 따라서 내수경기를 살리기 위한 방편으로 제주지역화폐 도입을 검토할 시기가 왔다는 주장이 나왔다.제주도의회 농수축경제위원회(위원장 고용호)은 7일 제379회 임시회 폐회 중 회의를 열고 제주도 일자리경제국 등을 대상으로 ‘신종 코로나바이러스 감염증 대응 대책’ 현안업무 보고를 받았다.더불어민주당 문경운 의원(비례대표)은 “제주도가 신종 코로나바이러스 대응에 한박자 늦었다. 예전 사스, 메르스 등을 경험치가 있는 데도 최초 대응에 우왕좌왕 하는 바람에 그 피해는 고스란히 제주도민의 몫이 되고 있다”며 “코로나가 창궐한 지난달 25일부터 지난 4일까지 중국인 관광객은 전년보다 무려 47%가 감소했다”고 예를 들었다. 그러면서 “신종 코로나바이러스 사태 대응 매뉴얼을 재정립할 필요가 있다”며 “앞으로 백서로 남겨 반성도 하고, 제도적 개선을 위해 기록도 남겨야 한다”고 지적했다. 답변에 나선 손영준 일자리경제국장은 “앞으로 어려움에 처한 중소기업과 소상공인 등에게 특별경영자금을 투입, 상생해 나가겠다. 그리고 백서를 남기는 부분도 강구하겠다”고 답했다.문 의원은 “이번 코로나 사태는 제주경제의 큰 악재이자 위기다. 관광객이 많이 찾는 연동의 경우 인건비 부담 때문에 가게 문을 닫거나, 모호텔은 아예 무급휴가를 줘 사실상 폐업수준으로 치닫고 있다”며 “이럴 경우 실업자가 발생하는 데 실업자 구제 대책이 있어야 하지 않느냐”고 물었다.손영준 제주도 일자리통상국장이에 대해 손 국장은 “(일자리 창출을 위해) 지금의 제조업비율 4%를 7% 올릴 수 있는 방안에 대해 과제를 시행하고 있다”고 말했다.그러자 문 의원은 “뜬구름 잡는 대책 말고, 도민들이 피부로 느낄 수 있는 걸 하라”며 “당장 단기 재정일자리 확보를 만들어야 하는 것, 아니냐”고 목소리를 높였다.문 의원은 “지난해 제주도민 일자리 통계자료를 보면 제주지역 서비스업 종사자가 전년 73%에서 3% 상승한 76%다. 지나치게 관광에 의존한 서비스업 비중인 큰 셈이다. 이번 기회에 제주경제 구조를 바꿔야 한다”며 “그렇다면 내수경제를 살려야 한다. 도내 돈이 돌아야 한다. 제주지역화폐 도입을 검토할 시기가 되지 않았느냐”고 제안했다.이에 손 국장은 “대신 상품권을 발행하고 있다. 전통시장에서 골목상권으로 늘렸고, 최근에는 요식업으로 확대키 위해 협의 중”이라며 “제주지역은 섬이라는 특성상 지역화폐 의미보다 상품권이 맞다”고 반론했다.문 의원은 “(신종 코로나바이러스) 사태가 빨리 진정된다해도 2개월까지 갈 것이란 말이 있다. 불안심리를 진정시키는 게 중요한다. 결국 소상공인의 불안심리를 없애주는 건 돈을 풀어주는 것“이라며 ”이에 따른 대책은 무엇이냐“고 캐물었다.손 국장은 “앞서 밝힌바와 같이 중소기업과 소상공인에 당초 코로나 사태 이전 융자 7000억원을 지원하는 것에 추가로 특별경영안정자금 2000억원을 41개 업종에 업체당 최대 1억원까지 기존 대출유무와 관계없이 별도로 지원한다”며 “이에 따른 이자는 3.5%이나 행정에서 2.5% 이상을 보전해주면 실질적으로 소상공인이 부담하는 이자는 1.0% 미만이 된다”고 밝혔다. 그리고 “신용등급이 안 좋은 기업에 대해서는 신용보증재단에서 1000억원의 특별보증으로 소상공인경영안정자금으로 소진할 계획”이라고 설명했다.문 의원은 “그렇다면 최근 대출이 만기된 소상공인은 어떻게 되는 것이냐”고 캐물었다. 손 국장은 “만기 2~3차례는 연기토록 했다”고 답했고, 문 의원은 “만기 연기 신청세는 전화신청만으로 할 수 있도록 편리를 봐 달라”고 주문했다.그러면서 문 의원은 “반면 신종 코로나바이러스 이후 온라인 매출은 늘고 있다. 경제통상진흥원은 이제주몰을 활성화해 제주상품 매출이 늘어날 수 있도록 강구해 달라”고 당부했다. 진순현 기자 jinjin3808 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 1 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 댓글목록 최신순 추천순 욕설, 타인비방 등의 게시물은 예고 없이 삭제 될 수 있습니다. 양봉 2020-02-11 12:09:34 더보기 삭제하기 문의원~~~톡 까놓고 이 시국에 중국인 관광객이 증가하면 좋겠는가??? 대부분의 도민들은 아예 안들어왔음 하는데,,,자영업자들은 장사가 안되는게 맞는데 코로나 확진자 생기면 더 망하는 길이오,,, 답글쓰기 4 3 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도내 관광업계 “재정지원 해달라” 촉구 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도내 관광업계 “재정지원 해달라” 촉구 김형훈 기자 승인 2020.02.05 15:46 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 신종 코로나바이러스 감염증 확산으로 제주도내 관광산업이 타격을 보고 있다. 이에 따라 도내 관광업계가 정부에 특별지원 대책 마련을 촉구했다. 제주관광공사와 제주도관광협회는 5일 “외국인 관광객뿐만 아니라 내국인 관광객마저 급감하고 있고 도내 각종 대규모 축제, 행사들이 기약 없이 연이어 취소되는 등 메르스 때보다 피해가 매우 크다”고 심각성을 강조했다. 업계는 또 “제주경제를 이끌어가고 있는 관광산업이 무너지면 제주경제 전체가 흔들릴 수 있다”며 “관광업계를 비롯한 도내 기업 피해 지원을 위한 관광진흥기금 조기 지원과 관광진흥기금 상환 및 세금납부 유예, 업계 휴업에 따른 지원 등 재정지원을 해줄 것”을 건의했다. 아울러 “정부에서 지원하고 있는 각종 예산을 제주지역에 특별지원해 주길 바란다”고 정부에 강력히 주문하기도 했다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 관련기사 제주 9일 오전 현재 신종 코로나 ‘확진·격리’ 0명 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>사라진 제주도 유커… 관광업계 직격탄 [신종 코로나 비상] | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 사라진 제주도 유커… 관광업계 직격탄 [신종 코로나 비상] , 신종 코로나 바이러스 입력 : 2020-02-04 23:00:00 수정 : 2020-02-04 22:54:03 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 중국發 항공기 6대 승객 100명 안돼 / 평소엔 하루 2000명 방문 대조적 / 내국인 관광객도 2019년比 반토막 신종 코로나바이러스 감염 공포가 확산하는 가운데 3일 오전 제주국제공항 출국장에서 중국 상하이로 가는 항공기의 승객들이 마스크를 쓴 채 수속을 기다리고 있다. 연합뉴스 제주도에 유커(중국인 관광객)가 사라졌다. 신종 코로나바이러스 감염증(우한 폐렴) 확산 불안감으로 4일 무사증 입국제도가 중단되는 사상 초유의 상태를 맞은 제주국제공항은 썰렁했다. 제주 관광을 온 중국인 관광객들로 발 디딜 틈 없이 붐비던 모습은 찾아보기 힘들 정도로 우한 폐렴의 여파가 현실로 나타났다. 이날 오전 10시5분 상하이 푸둥발 제주행 항공기는 승객 4명만 태우고 도착했다. 이마저도 한국 국적으로 알려졌다. 이날 오후 9시35분 도착한 길상항공과 상하이, 난징, 베이징발 제주행 항공기 등 6대에 오른 승객은 100명에 못미쳤다. 평소 직항편으로 하루 2000명가량 중국인이 제주를 방문했던 것과 대조를 이룬다. 이날 제주에 도착하는 중국발 비행기는 제주∼중국 18개 직항 노선 대부분이 중단·감축 운영되면서 크게 줄었다. 4일 제주시에 위치한 브릭 박물관인 브릭캠퍼스에서 직원들이 신종 코로나바이러스 감염을 막기 위한 방역작업을 하고 있다. 제주=연합뉴스 제주관광공사에 따르면 오는 3월 28일까지 주 단위로 운항하는 149편 중 121편(81.2%)이 중단·감축 운영된다. 내국인마저 제주도 관광을 꺼리면서 제주관광업계가 최악의 상황으로 치닫고 있다. 3일 제주를 방문한 내국인 관광객은 1만9209명으로 지난해 같은 날짜 3만9827명에 비해 51.8%나 감소했다. 우한 폐렴 여파와 무사증 일시 중단 조치로 숙박·여행업, 관광지, 카지노, 음식점 등 관광 업계의 도미노 피해는 불가피할 것으로 보인다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20200204515433 0101080100000 0 2020-02-04 23:0:0 2020-02-04 22:54:3 0 사라진 제주도 유커… 관광업계 직격탄 [신종 코로나 비상] 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도, 중국 관광객 A씨 역학조사 '총력' &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 투비소프트 상승, 투비디티엑스-키월드 MOA 체결 [특징주] 대화제약 주가 하락 '요오드 관련주 수혜 끝났나' [급등주] 켐온, 코아스템과 흡수합병 진행 '27%↑' [특징주] 나노씨엠에스 주가 급등 '바이러스 사멸램프 성능 소개' [특징주] 해성산업 주가 상승 '계양전기 투자부문 분할흡수합병' [급등주] SCI평가정보 상승, 한은 두 번째 빅스텝 전망 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' 2022-10-11 14:38 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 중국 관광객 A씨 역학조사 '총력' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 중국 관광객 A씨 역학조사 '총력' 기자명 김승환 기자 입력 2020.02.03 14:04 수정 2020.02.03 14:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 자가 격리 9명, 능동감시 3명 추가… 빅데이터 기반 방역대책 수립 (제주=국제뉴스) 김승환 기자 = 제주특별자치도는 제주를 거쳐 중국으로 귀국한 후 신종 코로나바이러스 감염증 확진 판정을 받은 중국인 관광객 A씨가 옷가게와 편의점을 추가로 들른 것을 확인하고 집중 관찰 대상자들을 격리 조치하는 등 후속 조치에 총력을 기울이고 있다고 3일 밝혔다.도는 지난 1일부터 중국인 관광객 A씨와 동행한 딸의 진술을 토대로 지난달 21일부터 25일까지 1차적인 동선을 파악한 뒤, 일자별 상세 이동에 대해 신용카드 이용 내역·CCTV 분석·현장 방문 조사 등을 병행한 결과 24일의 주요 동선을 확정했다.현재까지 확인된 조사에 따르면 25일에는 숙소에서 시내버스를 이용해 공항으로 간 뒤 귀국한 것으로 파악됐으며, 지난 24일 저녁에는 제주시 연동 누웨마루거리 소재 옷가게에서 옷을 구입하고 근처 편의점으로 이동해 제주 기념품과 먹거리를 구입한 것으로 밝혀졌다.특히 약국을 방문해 해열제를 구입한 것으로 알려졌지만 역학조사관이 약사와 면담하고 현장 CCTV를 분석한 결과 "A씨가 약국에서 휴대폰 사진을 보여주며 기력회복제와 해열진통제를 구입했지만, 당시 A씨가 증상이 전혀 없었으며 제3자의 약을 사주려고 온 것"이라고 추가로 밝혔다.도는 24일 A씨가 약국 방문 후에도 도보로 여행한 상세 동선 등을 봤을 때 제주에서는 증상이 없었던 것으로 추정한다고 설명했다.더불어 24일 오전 1100고지에서 240번 버스를 타고 이동했지만 버스 내 CCTV를 통해 버스기사 외 다른 승객과의 접촉이 없었던 것으로 확인됐다.25일에도 숙소에서 버스를 타고 공항으로 이동했지만, 기사는 마스크를 착용했고 함께 탄 승객은 없었지만 도는 해당 버스기사를 자가 격리 조치했다.도는 24일 확인된 동선에 따라 숙소 직원 5명에 이어 버스 운전기사 1명, 옷가게에서 계산을 담당했던 점원 1명, 편의점 종사자 2명 등 9명을 자가 격리 조치했다.또한 옷가게와 편의점 점주, 버스기사를 능동 감시 대상자로 분리하고, 관할 보건소를 통해 1대1 관리에 돌입했다. 특히 중국인 관광객 A씨가 신종 코로나바이러스 최초 발생지인 중국 우한 출신인 것으로 밝혀짐에 따라 동선 분석에 총력을 기울이는 중이며 앞으로 22일과 23일의 상세 동선이 확보되는 대로 도민들에게 공개할 방침이다.A씨의 딸의 진술을 통해 후베이성 여권사진을 확보하고 우한 출신임을 확인했으며, 우한에서 양저우까지는 기차로, 양저우에서 제주는 춘추항공 직항편으로 이동한 것을 확인했다.또한 중국인 A씨의 제주여행 일정을 고려할 때 2월 4일부터 단계적으로 잠복기가 종료되기 때문에 시급한 방역조치가 필요한 동선을 역순으로 역학 조사를 진행하고, 격리조치 등을 신속히 추진할 계획이다.역학 조사는 증상 발현일로부터 가까운 일자별로 조사가 진행됨에 따라 도 보건건강위생과내 역학조사관을 중심으로 3개팀을 구성해 분석하고 있다.이중환 재난안전대책본부 총괄조정관은 "신종 코로나 바이러스 감염증을 예방하기 위해서는 평소 올바른 손 씻기와 마스크 착용을 생활화하는 등 도민의 위생 수칙 준수가 절실한 시점"이라며 청정 제주를 지키기 위한 협조를 당부했다.한편 도는 도내 유동인구가 많은 지역에 대한 현황 정보를 파악해 감염병 예방 시 최적 대응을 위한 빅데이터 지도를 제작하고, 데이터에 기반한 방역 대책을 추진할 방침이다.이는 제주 빅데이터 플랫폼에서 수집한 통신사 데이터와 공공 와이파이 데이터를 활용해 유동인구 빈도를 시각화함으로써 방역의 우선순위를 결정하고 신속한 감염병 예방 전략을 수립하기 위해 제작됐다.도는 이 자료에 근거해 동지역 다중집합장소 300개소에 대해 살균 소독 등 장소별 맞춤 방역 소독을 실시할 계획이다. 김승환 기자 qjqantk0603@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 발언하는 이재명 더불어민주당 대표 최신뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 포토뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 신종코로나 확진 판정 받은 中 관광객 주요 동선 공개 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:49 (화) 실시간 뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 [속보] 경기남부경찰청 "화성서 윤숙자 씨 실종, 민트색스카프·갈색바지" HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 신종코로나 확진 판정 받은 中 관광객 주요 동선 공개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 신종코로나 확진 판정 받은 中 관광객 주요 동선 공개 기자명 김연화 기자 입력 2020.02.03 15:23 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 - 도내 유증상자 12명, 모두 음성… 2일 17시 기준 추가 유증상자 없어 - 자가 격리중인 집중 관찰 대상자 5人 건강 이상 없음… 상세 동선 역 추적중 제주특별자치도청사 전경 [시사매거진/제주=김연화 기자] 제주특별자치도는 도내 신종 코로나바이러스 감염증 유증상자는 2월 2일 17시 기준 12명으로 진단 결과 모두 음성이며, 금일 추가로 발생한 유증상자는 없다고 밝혔다. 또한 제주 여행을 하고 귀국한 뒤 발열 증세와 신종 코로나바이러스 감염 확진 판정을 받은 중국인 관광객 A와 관련해, 자가 격리중인 집중 관찰 대상자 5명을 모니터링 한 결과 이상이 없음을 확인했다. 이와 함께 중국인 관광객 A씨의 모든 동선을 역추적하고 있는 상황으로 4박 5일간의 일정을 모두 확인하는 데는 다소 시일이 소요될 것으로 예상된다고 밝혔다. 도민들의 불안을 최소화하기 위해 확진자 딸과의 통화에서 확보한 정보와 CCTV를 통해 확인한 주요 동선을 다음과 같이 공개한다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 포토뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>‘무사증 입국 일시 중지’ 제주도 관광 직격탄 : 제주 : 전국 : 뉴스 : 한겨레 본문 바로가기 광고 전체메뉴보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 전체메뉴닫기 오피니언 연재 한겨레TV 포토 EN 日本 中文 한겨레21 씨네21 이코노미인사이트 로그인 회원가입 구독신청 한겨레 세상을 바꾸는 벗 후원하기 서비스 메뉴 뉴스레터 감사원 ‘위법감사’ [단독] 감사원, 국민감사본부 만들어 한 일이 ‘KBS 감사’ 뿐 [포토] 감사원 국감 파행…자리 뜨는 김도읍 법사위원장 ‘문자 내통’ 유병호 “송구스럽지만, 그 소통은 정상적인 것” 감사원 국감, 10분 만에 파행…“감사방해!” “착하게 살라” 고성 오가 [단독] “대통령 지원기관”이라는 감사원장, 직원들 해명 요청 거부민주 “‘문자내통’ 캐겠다…이관섭·감사위원 전원 국감 나와야”서해 사건 감사 위법성 논란, 법조계도 “직권남용·강요죄 소지”민주, ‘대감 게이트’ 공세…“권권유착 공수처가 수사하라” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 한겨레S “국가가 정한 말 아니면 틀렸다니” 표준어 없애는 거 어때요? 김정은의 마지막 친서에 등장한 두번의 ‘바보’ 스스로 ‘파묻은’ 윤 대통령, 제발 좀 정치 하는 걸 보고 싶다 ‘피부 안부’ 묻지 마세요…아토피안, 차별·몰이해를 말하다 아름다운 일과 먹고사는 일…감정노동·공짜노동 ‘살아내기’‘환경부=산업부 2중대’ 비아냥 왜?뒤집고 뒤집는 ‘김현숙 여가부’…다음주엔 뭘 뒤집을까울트라스텝, 그게 뭔데? ‘악의 근원’ 고물가를 잡아라 관련 이슈&amp;연재 뉴스AS북 핵실험·미사일 발사멈춰, 직장갑질 성한용의 정치 막전막후 여가부 없애는 정부 ‘일제고사’ 부활 선언…윤 대통령 “원하는 모든 학교 참여” [사설] 고조되는 민생·북핵 위기, 협치로 해법 찾으라 윤 대통령, ‘친일 논란’에 “핵 위협에 어떤 우려 정당화될 수 있나” ‘여가부 폐지’ 여성계 입장 들었다…‘반대 단체’는 빼고 외신들도 비판하는 여가부 폐지…“윤 대통령의 ‘여성 지우기’”윤 대통령 지지율 32%…‘매우 잘못 하고 있다’ 59.6% [리얼미터]‘윤석열차’ 애초 국힘이 시작…‘구둣발’ 부메랑까지 8개월이재명, 여가부 폐지 반대…민주 “이대남 결집, 정쟁 유발 의도” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 책과 생각 비관주의자 김연수의 ‘변심’ “누군가를 기억할 때 바뀐다” 몸은 위태롭다…그래서 변화를 이끌 힘이 있다 나랏말싸미 일본과 다른데…일본어사전 베낀 국어사전, 괜찮나 우리에게 꼭 이름이 필요한가요 허구와 비허구의 교점에서 작가는 무엇을 발견했나당신의 뇌를 읽고 싶다‘균질적 단일언어’ 향해 달려온 우리말 형성사국제정치·외교안보 너머 ‘평화 다원주의’ 관련 이슈&amp;연재 짬황진미의 TV 새로고침정혜윤의 새벽세시 책읽기정인경의 과학 읽기 국민의힘 권력투쟁 ‘성접대 의혹’ 이준석 2차 경찰 조사…증거인멸 교사 조만간 결론 안철수 잡는 김기현, 김기현 때리는 윤상현… 벌써 시작된 당권경쟁 이준석 털어낸 국힘 ‘당권경쟁’…이재명 견제·중도 확장 “내가 적임” 이준석, ‘이순신 출정사’ 언급하며 “탈당 말라”…창당 선긋기 이준석 “누구도 탈당 말라”…이순신 ‘정중여산’ 인용해 첫 입장출마길도 막힐라…이준석 간다는 ‘외롭고 고독한 제 길’은 어디인가하태경 “이준석 윤리위 징계는 정치보복…가처분은 국민 기본권”고립무원 이준석…국힘 윤리위, ‘당원권 정지 1년’ 추가 징계 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 미래&amp;과학 인류가 가장 가까이서 본 유로파, 뒤얽힌 얼음 능선 너머엔… ‘지구방어’ 실험, 160m 소행성 충돌에…5만㎞ 먼지꼬리가 생겼다 지구 감싼 피부는 “사람 피부보다 얇다”…경이로운 3겹의 층 누리호 기술 이전 우선협상 기업은 한화에어로스페이스 야식 먹으면 낮에 더 배고프다…비만 부르는 3중 연결고리재난을 경험한 우리는 다른 사람이 된다, 강제로다음 팬데믹 주인공도 ‘변신의 귀재’ RNA 바이러스다돼지의 심장, 인쇄된 혈관이 장기 부족 해결할 수 있을까? 관련 이슈&amp;연재 곽노필의 미래창김준혁의 의학과 서사전치형 과학의 언저리박상준의 과거창 기후변화 오늘 ‘가을 추위’…모레 5도 “얼음 얼고 서리 내리는” 곳도 32만가구 전기·가스 지원 못 받는다…“윤 대통령 약속과 어긋나” 앞서기는커녕 떠넘기기 ‘환경부=산업부 2중대’ 비아냥 왜? 권성동, 4시간 만에 내놓은 해명 “‘혀 깨물고 죽지’, 내 의지 표현” ‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회”‘원전 안전’ 시정 요구에도 8년째 그대로 왜?‘생태법인’을 아시나요?…제주 남방큰돌고래, 법적 권리 논의 시동‘탈석탄법’ 5만명 입법 청원…“최소 신규 석탄발전 철회” 관련 이슈&amp;연재 아베, 피격 사망숨&amp;결세상읽기편집국에서 광고 본문 광고 전국제주 ‘무사증 입국 일시 중지’ 제주도 관광 직격탄 등록 :2020-02-03 15:07수정 :2020-02-03 20:44 허호준 기자 사진 허호준 기자 구독 구독중 페이스북 트위터 카카오 링크 스크랩 프린트 글씨 키우기 가 가 가 가 가 제주여행 다녀간 중국인 신종 코로나 확진 파장면세점·약국 등 휴업…확진자 접촉 9명 자가격리중국 노선 대부분 중단…내국인 관광객도 감소세 3일 제주시의 한 면세점에 임시휴업 안내문이 내걸린 가운데 중국인 관광객들로 붐비던 주변 거리가 한산한 모습을 보였다. 3일 낮 중국인 관광객들이 자주 찾는 제주시 연동은 회색빛 하늘에 더해 움츠러든 듯했다. 지난주만 해도 마스크를 낀 채 여행용 가방을 들고 이동하거나 가족끼리 다니던 중국인 여행객들은 눈에 띄게 줄었다. 지난달 25일 제주여행을 왔다가 중국으로 돌아간 중국인(52)이 지난달 30일 신종 코로나바이러스 감염증 확진 판명을 받자 제주 관광이 직격탄을 맞고 있다. 정부는 제주도와 협의를 통해 4일 0시부터 중국인 관광객에 대한 ‘무사증 입국 일시 중지’에 들어갔다. 아침 일찍부터 200여m 이상 길게 줄을 선 채 개점을 기다리던 신라면세점과 롯데면세점은 이날 오전 ‘임시휴업 안내문’이 나붙은 채 문이 닫혀 있었다. 면세점 쪽은 “오는 5일까지 일시 휴점에 들어갔지만, 상황에 따라 길어질 수도 있다”고 말했다. 이날 오후 면세점을 찾은 20대 중국인 남성 2명은 휴업안내문을 읽고는 아쉬운 듯 발걸음을 돌렸다. 중국인 관광객으로 붐비던 면세점 주변 편의점과 카페 등도 손님이 보이지 않았다. 면세점 뒤의 한 약국 앞에서는 중국인 4~5명이 마스크를 대량으로 구매하는 모습이 눈에 들어왔다. 중국인 관광객들이 3일 오후 제주시 연동의 한 약국 앞에서 마스크를 대량으로 구매하고 있다. 이날 오전 현재 제주와 중국을 잇는 18개 항공 노선 가운데 15개 노선이 중단됐다. 중국 상하이와 선전, 난징 노선만 부분적으로 줄여 운항에 들어갔다. 올해 들어 지난 2일까지 제주를 찾은 중국인 관광객은 9만5천여명으로 지난해보다 42%나 증가했고, 내국인 관광객도 5.2% 증가했다. 신종 코로나바이러스 감염증이 퍼지기 전이다. 그러나 신종 코로나바이러스 감염증이 확산하면서 급감하기 시작해 1일에는 지난해 같은 기간에 견줘 63%, 2일에는 66.9%나 급감했다. 지난달 21일 이후 중국 직항편의 탑승률은 종전 86.3%에서 44.3%로 크게 떨어졌다. 내국인 관광객도 1일 2만5200여명으로 지난해 같은 기간보다 28%가 줄어든 데 이어 2일에는 41%, 3일에는 45%로 급격하게 줄고 있다. 관광업계 관계자는 “호텔 등의 예약 취소율이 많이 늘어나고 있다. 신종 코로나바이러스 감염증이 퍼지면 제주도 관광산업 전반에 상당한 영향을 미칠 것 같다”고 말했다. 중국인 관광객들이 많이 찾는 제주시 연동 누웨마루 거리가 3일 오후 한산한 모습을 보였다. 도 관계자는 “내일부터 무사증 입국이 전면 중단되기 때문에 제주지역 관광업계에 상당한 어려움이 예상된다. 관계 기관과 업계 회의를 통해 현장 피해 상황을 점검해 각종 지원기금 등 예산 지원 방안을 종합 검토하고 있다”고 말했다. 한편 제주여행을 다녀간 뒤 지난달 30일 중국에서 신종 코로나바이러스 감염증 확진 판정을 받은 중국인(52)은 제주도내 약국에서 휴대폰에 저장된 사진을 보여주며 해열진통제를 구매한 것으로 밝혀졌다. 애초 제주도는 해당 약국 약사와 면담 결과라며 “가지고 있던 약을 보여주었다”고 말한 바 있다. 도는 이날 브리핑을 통해 이 중국인은 지난달 25일에는 숙소에서 시내버스로 공항으로 간 뒤 귀국했으며, 전날인 24일에는 제주시 연동 누웨마루거리의 옷가게에서 옷을 사고 근처 편의점에서 기념품과 먹거리를 산 것으로 밝혀졌다. 도는 이 중국인이 접촉한 9명을 자가격리했다. 배종면 제주도 감염병관리지원단장은 “폐회로텔레비전을 확인한 결과 이 중국인은 제주도에 체류할 때까지는 증상이 없었다고 판단하는 것이 합리적이다”고 말했다. 글·사진 허호준 기자 hojoon@hani.co.kr 이슈코로나19 세계 대유행 ‘코로나 영웅’서 ‘비효율 주범’으로 전락한 공공의료기관 간호사 “12월~3월 사이 코로나 재유행”…새로운 변이도 국내 유입 중국 방역 완화?…탁구대회 이어 다음달 3만명 베이징마라톤 항상 시민과 함께하겠습니다. 한겨레 구독신청 하기 진실을 후원해주세요 용기를 가지고 끈질기게 기사를 쓰겠습니다. 여러분의 후원이 우리 사회에 드리운 어둠을 거둡니다. 후원하기 후원제 소개 두근거리는 미래를 후원해주세요 소외 없이 함께 행복한 세상을 위해 노력하겠습니다. 여러분의 후원이 평등하고 자유로운 사회를 만듭니다. 후원하기 후원제 소개 광고 광고 &gt;Please activate JavaScript for write a comment in LiveRe. 광고 전국 많이 보는 기사 1. ‘일가족 참사’ 화장실 기어간 큰딸만 목숨 건져…경찰, 현장 감식 2. 은행잎만 노랗게 빛나도록 남아라, 열매는 10분 줄테니 가라 3. 김진태 등에 업은 ‘학업성취도평가’…“학원에 선물 주는 것” 4. ‘신영복체 직인’ 폐기한 경기교육청…“훈민정음체가 잘 보여” 5. “토건 집착, 공공의료 뒷전” 대구 시민단체의 홍준표 100일 비판 한겨레와 친구하기 매일 아침, 매주 목요일 낮 뉴스의 홍수에서 당신을 구할 친절한 뉴스레터를 만나보세요 데일리 H:730 구독 위클리 h_weekly 구독 한겨레 공식 인스타그램 Follow @hanitweet 전체기사RSSRSS페이지 목록 한겨레앱 1/ 2/ 3 서비스 전체보기 전체 정치 정치일반 대통령실 국회·정당 행정·자치 국방·북한 외교 정치BAR 사회 사회일반 여성 노동 환경 장애인 인권·복지 의료·건강 미디어 궂긴소식 인사 엔지오 교육 종교 한겨레아카이브 전국 전국일반 제주 호남 영남 충청 강원 수도권 경제 Weconomy 경제일반 금융·증권 산업·재계 자동차 부동산 쇼핑·소비자 IT 직장·취업 중기·스타트업 기업PR 글로벌워치 국제 국제일반 해외토픽 아시아·태평양 미국·중남미 유럽 중국 일본 중동·아프리카 국제기구·회의 국제경제 문화 문화일반 영화·애니 방송·연예 여행·여가 음악·공연·전시 학술 책&amp;생각 제주&amp; 스포츠 스포츠일반 축구·해외리그 야구·MLB 골프 바둑 올림픽 경기일정 경기결과 미래과학 미래 과학 기술 환경 시각 애니멀피플 야생동물 반려동물 농장동물 인간과동물 생태와진화 기후변화&amp; 기후정책 기후행동 기후과학 기후적응 에너지와기후 기후와사회 오피니언 사설 칼럼 왜냐면 포토에세이 옵스큐라 만화 | ESC | 한겨레S | 한겨레 데이터베이스 | 뉴스그래픽 | 연재 | 이슈 | 함께하는교육 | HERI 이슈 | 탐사보도 | 서울&amp; 스페셜 물바람숲 휴심정 미래 창 기찬몸 사진마을 베이비트리 기후이야기 포토 화보 포토스페셜 최신포토뉴스 카드뉴스 한겨레TV 편성표 한겨레TV 소개 알려드립니다 광고·후원 문의 전체 프로그램 뉴스서비스 많이본기사 날짜별한겨레 지난톱기사 디지털초판 RSS서비스 기사제보 기사투고 매거진 한겨레21 씨네21 이코노미인사이트 사업 한겨레휴센터 한겨레테마여행 한겨레패키지여행 회사소개 구독신청 광고안내 채용 기사제보 투고 고충처리 고객센터 face book twitter 사이트 운영 저작권 회원약관 개인정보취급방침 지적재산보호정책 이메일주소 무단수집거부 사이트맵 한겨레 가족 하니누리 한겨레출판 한겨레경제사회연구원 한겨레교육문화센터 한겨레통일문화재단 사람과디지털연구소 한겨레신문 등록번호:서울,아01705 등록일자:2011-7-19 사업자등록번호:105-81-50594 발행인:김현대 편집인:백기철 청소년보호책임자:백기철 주소:서울특별시 마포구 효창목길 6 고객센터:1566-9595 Copyright ⓒ The Hankyoreh. All rights reserved. 뉴스레터, 올해 가장 잘한 일 구독신청 일주일 그만보기 닫기</t>
+  </si>
+  <si>
+    <t>제주도, 4일부터 '무사증 중단'…중국인 관광객 74%↓전망 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 4일부터 '무사증 중단'…중국인 관광객 74%↓전망 등록 2020.02.03 12:26:27 작게 크게 직항 무사증에 '환승 무사증'도 포함 적용 제주국제공항 풍경, 마스크를 쓴 이용객들이 이동하고 있다. [제주=뉴시스] 강정만 기자 = 제주도 무사증 중단 조치가 4일 0시부터 시행된다. 여기에는 직항 무사증뿐 아니라 '환승 무사증'도 포함됐다. 제주특별자치도는 신종 코로나바이러스 차단을 위해 법무부가 시행하는 '무사증 중단 조치'가 3일 고시돼 4일부터 시행된다고 밝혔다. 제주가 최종 목적지일 경우에만 적용되나, 제주를 통해서만 출국해야 하는 것은 아니어서 육지에서 72～240시간 체류했다가도 출국할 수 있는 환승 무사증 중단도 포함됐다. 도 관계자는 "도민 보건 안전 확보와 불안감 해소를 위해 외국인 관광객 통제 범위를 전반으로 넓힌 것으로 보인다"고 전했다. 배종면(오른쪽 두번째) 제주도감염병지원관리단장이 오전 도청에서 신종 코로나바이러스 감염증 합동 브리핑을 하고 있다. 앞서 정부는 지난 2일 제주도의 건의를 받아들여 신종 코로나바이러스의 차단방역을 위해 무비자 전면 일시중지를 시행한다고 밝혔다. 지난해 기준 무사증 입도 중국인은 107만9133명이며, 지난해 하반기 무사증 입도비율은 74%다. 이에 따라 올해 전체 중국 관광객의 74%가 감소할 것으로 도는 예상했다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 관련기사 제주, 중국인 무비자 입국 제한…관광업계 위기감 고조 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, GS25 전용 빵빠레 샌드 카스타드 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 BAT "궐련형 전자담배 전환시 연초 대비 '위해 저감' 효과" 주장 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 연세대 고등과학원, 노벨상 수상 석학 초청 행사 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 물품 대금 5억 빼돌린 안성 지역농협 직원 자수...검찰 송치 [안성소식] 시, 하반기 농민기본소득 지급 등 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" 김대중컨벤션센터서 광주식품대전 개막…13~16일 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주 시내버스 관광 중국인, 귀국 후 확진 판정… 제주도가 발칵 한국일보 제주 시내버스 관광 중국인, 귀국 후 확진 판정… 제주도가 발칵 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 제주 시내버스 관광 중국인, 귀국 후 확진 판정… 제주도가 발칵 입력 2020.02.03 04:30 수정 2020.02.03 07:24 좋아요 0 0 0 댓글달기 0 4박5일간 대중교통 수차례 이용… 쇼핑거리, 관광지, 해안도로 누벼  춘제 때 중국서 1만2000명 제주행 “방역망 뚫리나” 불안감 확산 신종 코로나바이러스 감염증이 확산되고 있는 가운데 지난달 29일 오후 중국인 관광객들이 많이 찾는 제주시 연동 ‘누웨모루 거리’에 몇몇 중국인 관광객들이 마스크를 착용한 채 오고 갈뿐 인적이 뚝 끊겼다. 김영헌 기자.제주를 방문했던 중국인 관광객이 귀국 직후 신종 코로나바이러스 감염증 확진 판정을 받은 것으로 확인되면서 제주지역에 불안감이 확산되고 있다. 이 확진자는 대중교통을 수 차례 이용한 것으로 밝혀졌다. 특히 제주는 무사증(무비자) 입국 제도 운영으로 최근 중국 춘제 연휴기간(1월 24~30일)에만 1만2,000여명의 중국인이 방문한 것으로 파악돼 방역망이 뚫릴 수 있다는 우려가 커지고 있다.2일 제주도에 따르면 지난달 21일 중국 춘추항공 항공편으로 제주에 입국해 25일까지 4박 5일간 제주에 체류한 중국인 여성 A(52)씨가 중국 양저우로 귀국한 후인 지난달 26일부터 발열 증상 등을 보였고, 30일 확진 판정을 받았다. 다만 A씨와 함께 제주를 방문했던 딸은 현재 감염 증상이 없는 것으로 파악됐다.도는 A씨가 중국으로 귀국할 당시 이뤄진 현지 검역에서 별다른 증상을 보이지 않았다는 점 등을 감안할 때 제주 체류 기간은 신종 코로나 잠복기로, 추가 감염 가능성은 낮은 것으로 판단했다.그러나 도는 독일에서 잠복기 감염 사례가 발생한 점을 감안해 A씨가 도내에 머물렀던 기간의 주요 동선 파악에 주력하고 있다. 도가 이날 오후까지 파악한 동선을 보면 A씨 일행은 주요 관광지와 시내면세점, 식당 등을 방문한 것으로 파악됐다. 또한 이동 과정에서 다른 중국인 관광객과 승합차량을 이용해 관광지로 향한 사실도 확인됐다. 주요 동선을 보면 지난달 21일 저녁 늦게 항공편으로 제주에 도착한 후 제주시 연동에 위치한 호텔에 투숙했고, 다음날 오전엔 다른 중국인 관광객 8명과 승합차량으로 제주 동부에 위치한 성산일출봉과 우도 등을 방문했다. 셋째날에는 숙소에서 도보로 제주시 연동에 위치한 시내면세점 2곳에 가 쇼핑한 후 인근 음식점에서 점심식사를 했다. 이어 시내버스를 이용해 제주시 구도심 쇼핑거리를 둘러본 후 다시 시내버스로 숙소에 돌아왔다. 넷째날에도 버스를 이용해 제주시 도두해안도로를 찾아 인근 카페에 갔고, 다시 버스를 이용해 숙소 인근 음식점에서 저녁을 먹은 후 제주시 연동 누웨모루거리를 찾았다. 25일엔 숙소에서 시내버스를 타고 제주공항으로 간 후 귀국했다. 이날 도의 동선 공개 후 A씨가 방문한 시내면세점 2곳은 임시 휴업을 결정했다.이처럼 A씨 일행이 시내버스 등을 이용해 관광을 즐긴 것은 물론 커피숍, 식당 등을 방문한 것으로 알려지면서, 도민들은 “추가 감염 가능성을 완전히 배제할 수 있겠냐”며 불안감에 떨고 있는 상황이다. 실제 이날 오전부터 도 관련 부서에는 A씨가 묵었던 숙소 등 동선을 확인하려는 문의전화가 폭주했다. 또 도내 맘카페 등 온라인 커뮤니티와 사회관계망서비스(SNS)에선 무사증 폐지는 물론 중국인의 입국을 아예 막아야 한다는 의견들도 확산되고 있다. 또 중국인들로 인해 내국인 관광객들이 제주를 찾지 않아 제주관광에 악영향을 줄 것이란 우려도 커지고 있다.도는 A씨 사례가 관리대상은 아니지만 만일의 상황을 대비해 자체 대응 방침을 마련하고, 후속조치에 나서고 있다. A씨가 투숙한 호텔 직원 가운데 A씨와 접촉한 5명에 대해 자체적으로 집중 관찰 대상으로 선정, 자가 격리 조치했다. 전날에는 A씨와 밀접하게 접촉했을 것으로 추정되는 제주공항 관계자가 발열 증상을 보여 조사를 벌였으나 음성 판정이 나오기도 했다.도는 이날 긴급대책회의를 갖고 신종 코로나의 차단방역을 위해 중국인 일시 금지, 중국인 제주도 무사증 제도 일시 중지, 질병관리본부 사례 관리에 잠복기 해당자 포함 등을 정부에 공식 건의했다. 정부는 이날 도의 건의사항 중 무사증 제도 일시 중지를 4일부터 시행키로 했다.한편 이날 오전 9시 기준 도내에서 신종 코로나 유증상자는 12명이며, 이들 모두 진단결과 음성으로 확인됐다.제주=김영헌 기자 tamla@hankookilbo.com 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 사회 많이 본 뉴스 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 제주 시내버스 관광 중국인, 귀국 후 확진 판정… 제주도가 발칵 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>중국인 무비자 입국 제주도 뚫려… 면세점·관광지 들러 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 중국인 무비자 입국 제주도 뚫려… 면세점·관광지 들러 , 신종 코로나 바이러스 입력 : 2020-02-03 06:00:00 수정 : 2020-02-02 23:45:38 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 딸과 함께 관광 중국인 귀국 후 확진 2일 오후 제주국제공항 국제선 도착 전광판 앞으로 마스크를 쓴 여행객들이 지나가고 있다. 뉴스1 무사증(무비자)으로 자유롭게 입국이 가능한 제주를 방문한 중국인 관광객이 귀국 후 신종 코로나바이러스 감염증(우한 폐렴) 확진 판정을 받자 제주 주민과 관광객의 불안감이 커지고 있다. 정부는 제주 특별법에 따른 제주도 무사증 입국제도를 일시 중단했다. 2일 제주도에 따르면 중국 춘추항공 항공편으로 지난달 21일 제주국제공항으로 딸과 함께 입국해 나흘가량 관광을 즐기다 25일 중국 양저우로 떠난 중국인 A(52·여)씨가 30일 신종 코로나 확진 판정을 받았다. A씨는 제주 체류 중 우한 폐렴 증세가 없었지만 제주 출국 다음날인 26일 발열 증세를 보였다. 제주도는 A씨가 코로나바이러스 잠복기 상태로 제주를 방문했던 것으로 추정하고, 발열 증세를 보이기 이틀 전(1월 24∼25일)을 중심으로 제주 지역 동선과 접촉자 확인 및 관리에 주력하고 있다. 지난달 말 4박5일 동안 제주를 관광한 중국인 여성이 귀국 직후 신종 코로나바이러스 감염증(우한 폐렴) 확진 판정을 받은 것으로 알려져 제주 도민과 관광객의 불안이 고조되고 있는 2일 제주국제공항을 통해 들어온 여행객들이 마스크를 낀 채 공항 주차장으로 걸어가고 있다. 제주=연합뉴스 우선 A씨가 4박 5일간 체류한 제주시 연동 소재 호텔 직원 등 밀접 접촉자 5명을 자가 격리 조치했다. A씨 딸의 진술 등에 따르면 A씨는 신라·롯데면세점에 들러 쇼핑하고, 에코랜드·산굼부리·우도·성산일출봉 등을 관광한 것으로 확인됐다. 이동 수단은 승합차와 시내버스였다. 중국인을 비롯해 외국인의 무비자 입국이 가능한 제주는 우한 폐렴 전파 우려가 다른 지역에 비해 클 수밖에 없다. 특히 A씨처럼 무증상 감염자가 관광지 등을 활보하고 다닌 뒤 출국해버리면 속수무책일 수밖에 없고 사후 대응에도 애를 먹게 된다. 정부가 이날 무사증 입국제도를 일시 중단키로 한 배경이다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20200202511156 0101080100000 0 2020-02-03 6:0:0 2020-02-02 23:45:38 0 중국인 무비자 입국 제주도 뚫려… 면세점·관광지 들러 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도, '코로나' 확진 중국인관광객 제주여행 동선 공개 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, '코로나' 확진 중국인관광객 제주여행 동선 공개 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, '코로나' 확진 중국인관광객 제주여행 동선 공개 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.02.02 18:27 댓글 2 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 21~25일 승합차.시내버스 등 이동...면세점.식당.커피숍 등 방문 지난달 4박 5일 일정으로 제주도를 여행하고 돌아간 중국인관광객이 뒤늦게 신종 코로나바이러스 감염증(우한 폐렴) 확진판정을 받은 것으로 나타난 가운데, 제주특별자치도가 2일 이 중국인의 제주여행 이동동선을 공개했다. 제주도는 도민들의 불안을 최소화하기 위해 확진자 가족과 전화통화를 통해 확보한 정보와 폐쇄회로(CC)TV를 통해 확인한 주요 동선을 공개한다고 밝혔다. 이번에 공개되는 내용은 대략적인 동선이다. 제주도는 "중국인 관광객 A씨의 모든 동선을 역추적하고 있는 상황으로 4박 5일간의 일정을 모두 확인하는 데는 다소 시일이 소요될 것으로 예상된다"고 밝혔다. 또 "이번 중국인 관광객 A씨의 일자별 이동 경로는 질병관리본부의 지침에 따르면 공개 대상이 아니다"며 "하지만 제주도는 자체적으로 집중 관리 대상을 확대 적용하기로 했기에 동선을 집중적으로 조사 중"이라고 설명했다. 공개된 내용을 보면, 중국인 A씨는 21일 밤 마지막 비행기 편으로 제주에 도착한 후 플로라 호텔(제주시 연동 소재)을 숙소로 잡아 투숙했다. 다음날인 22일 오전에는 중국인 10명이 승합차를 이용해 에코랜드, 산굼부리를 거쳐 우도를 관광했고, 이후 성산일출봉을 거쳐 다시 제주시로 돌아와 신제주 소재 음식점에서 저녁식사를 하고, 숙소로 이동한 것으로 나타났다. 23일 오전에는 숙소에서 나와 도보로 이동해 롯데면세점과 신라면세점에서 쇼핑을 한 후 신라면세점 인근 치킨집에서 점심식사를 한 뒤 시내버스를 이용해 칠성통으로 이동, 칠성통을 구경한 후 시내버스를 이용해 숙소로 돌아온 것으로 파악됐다. 24일에는 숙소에서 버스를 이용하여 1100고지와 무지개도로, 도두 해안도로를 구경한 후 도두해안도로 소재 카페에서 점심식사, 다시 버스를 이용해 숙소 인근 음식점에서 저녁을 먹고 누웨마루거리를 산책하던 중 편의점에 들렀다가 다시 숙소로 이동한 것으로 나타났다. 25일에는 숙소에서 시내버스를 이용해 제주국제공항으로 이동한 후 중국으로 돌아갔다. A씨는 귀국한 다음날인 26일 발열 증세를 보이기 시작해 30일 확진 판정을 받은 것으로 나타났다. 이에 따라 제주도는 발열증세를 보이기 이틀 전인 24일과 25일 제주도 일정의 동선 및 접촉자 파악에 주력하고 있다. 제주도 관계자는 "누웨마루거리에서 이동한 경로는 확인했고, 그 이전 경로도 확인하고 있지만 CCTV 녹화량이 너무 방대한데다가 특정인 찾기 등이 어려운 상황"이라고 밝혔다. 그러면서, "이동 경로의 장소에 대해서도 밀접접촉자는 없는 것으로 파악되나 CCTV 등 객관적 자료로 확인을 거치고 있으므로 과도한 불안감 전파는 자제해 달라"고 당부했다.   &lt;헤드라인제주&gt; 제주특별자치도가 2일 공개한 중국인관광객 A씨 제주여행 주요 동선. ○ (1월21일) 마지막 비행기 편으로 제주에 도착한 후 플로라호텔(제주시 연동 소재) 차량을 이용하여 플로라 호텔로 이동. ○ (1월22일) 오전에 중국인 10명이 승합차를 이용하여 에코랜드, 산굼부리를 거쳐 우도에 도착한 후 우도 내 음식점에서 점심을 먹은 뒤 우도를 나와 성산일출봉을 거쳐 숙소 근처 하차, 신제주 소재 음식점에서 저녁식사를 하고, 숙소로 이동. ○ (1월23일) 오전에 숙소에서 나와 도보로 이동하여 롯데면세점과 신라면세점에서 쇼핑을 한 후 신라면세점 인근 치킨집에서 점심식사를 한 뒤 시내버스를 이용하여 칠성통으로 이동, 칠성통 구경 후 시내버스를 이용하여 숙소로 이동. ○(1월24일) 숙소에서 버스를 이용하여 1100고지와 무지개도로, 도두 해안도로를 구경한 후 도두해안도로 소재 카페에서 점심식사, 다시 버스를 이용하여 숙소 인근 음식점에서 저녁을 먹고 누웨마루거리를 산책하던 중 편의점에 들렀다가 다시 숙소로 이동. ○ (1월25일) 숙소에서 시내버스를 이용하여 제주국제공항으로 이동한 후 중국행. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 "제주도 여행 다녀간 중국인, 귀국후 '코로나' 확진판정" 중국인 확진자 접촉 제주도 호텔 직원 5명, 자가격리 '코로나' 확진 중국인, 제주여행 동선 후속조치 딜레마...이유는? 제주 롯데-신라면세점, '코로나' 확진자 방문 전격 임시휴업 [1보] 귀국 후 코로나 확진 중국인 관광객, 제주서 '해열진통제' 구입 '코로나' 확진 중국인, 제주도 약국서 해열진통제 구입 확인 코로나 바이러스 우려, 제주 초.중학교 개학 연기 검토 제주도 여행 '코로나' 확진 중국인 이동동선 추가 공개 '코로나' 중국인 제주여행 후폭풍...줄줄이 '휴업', 9명 '격리' 제주여행 중국인 확진자 비상상황, '2월7일'까지가 고비 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 2 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 짜장곱빼기 2020-02-03 16:41:58 | 106.***.***.67 더보기 삭제하기 수정하기 진짜짜증난다 짜증나. 칠성통 매장 어디어디 갔는지 알아내라 답답한것들아 짱깨없어도 잘살았는데ㅡㅡ ㄷㅓ러운것들 왜자꾸 들락날락 하냐고 모든병의 근원인데. 치사율높은 조류인플렌자도 유행이라며? 가지가지한다 짱깨들 답글쓰기 5 0 ㅇㅇㅇ 2020-02-02 19:24:27 | 118.***.***.45 더보기 삭제하기 수정하기 뻔뻔하게 할거 다 하고 갔네 역겹다 답글 1 7 0 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>중국 관광객 '확진자' 방문···제주도내 면세점 '휴업' - 뉴스제주 × 전체기사 사회 전체 사건사고 일반 포토 날씨 뉴스제주초점 기업·인물탐방 행정 전체 제주도청 제주도의회 제주시청 서귀포시청 유관기관 읍면동 정치 전체 선거 정당 국회 의정활동 시민단체 교육 전체 교육청 교육행정 학교소식 경제 전체 제주도 제주시 서귀포시 도외 일반 문화 전체 제주도 제주시 서귀포시 도외 일반 관광 전체 제주도 제주시 서귀포시 도외 일반 동정 전체 도청 도의회 제주시 서귀포시 기타 연예 스포츠 동영상 오피니언 전체 기자수첩 칼럼 기고 시민기자 미디어부 뉴스제주TV 뉴스제주 시작페이지로 즐겨찾기 추가 한국어 영어 일본어 중국어 처음으로 로그인 회원가입 모바일웹 전체 사회 사건사고 포토 날씨 뉴스제주초점 기업·인물탐방 행정 제주도청 제주도의회 제주시청 서귀포시청 유관기관 사업소 읍면동 정치 선거 정당 국회 교육 교육청 교육행정 학교소식 경제 제주도 제주시 서귀포시 도외 문화 제주도 제주시 서귀포시 도외 스포츠 오피니언 기자수첩 칼럼 기고 시민기자 관광 제주도 제주시 서귀포시 도외 일반 동정 도청 도의회 제주시 서귀포시 기타 후원안내 날씨 기사검색 검색 최종편집 : 2022-10-11 14:50 (화) 이전 다음 중국 관광객 '확진자' 방문···제주도내 면세점 '휴업' 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 관광 중국 관광객 '확진자' 방문···제주도내 면세점 '휴업' 이감사 기자 승인 2020.02.02 19:22 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 텔레그램 URL복사 × 제주도청 2일 오후 '신종 코로나 바이러스' 확진자 이동 동선 공개 롯데·신라 면세점 제주점, 일제히 보도자료 내고 '휴업' 선언 ▲ 롯데면세점 제주지점과 신라면세점 제주지점이, 충국으로 돌아간 개별 관광객이 '확정' 판정을 받기 전 방문 소식을 접하고 일제히 휴업을 선언했다. ©Newsjeju​ 제주 방문 후 중국으로 돌아간 50대 개별 관광객이 '신종 코로나 바이러스' 확진 판정을 받으면서 제주도 여행업계가 촉각을 곤두세우고 있다. 제주특별자치도는 2일 오후 해당 중국인의 제주여행 동선을 공개했는데, 확진자가 방문했던 시내 면세점 두 곳이 휴업을 선언했다. 2일 롯데면세점·신라면세점 제주점은 제주도청의 확진자 중국인 동선 공개 후 보도자료를 내고 신규고객 입점 차단과 휴업 및 방역을 알렸다. 먼저 롯데면세점 제주지점은 "제주도청의 중국인 이동동선 발표에 따라 즉시 내부 매뉴얼을 가동했다"며 "고객의 입점을 통제하고, 입점 고객들의 퇴점을 진행 중에 있다"고 설명했다. 이어 "오늘부로 신종 코로나바이러스 확산 방지와 고객 및 직원의 안전을 위해 임시 휴업에 들어간다"면서 "금일 매장 폐쇄 이후 방역작업에 나서는 등 보건당국과 제주도정과 협의에 따라 재개점 시기 등을 결정하겠다"고 선언했다. 신라면세점 제주지점 측은 "(중국인 확진자의 방문 동선에 포함됨에 따라) 직원 등의 안전확보 차원에서 선제조치로 임시 휴업을 결정하게 됐다"며 "제주점 매장 방역은 경계단계로 격상하고 방역에 나서고 있다"고 설명했다. 또 "혹시나 있을 확산 가능성을 완전히 차단하기 위해 추가 방역을 실시할 계획"이라면서 "고객과 직원의 안전에 문제가 없다고 판단될 때 재오픈에 나서겠다"고 덧붙였다. Tag #롯데면세점 #신라면세점 #제주점 #휴업선언 #코로나바이러스 저작권자 © 뉴스제주 무단전재 및 재배포 금지 이감사 기자 다른기사 보기 관련기사 '신종 코로나' 확진 중국 관광객, 제주 동선 공개 '코로나 바이러스' 차단, 칼 빼든 정부···"입국 제한" 제주 다녀간 '코로나' 확진 중국인, 시내버스로 이동 긴장하는 제주도정, '코로나' 중국인 제주부터 '발열' 정황 신종 코로나, 6일까지 환자 미발생 시 제주는 안전 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 자동등록방지 내용 0 / 400 등록 댓글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 많이 본 뉴스 뉴스 댓글 1[강병삼 시장 축사] 뉴스제주 창간 16주년 2[김광수 교육감 축사] 뉴스제주 창간 16주년 3[오영훈 지사 축사] 뉴스제주 창간 16주년 4[김한규 의원 축사] 뉴스제주 창간 16주년 5[이종우 시장 축사] 뉴스제주 창간 16주년 1수상자 본인 입니다. 확인 되지 않은 사실을 기반으로 허유사실을 공론화하지 않으시길 바랍니다. 2나 조만간 자살 할 것 같아 3ㅎ ㅎ ㅎ 4비슷비슷헌 사름덜 보염싱게~ 자기들부터 깨끗허게 살주게 5원희룡... 최신기사 용담1동지역사회보장협의체·용담1동 동행동락 행사 추진 용담1동지역사회보장협의체·용담1동 동행동락 행사 추진 조천읍장, 지방세 체납액 징수 철저 당부 조천읍장, 지방세 체납액 징수 철저 당부 구좌읍 민속보존회, 제61회 탐라문화제 민속예술부문 우수상 수상 구좌읍 민속보존회, 제61회 탐라문화제 민속예술부문 우수상 수상 삼양동 새마을지도자, 원당봉 산책로 환경정비 실시 삼양동 새마을지도자, 원당봉 산책로 환경정비 실시 용담1동민속보존회, 제61회 탐라문화제 출연 용담1동민속보존회, 제61회 탐라문화제 출연 아라동 민속보존회, 제61회 탐라문화제 탐라퍼포먼스 및 퍼레이드 경연 참가 아라동 민속보존회, 제61회 탐라문화제 탐라퍼포먼스 및 퍼레이드 경연 참가 제주에 투자한 기업들은 어떻게 성공했을까 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 첨단로8길 34, 1층 대표전화 : 064-747-1188 팩스 : 064-745-4569 청소년보호책임자 : 남우엽 제호 : 뉴스제주 등록번호 : 제주 아 01007 등록일 : 2006-10-09 발행인 : 남우엽 편집인 : 남우엽 뉴스제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스제주. All rights reserved. mail to newsjeju@hanmail.net 위로</t>
+  </si>
+  <si>
+    <t>제주도 `신종코로나` 비상…中 관광객 접촉자 자가격리 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 이데일리 로봇 단독 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 팜이데일리 마켓in 스냅타임 제주도 `신종코로나` 비상…中 관광객 접촉자 자가격리 숙박업소 접촉자 자가격리…제주도, 동선 파악 중원희룡 도지사 "중국인, 당분간 입국 금지해야" 등록 2020-02-02 오후 12:36:54 수정 2020-02-02 오후 12:36:33 가 가 양지윤 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 양지윤 기자] 제주에 여행 차 입국했던 50대 중국인이 귀국 직후 신종 코로나바이러스 감염증 확진 판정을 받은 것으로 확인돼 비상이 걸렸다. 원희룡 제주지사는 정부에 중국인에 대해 일시 입국 금지조치를 취해줄 것을 요청했다. 2일 제주도에 따르면 중국 춘추항공 항공편으로 지난달 21일 제주국제공항으로 입국해 25일까지 4박5일간 체류했던 중국인 A(52·여)씨가 중국 양저우로 귀국한 후인 지난달 30일 신종 코로나 확진 판정을 받았다.제주 지역사회에 신종 코로나바이러스 감염증에 대한 공포가 확산하는 가운데 2일 오전 제주국제공항을 통해 들어온 국내외 여행객들이 마스크로 무장한 채 주차장으로 향하고 있다.(사진=연합뉴스)A씨는 딸과 함께 무비자로 관광차 제주를 방문했으며, 제주 체류 기간 신종 코로나 감염 증세는 없었던 것으로 알려졌다. A씨는 양저우로 귀국한 직후인 26일 발열 증세를 보였다. A씨의 딸은 감염 증상이 없는 것으로 확인됐다. 제주도는 A씨가 제주를 방문한 기간이 신종 코로나 잠복기일 가능성이 있는 것으로 추정했다. 특히 일본과 독일 등 잠복기 감염 사례에 따라 발열 증세를 보이기 전 이틀 전인 24~25일 양 일간의 동선 찾기에 집중하고 있다.제주도는 A씨가 4박5일간 체류한 호텔 내 접촉자 5명을 확인하고 자가 격리 조치했다. 또한 시내버스 등 대중교통을 이용해 야외 관광지를 주로 돌아봤다는 A씨 딸의 진술을 바탕으로 정확한 동선을 파악 중이다.제주도는 A씨를 검역한 공항 직원이 발열 증세를 보여 검사를 했지만, 음성 판정이 나왔다고 밝혔다.원희룡 제주도시자는 이날 오전 제주도청에서 가진 긴급 기자회견에서 “확진이 발생 가능한 잠복지 해당자가 늘어날 경우 관리 감독하기 위해선 일정기간 추가 중국인 입국자를 최소화할 필요가 있다”며 정부에 중국인에 대한 일시 입국 금지조치를 요청했다. 원 지사는 “질병사례관리가 잠복지 해당자를 포함하는 등 확대 운영할 것을 공식 건의한다”면서 “질병관리본부에서 사례관리하는 사람을 발열 등 증세가 나타나는 사람은 물론 잠복기에 해당하는 사람까지 확대해달라”라고 말했다. 이어 “질병 사례관리 범위가 너무 좁다”며 “제주도에 적용했을 때 중국인 접촉 업무에 종사하는 유사 경우 포함시켜야 한다”고 덧붙였다. `코로나19` 비상 이슈 더보기 ‘코로나 때문에’…작년 단기사채 발행, 제도 도입 후 첫 감소 전국 교정 시설 코로나 누적 확진자 1238명…동부구치소 10명 추가 “담배 피우고 싶어”…코로나 격리 군인, 3층서 탈출하다 추락 주요뉴스 똥값 된 금(金)값…이젠 금 사도 되지 않을까 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 3"저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 4[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'인사하는 정진석-주호영' [포토] 살 맛나는 가격 60% 할인 [포토] 2022 제약바이오 채용박람회 개막식 [포토]필리핀 복싱 영웅 파키아오의 미소 [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 3 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 4 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 8 인터넷 포털에서 ‘윤석열차’ 검색해 봤더니… 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 “키스 5단계는” “치마 짧으면...”..선생님이 이런 농담을 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 8 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 9 김태현 국민연금 이사장 "공모주 기계적 투자, 수정 여부 검토할 것"[2022국감] 10 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 4 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 5 선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? 6 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 7 공효진♥케빈오 11일(현지시간) 뉴욕 결혼식…정려원·엄지원 미국行 8 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 9 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 10 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! '드레스를 조심해' 남다른 주먹 北 전술핵운용부대 왼쪽 오른쪽 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 문화재 보존구역 소송 25건…"허술한 관리" 지적[2022 국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 똥값 된 금(金)값…이젠 금 사도 되지 않을까 아이폰은 왜 갤럭시로 충전 못하나요[궁즉답] [단독] KB국민은행 알뜰폰, SKT 망까지 쓴다…금융+통신 가속화 .실리콘밸리서 가장 부유한 러시아인, 러 시민권 포기 .선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? .“사는 게 힘들어서…” 어린 자녀 살해 후 극단 선택한 엄마들 .문화재청 4명중 1명, 청와대 행사 동원…"업무 부담" 비판 .北 대형 잠수함 개발 실패했나…유례없는 '저수지 수중 발사' .이재명, 한미일 군사훈련에 "국방 참사이자 안보 자해행위"(종합) 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 포스코아르헨티나, 2단계 염수리튬 사업 개시…1.5조원 투자 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도, ‘신종 코로나’ 中관광객 숙박업소 직원 격리 조치 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, ‘신종 코로나’ 中관광객 숙박업소 직원 격리 조치 파이낸셜뉴스입력 2020.02.02 12:39수정 2020.02.02 12:39 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 1월21∼25일 제주관광…귀국 후 발열증세와 함께 확진 판정중국인 동선·밀접 접촉자 파악 비상…호텔직원 아직 무증상 제주국제공항 국제선 대합실. /사진=fnDB [제주=좌승훈 기자] 제주관광에 나선 중국 여성이 귀국 후 신종 코로나바이러스 확진 판정을 받은 가운데 해당 중국인이 머물렀던 호텔 직원 5명이 자가 격리된 상태다. 이들은 현재 증상은 없지만 확진자와 밀접 접촉했던 사실이 확인됐다. 도는 2일 오전 도청 기자실에서 신종 코로나바이러스 감염증(이하 신종 코로나) 합동 브리핑을 갖고 지난 1월21~25일 무사증(무비자) 제도를 통해 제주를 찾은 중국 여성 관광객 A(52)씨의 동선과 밀접 접촉자 파악에 나섰다고 밝혔다. A씨는 장쑤성 양저우로 귀국한 후 26일 발열증세를 보였으며 30일 신종 코로나 확진 판정을 받았다. A씨의 신종 코로나 확진 사실은 중국 춘추항공이 제주지방항공청에 알리면서 1일 오후 확인됐다. 앞서 A씨는 딸과 함께 제주체류 기간 동안 숙소를 1곳만 이용했지만 관광버스와 시내버스를 번갈아 타면서 제주도를 관광한 것으로 알려졌다. 도는 A씨가 신종 코로나 잠복기에 제주를 방문한 것으로 추정하면서 호텔과 커피숍·음식점· 이동 수단 등에서의 밀접 접촉자가 있는지 CC(폐쇄회로)TV 영상을 통해 추적 중이다. 또 경찰청에 A씨의 신용카드 사용 내역에 대한 정보를 요청했다. 아울러 도는 A씨가 머물렀던 호텔 내 밀접 접촉자들을 확인하고 이 중 5명을 집중관찰대상으로 분류해 자가 격리 조치했다. 이들은 아직까지 별다른 증상은 보이지 않고 있는 것으로 전해졌다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 `신종 코로나` 비상…양저우 확진자 4박5일 관광 - 매일신문 2022-10-11 (화) 지면보기 기사제보 로그인 회원가입 최신기사 오피니언 정치 경제 사회 국제 문화 스포츠 연예 라이프 포토·영상 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 제주도 '신종 코로나' 비상…양저우 확진자 4박5일 관광 배성훈 기자 bsh@imaeil.com 매일신문 입력 2020-02-02 14:29:33 수정 2020-02-02 14:31:43 0 가 가 페이스북 트위터 카카오스토리 밴드 네이버블로그 카카오톡 라인 URL복사 접촉 숙박업소 직원 5명 자가격리원희룡 지사, '중국인 무비자입국 일시 중지' 정부에 건의 제주 지역사회에 신종 코로나바이러스 감염증에 대한 공포가 확산하는 가운데 2일 오전 제주국제공항을 통해 들어온 국내외 여행객들이 마스크로 무장한 채 주차장으로 향하고 있다. 연합뉴스 '신종 코로나 청정지역'이던 제주도에도 비상이 걸렸다.2일 제주도에 따르면 지난달 21일 50대 중국인 A 씨가 5일까지 4박 5일간 제주에 체류하다 중국 양저우로 귀국한 후인 30일 신종 코로나 확진 판정을 받았다.A 씨는 중국 춘추항공 항공편으로 지난달 21일 제주국제공항으로 무사증으로 입국했다. 제주 체류 기간 신종 코로나 감염 증세는 없었던 것으로 알려졌다. A 씨는 양저우로 귀국한 직후인 26일 발열 증세를 보였다. 함께 입국한 A 씨의 딸은 감염 증상이 없는 것으로 확인됐다.제주도는 A 씨가 제주를 방문한 4박5일이 신종 코로나 잠복기일 가능성이 있는 것으로 추정했다. 도는 A 씨가 24일과 25일 방문한 커피숍과 식당, 이동 수단 등에 대한 동선 찾기에 집중하고 있다. 도는 A 씨가 4박 5일간 체류한 호텔 내 접촉자 5명을 확인하고 자가 격리 조치했다. 제주 지역사회에 신종 코로나바이러스 감염증에 대한 공포가 확산하는 가운데 2일 오전 원희룡제주지사(오른쪽)가 제주도청에서 관련 브리핑을 하고 있다. 연합뉴스 한편 원희룡 제주지사는 이날 기자브리핑에서 "신종 코로나 확산이 심화하면서 중국인 입국자를 최소화할 필요가 있다"면서 "정부는 중국인 입국 일시 금지 조치를 조속히 취해달라"고 말했다. 원 지사는 "또 이미 제주도가 신종 코로나 유입을 막기 위해 법무부에 건의한 중국인 대상 무비자 입국 일시 중지 조치에 대해서도 이른 시일 내 확정해 달라"고 강조했다. 네이버TV구독 + 유튜브구독 + 최신 기사 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 많이 본 뉴스 일간 주간 월간 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 [영상] "삼성전자 입주 키이우 건물 러 미사일 폭격 피해"…우크라 정부 "폭발로 최소 8명 사망" 北미사일 발사장에 나란히 선 김정은 부부…귀막고 눈 찡긋 수서~포항 KTX 운행 연내 성사되나…원희룡 "적극 검토할 것" 새마을운동중앙회장 맡아 다시 현역으로 돌아온 곽대훈 전 의원 푸틴의 보복?…우크라 키이우 70일만 미사일 공습 "사상자 발생" [대구 시월] "더는 쌀을 구할 방법이 없다"…그해 10월은 민생고가 빚어낸 '폭풍' 구미 원룸서 40대 여성 숨진 채 발견...살해 용의자 현장서 긴급체포 경주시립미술관 예정 부지 외지고 유동인구 적어…'유령미술관' 우려 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지더보기 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" 칠곡경북대병원 간호사 퇴사 70% '입사 1년차' 구미 年 4천억 매출 기업, 화마로 '셧다운'…지역경제 타격 불가피 대구 'MBC네거리' 새명칭 선정 난항…연내에 다시 논의하기로 홍준표 시장 "대구 미래 산업 될 신수종산업 유치, 반도체 대기업과 협상 중" 등산하다 굴렀다던 아내…알고보니 남편에게 맞아 숨졌다 대구 아파트 전세값 '뚝뚝'…하락폭 비수도권 광역시 '최대' 홍준표, 尹·김건희 풍자 '윤석열차' 두고 "표현의 자유" '尹 식사하느라 英여왕 조문 못했나' 질문에 박진 외교장관, 적극 부인 못해더보기 대전 현대 프리미엄아울렛 화재…지하주차장서 전기차 폭발 추정 호텔수성 또 소송?…이번엔 주차장 갈등, 수성구청 "소송 불사" 전국 어디든 '1시간 50분대'…성주군, 6방향 사통팔달 도시로 태풍 '힌남노' 폭우, 주택 앞마당에 묻어둔 현금 항아리 깨져 "30cm 처마 값으로 45억원 내놔라니"…두류동 재개발 '공중 알박기' 논란 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 대구 수성못 주변 주상복합 취소 소송, 수성구청 최종 승소 국내 대표 방위산업체 'LIG넥스원·한화시스템' 구미에 4천억 푼다 [속보] 구미 4공단 공장 화재 "대응 2단계로 격상, 인명 검색 중" 13호 태풍 므르복 日 남쪽 아닌 멀리 태평양서 발생 임박 "14호 난마돌 발생 여부 주목"더보기 이슈&amp;뉴스 美 출장은 이재명 수사 목적 주장에 한동훈 "내부 고발 하나" 민주당 "이재명 두산그룹 후원 유치, 칭찬할 일" '포항 참사' 숨진 중학생, 市보험금 못 받아 논란 초등학생 청소 밀대로 때린 교사…3천만원대 합의에도 실형 손톱 10개 합친 길이만 13m…25년째 안 자른 사연은 댓글 많은 뉴스 10 가수 영탁, '센스 있고 활기찬 매력 스타' 1위 차지 5 안철수 "유승민, 당대표 출마 힘들 것…나는 尹 정부 연대보증인" 5 나경원, 이재명 겨냥 "한미일 훈련이 국방참사라니…北에 당하란 말인가" 5 [단독]대구 범어네거리 100층 빌딩 들어설까…지역 부동산업계 관심 집중 3 "경북지역 노후 저수지 3200곳, 언제 터질지 모른다" 최신기사 오피니언 사설 사내칼럼 사외칼럼 매일희평 정치 정치일반 지역정가 대통령실·세종 국회·정당 북한·국방 선거 경제 경제일반 부동산 금융·증권·보험 기업·창업 구인·구직 IT·자동차 사회 사회일반 사건사고 법원·검찰 교육 인사·화촉·모임·부음 이웃사랑 핫뉴스 국제 국제일반 미국·중국·일본 해외토픽 문화 문화일반 음악·공연 미술·전시 문학·책 종교 스포츠 스포츠일반 야구 축구 농구 골프 지역스포츠 연예 연예일반 영화 방송·연예 라이프 라이프일반 여행·축제 맛 건강 독자 운세 포토·영상 영상 포토 그래픽 카드뉴스 회사소개 광고안내 구독신청 고충처리인운영규정 청소년보호정책 개인정보처리방침 사업제휴 편집윤리규정 윤리자율규제지침 윤리실천요강 본사 : 대구광역시 중구 서성로20 (계산 2가 71번지) 매일신문사 (우 41933) : TEL : (053) 255-5001~7 경북본사 : 경북 안동시 풍천면 수호로 63, 3층(우 36759) : TEL : (054) 855-1700 서울지사 : 서울특별시 중구 세종대로 124 (태평로 1가 25) 한국프레스센터 1801호 (우 04520) : TEL(02) 733-0755~6 인터넷신문등록번호 : 대구,아00201 등록일자 : 2016.11.28 발행인 : 정창룡, 편집인 : 정창룡 Copyright ⓒ MAEIL, All right reserved 댓글 삭제 Close 댓글삭제</t>
+  </si>
+  <si>
+    <t>제주도 우한 폐렴 비상… 中 관광객 귀국후 확진 2022.10.11 (화) 즐겨찾기 전체기사 LOGIN JOIN 정치 정당/국회 청와대/외교 국방 정가동정 21대 총선 지방의회 지역소식 인서울 경인권 호남권 영남권 충청권 부산 사회 사건/사고 생활 교육 복지 노동 환경/교통 푸드/음료 인터넷 이슈 코로나19 포토뉴스 국제 문화 공연/전시/영화 여행/레저 도서 종교 애니메이션 게임 경제 IT 금융 기업 부동산 가계 증권 유통 무역 생활 공무원 인터뷰 국회의원 자치단체장 지방의원 상공인 기타 오피니언 어떻게 지내십니까? 편집국장, 만나다 고하승 칼럼 세상사는이야기 칼럼 기고 기자칼럼 현경병, 할말은 한다 시민만평 인사/동정/부고 기획/시리즈 시민의소리 특별기고 스포츠 야구 축구 농구 골프 기타 연예 영화 방송 음악 연예가소식 뷰티/패션 신년사 핫이슈 시사교양 대중문화 스포츠 정치 정치유승민-나경원, 당권 경쟁에 뛰어 드나 [속보]법원, 이준석 신청한 '정진석 비대위' 직무정지 가처분 기각... 김현숙 장관 “여가부, 다른 부처와 통합되는 게 더 효율적” 김문수 “미조직 노동자들 목소리에 귀 기울일 것” &lt;국감 현장&gt; 尹 정부 첫 국감, 정책 실종 정쟁만 난무 서해피살, 文 서면조사 요구에 반발 민주 1인시위 릴레이 가동 홍준표, "연탄가스 정치" 유승민-이준석 맹공 北, 동쪽으로 미상의 탄도미사일 발사 최승재 "세방여행-세방S&amp;C, 인건비ㆍ방역물품 횡령 드러나" 尹대통령 비속어 논란 놓고 홍준표 유승민 엇갈린 행보 尹 대통령, 민주당 단독처리 ‘박진 해임건의안’ 거부 서삼석 의원“ 연륙 섬지역 택배, 추가배송비 폐지”이끌어 민주당 전남도당 신임 사무처장에 김유승(현) 광주시당 처장 발령 지방의회 지방의회금천구의회, 수해복구 대민지원 軍 장병에 표창 성동구의원들, 제269회 정례회서 구정질문 인천시 강화군의회, 지방의회 인사권 독립 후 직원 첫 승진 염종현 경기도의장, “道·道교육청 올 2차 추경 신속 처리해야” 강동구의회 김남현 부의장, 명일근린공원 내 강동숲속도서관 착공식 참석 조동탁 강동구의장, 서울시·서울강동농협이 함께하는 치유농업센터 개장식 참석 안지연 강남구의원, 2022 대한민국 자치발전 대상 기초부문 수상 강남구의회,‘ 2022 제11회 강남구 아름다운 건축물 시상식 ’참석 이향숙 강남구의원, 2022 대한민국 자치발전 대상 기초부문 수상 서초구의회, 전체 의원 대상 부패방지 교육 실시··· 청렴하고 부패 없는 의회 조... 용인특례시의회, 제16회 경기도장애인생활체육대회 2022 용인 개회식 참석 평택시의회 김명숙 의원, 수소 안전성 관련 간담회 개최 합천군의회, 「두무산 양수발전소」 유치 관련 우수 기관 견학 지역소식 인서울 경인권 호남권 영남권 충청권 부산 ‘2022 국제치안산업대전’ 19일 인천서 팡파르~ 인천대학교, ‘2022 대학생 통일특강’ 마련 “AI 가상인간, 강진군 소식 방송” 강진군, 도시공학자 정 석 교수 특강 개최 인천관광공사, ‘인천 관광 미니 잡 페어’ 참여 구직자 모집···21일까지 접수 ... 매일요가 인천청라점, 신규 오픈 기념 이벤트 진행 성동구청, 가치공간과 함께 서울숲 2022 성수 도시재생축제 ‘꽃길만 걸어요’ 플... 푸드어셈블, 을지다락 신메뉴 밀키트 2종 출시 ‘MZ세대 취향 저격’ 송파구시설관리공단, 공부문 인적자원개발 우수기관 선정 강기정 광주광역시장 “베트남과 AI 중심 경제, 인적·문화 교류 활력 기대” 강동선사문화축제 ‘야간 빛 축제’ 16일까지 운영 구립은평뉴타운도서관, 어린이자료실배 ‘(다시 돌아온) 내일은 빙고왕!’성료 구립은평뉴타운도서관, ‘함께 만나는 미디어 놀이터’ 운영 사회 사건/사고 생활 교육 복지 노동 환경/교통 푸드/음료 인터넷 이슈 코로나19 영등포구, 오는 17일부터 6713번 버스 운영 개시 강남구, 12일 車 의무보험 가입 4차 릴레이 홍보 자코모(JAKOMO), 신제품 리클라이너 체어 4종 선봬 린클, 11일 SK스토아 방송서 음식물처리기 선보여 강진군, 정신건강의 날 기념 캠페인 펼쳐 한국열린사이버대학교 평생교육원 ‘보육교사 직무 과정’ 놀이 중심 인성프로그램 추가... 대전자동차정비학원, 전기내선공사 및 자동차정비산업기사 국비지원 모집 강기정 광주광역시장 “기후위기는 만성질병…국제 연대 강화” 유실·유기동물의 가족이 되어주세요 광주광역시, 교통유발부담금 30% 경감 대구 뷰티풀웨딩박람회, 대구 엑스코 인터불고호텔에서 양일간 개최 강진군, 드론 교육으로 첨단 미래농업 기반 구축 K-디저트가 궁금한 청년, 강진 청년지원센터로 오세요 포토뉴스 포토뉴스광교호수공원에 ‘프라이부르크 산책로’ 강기정 광주광역시장, 제34주기 안병하 치안감 추모식 참석 강기정 광주광역시장, 광주FC 홈폐막전 우승 시상식 참석 강남구, 마루공원 그린 콘서트 성료 강남구, 제11회 아름다운 건축물 전시회 시상 강기정 광주광역시장 제103회 전국체육대회 개회식 참석 문영훈 광주광역시 행정부시장, 한팡밍 중국전국정협외사위원회 부주임 접견 강기정 광주광역시장, 아트광주22 개막식 참석 강기정 광주광역시장, 제30회 광주여성대회 참석 용산구, 설운도씨 홍보대사 위촉 포천시 영북면 지역사회보장協, 마을벽화 그리기 봉사 중랑구, 지역치안협의회 개최 박강수 마포구청장, 현장구청장실 운영 HOME &gt; 사회 제주도 우한 폐렴 비상… 中 관광객 귀국후 확진 황혜빈 / hhyeb@siminilbo.co.kr / 기사승인 : 2020-02-02 20:43:28 中 항공사서 확진사실 전달 제주도, 이동동선·접촉자 조사 [시민일보 = 황혜빈 기자] 제주∼중국 직항 항공기로 제주도에 무사증 입국한 50대 중국인 여성이 귀국 후 신종 코로나바이러스 감염증(우한 폐렴) 확진 판정을 받았다.제주도는 중국 춘추항공 항공편으로 지난 1월21일 제주국제공항으로 입국해 25일까지 4박 5일간 제주를 방문한 중국인 여성 A씨(52)가 중국 양저우로 귀국한 후인 지난 1월30일 우한 폐렴 확진 판정을 받았다고 1일 밝혔다.A씨의 우한 폐렴 확진 사실은 중국 춘추항공사가 제주지방항공청에 알리면서 확인됐다고 도는 전했다. 제주지방항공청은 곧바로 도와 국토부 등에 A씨의 제주 방문 사실과 우한 폐렴 확진 사실을 전파했다.도는 A씨가 제주를 방문한 기간이 우한 폐렴 잠복기일 가능성이 있는 것으로 추정했다.도는 해당 확진자와 그 가족이 중국에 있어 전화 통화로 사실 확인을 하는 데 시간이 걸렸고, 현재는 중국의 가족과 연락이 돼 동선과 제주 방문 목적 등의 정보를 조사하고 있다고 설명했다.앞으로 A씨의 제주 이동 동선을 파악하고 밀접 접촉자를 확인해 조사가 완료되면 곧바로 발표하고 도 차원의 조치에 들어갈 예정이라고 도는 전했다. 우한 폐렴 확산 불안감으로 춘제(중국 설·1월 24∼30일) 기간 제주를 방문한 중국인이 예상보다 급감하긴 했으나 춘제 일주일간 1만명 안팎의 중국인 관광객이 제주를 방문했다.도는 우한 폐렴 유입을 막기 위해 중국인에 한정해 무사증 입국 제도 시행을 일시 중지하는 방안을 법무부와 협의하고 있는 것으로 알려졌다. [저작권자ⓒ 시민일보. 무단전재-재배포 금지] 황혜빈 기자의 인기기사 많이 본 뉴스 서대문구, 홍제천생명의 축제 열려[시민일보 = 홍덕표 기자] 홍제천생명의 축제가 오는 24일과 25일 연가교 특설무대에서 열린다. 코로나19로 2년간 중단됐던 홍제천생명의 축...홍덕표 2022-09-20GS건설 시공 아파트 건설현장서 사망 사고[시민일보 = 여영준 기자] 인천 작전동 한 아파트 공사 현장에서 60대 노동자가 공사용으로 설치된 계단에서 추락해 숨지는 사고가 발생했다. 5...여영준 2022-10-052022 안성시 바우덕이 축제, 전통 분위기 물씬[안성=오왕석 기자] 안성시(시장 김보라)가 오는 30일부터 열릴 2022 안성맞춤 남사당 바우덕이 축제에서 우리 전통문화를 계승하기 위해 한복...오왕석 2022-09-28추미애의 자충수주필 고하승국가 시스템은 함부로 손대는 게 아니다.문재인 정권 당시 추미애 법무부 장관은 검찰총장의 수사지휘권을 박탈했다. 그리고 법무부 장관이...고하승 2022-09-20강남구, ‘2022 가로수길 디자인위크’ 개최[시민일보 = 이대우 기자] 서울 강남구(구청장 조성명)가 신사동 가로수길의 160개 업체가 참가하는 ‘2022 가로수길 디자인위크’를 오는 1...이대우 2022-09-29영등포구, 6~8일 안양천서 지등 불빛 축제[시민일보 = 여영준 기자] 영등포구(구청장 최호권)는 6~8일 3일간 안양천 벚꽃길 약 150m 일대에서 ‘제1회 영등포 지등 불빛 축제’를 ...여영준 2022-10-05성남시, 시민의 날 맞이 ‘드론 라이트 쇼’ 6일 개최[성남=오왕석 기자] 성남시는 오는 10월 6일 오후 8시 분당구 야탑동 탄천종합운동장에서 시민의 날 맞이 ‘드론 라이트 쇼’를 개최한다. 오는...오왕석 2022-10-02광진구, 24일 행복대잔치 광나루 어울마당[시민일보 = 여영준 기자] 서울 광진구(구청장 김경호)가 오는 24일 천호대로 터널 위에 조성된 광진 숲나루에서 ‘제11회 광나루 어울마당’을...여영준 2022-09-21최승재 "세방여행-세방S&amp;C, 인건비ㆍ방역물품 횡령 드러나"[시민일보 = 전용혁 기자] 국민의힘 최승재 의원이 4일 "최근 한국여행업협회장 소유 회사(세방여행)과 그 동생회사(세방S&amp;C)...전용혁 2022-10-042022 안성맞춤 남사당 바우덕이 축제 개최 기대[안성=오왕석 기자] 안성시에서는 오는 9월 30일부터 10월 3일까지 나흘간 진행되는 ‘2022년 안성맞춤 남사당 바우덕이 축제’를 안성맞춤랜...오왕석 2022-09-12 뉴스댓글 &gt; Please enable JavaScript to view the comments powered by Disqus. 주요기사+ 유승민-나경원, 당권 경쟁에 뛰어 드나 北, 동쪽으로 미상의 탄도미사일 발사 尹 대통령, 민주당 단독처리 ‘박진 해임건의안’ 거부 이재명 “외교 참사의 책임을 묻겠다...개헌 특위도 제안” 많이 본 기사 종합 핫이슈 1.GS건설 시공 아파트 건설현장서 사망 사고2.영등포구, 6~8일 안양천서 지등 불빛 축제3.최승재 "세방여행-세방S&amp;C, 인건비ㆍ방역물품 횡령 드러나"4.[로컬거버넌스] 경남 산청군, 산청한방약초축제 개막5.[로컬거버넌스] 서울 중랑구, 용마폭포문화예술축제 8일 개막 1.'박결' 누구?... 사생활 루머 논란 속 일상의 아우라 '매력 발산'2.유현주 '실제 나이는?'... 미녀 골퍼의 팔색조 매력 '안구 정화'3."금연과 금주를 하루도 못 했다"... 최강희 솔직한 고백의 의미는?4.송가인 남다른 팬사랑... 데뷔 10주년 맞아 선보이는 행사는?5.블핑·에스파 이을 차세대 한류 걸그룹은?... 오앤오 A.iRiD(에이리드) 눈길 인터뷰 / 칼럼+ [인터뷰] 박진식 세종병원 이사장 ‘정도 의료’ 강조문찬식 2022-09-02 [로컬거버넌스] 경기 고양시, 세계태권도품새선수권대회 오는 21일 개막이기홍 2022-04-17 임영수 도의원, 새로운 미래 보성군수 도전 뜻 밝혀황승순 2022-03-16 기획/시리즈 [로컬거버넌스] 서울 중랑구, 용마폭포문화예술축제 8일 개막 [로컬거버넌스] 서울 노원구, ‘2022 노원 탈축제’ 8·9일 개최 [로컬거버넌스] 경남 산청군, 산청한방약초축제 개막 [로컬거버넌스] 서울 강동구, 반려동물 복지정책 시행 신문사소개 | 개인정보취급방침 | 이용약관 | 청소년보호정책 | 기사제보 | 제휴문의 | 고충처리인 | 공지·사고 서울특별시 영등포구 국회대로 70길 15-1, 607호~611호(여의도동, 극동브이아이피빌딩) 제   호 : 시민일보 | 정기간행물번호 : 서울, 가00028 | 등록일 : 2001-10-08								| 대표전화 : 02) 3676-2114 | FAX : (02) 762-8223 발행인 : 임무창 | 편집인 : 임무창 본 콘텐츠의 저작권은 시민일보 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 2019 시민일보 All rights reserved. | email : ksykjd@siminilbo.co.kr</t>
+  </si>
+  <si>
+    <t>4박5일 제주여행 中관광객 신종 코로나 ‘확진’...제주도 6시간 넘게 ‘쉬쉬’ &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:42 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 실업급여 신청자↓, 재취업률↑...제주 고용시장 회복세 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 4박5일 제주여행 中관광객 신종 코로나 ‘확진’...제주도 6시간 넘게 ‘쉬쉬’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 4박5일 제주여행 中관광객 신종 코로나 ‘확진’...제주도 6시간 넘게 ‘쉬쉬’ 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.02.01 20:38 댓글 330 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 [단독] 춘추항공, 제주항공청에 1일 中관광객 확진판정 통보...원희룡, 투명하고 신속 공개 약속 '어겨' [기사보강=밤 9시35분] 4박5일 동안 제주를 여행했던 중국인이 입국 직후 신종 코로나바이러스 확진 판정을 받은 것으로 확인됐다.하지만 제주도는 이같은 사실을 1일 오후 2시5분 공식 전달 받고도 6시간 넘는 현재까지 '쉬쉬'하고 있다. 원희룡 제주지사가 신종 코로나바이러스와 관련해 모든 정보를 투명하고, 신속하게 도민들에게 알리겠다는 약속이 '허언'이 된 셈이다.무엇보다 확진 판정을 받은 중국인의 제주도내 이동경로 등 관련 정보를 신속하게 도민사회에 알려 능동감시를 통한 단 한명의 추가 감염이라도 최소화 해야 하는 제주도의 역할에서 볼 때 이같은 사실을 도민사회에 즉각 공개하지 않는 것은 큰 문제라는 지적이다.  중국 국적의 춘추항공은 지난 1월21일부터 25일까지 4박5일간 제주를 방문했던 중국인 유모씨(52.여)가 신종 코로나바이러스 확진 판정을 받았다고 1일 제주지방항공청에 알려왔다.중국 양저우에 살고 있는 유씨는 21일 춘추항공편을 타고 제주에 도착한 후 25일 같은 항공편으로 양저우에 도착했다.유씨는 중국 도착 다음 날인 26일 발열증상이 나타나 양저우에서 격리됐고, 1월30일 신종 코로나바이러스 확진 판정을 받았다.이같은 사실을 항공사 담당직원이 1일 제주항공청에 유선 보고했고, 제주항공청은 중국인 인적사항과 확진과정, 입국목적, 제주도 경로 등 항공사에서 파악할 수 있는 가능한 정보를 추가 요청했다.제주항공청도 이날 오후 2시5분부터 국토부, 제주도청, 제주검역소, 출입국외국인청에 중국인 관광객의 확진 판정 사실을 1차 전파했다. 유씨와 동행했던 승객과 자녀는 아직 감염증상이 없는 것으로 알려졌다.문제는 이날 제주도가 제주항공청으로부터 중국인 관광객 유씨의 신종 코로나바이러스 확진 판정 결과를 전달 받고도 6시간이 지난 저녁 8시가 넘도록 관련정보를 공개하지 않고 있다는 데 있다.비록 유씨가 신종 코로나바이러스 잠복기에 제주를 여행했다고 하지만 중국 보건당국은 잠복기에도 감염될 수 있다는 가능성을 밝히고 있다. 이 때문에 제주도는 중국 관광객의 제주관광 목적과 4박5일 동안 이동 경로를 정확히 추적하고 밝혀야 한다.앞서 원희룡 지사는 신종 코로나바이러스가 확산되자 긴급 간부회의를 열고, 관련 정보를 투명하고 신속하게 도민들에게 밝히겠다고 약속한 바 있다.이에 대해 제주도 관계자는 [제주의소리] 보도 직후 전화를 걸어와 "오늘 오후 제주항공청으로부터 전파를 받은 후 긴급회의를 열고 정확한 사실관계를 확인 중이었다. 쉬쉬하거나 숨길 의도는 없었다"고 해명했다.그러나 4박5일간이나 제주에 머물다 돌아간 중국인이 확진 판정을 받은 만큼, 이동경로 등 신속하고 구체적인 정보 공개가 추가감염 차단의 최우선 관건임을 비춰볼 때 6시간 넘게 도민에 공개하지 않고 사실관계를 확인중이었다는 제주도의 해명은 궁색하다는 지적이다.확진판정 중국인 관광객에 대한 정보를 정확히 밝히지 않으면서 제주도민의 불안감은 증폭되고 있다. 관련기사 제주도, 신종 코로나 확진 中관광객 동선 자체 조사 제주도 “신종코로나 확진 중국인 숙소 직원 5명, 자가 격리 중” “확진 중국인 동선은 정확히 파악 후 공개 결정” 정세균 국무총리 “제주도 무사증 제도 일시 중단” 제주 '신종 코로나' 중국인 접촉한 호텔직원 발열증상 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 신종 코로나 확진 中관광객 동선 자체 조사 &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:42 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 실업급여 신청자↓, 재취업률↑...제주 고용시장 회복세 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 신종 코로나 확진 中관광객 동선 자체 조사 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 제주도, 신종 코로나 확진 中관광객 동선 자체 조사 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.02.01 22:11 댓글 17 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 [제주의소리] ‘4박5일 제주여행 중국인관광객 신종 코로나 바이러스 확진' 단독 보도에 대해 해명자료를 내놓았다.제주도는 [제주의소리] 보도 1시간 18분 뒤인 1일 밤 9시 56분에 보도자료를 내고 "이번 건은 질병관리본부의 조사 및 발표(관리)대상이 아니지만 제주도에서는 즉시 관련 정보를 자체 조사하고, 동선 및 밀접 접촉자를 확인 중"이라고 밝혔다.제주도는 2월 1일 오후 4시경 국토교통부 제주항공청으로터 “지난 1월21일부터 25일까지 제주여행을 다녀간 중국인관광객이 중국 귀국 다음날인 지난 1월 26일 발열 증세를 보이기 시작해 30일 확진 판정을 받았다”는 통보를 받은 직후 곧바로 사실 관계 확인에 나섰다.통보 받은 즉시 질병관리본부에 연락한 결과, 관리 및 발표 대상이 아니라고 답변 받았으나 제주도 차원에서 즉각 원희룡 지사 주재로 긴급회의를 열고 제주도 공무원들이 자체 동선을 파악하기로 논의해 중국과 직접 연락하면서 동선 파악에 착수했다는 것이다. 해당 확진자와 그 가족이 중국에 있어서 실제 전화 통화되기까지 시간이 걸렸고 현재는 중국의 가족과 연락이 되어 동선 등의 정보를 조사 중이다. 앞으로 정확한 동선 파악 및 밀접 접촉자 확인 조사가 완료되는 데로 발표를 할 예정이며, 제주도 차원에서 조치에 들어갈 예정이라고 밝혔다. 관련기사 4박5일 제주여행 中관광객 신종 코로나 ‘확진’...제주도 6시간 넘게 ‘쉬쉬’ “확진 중국인 동선은 정확히 파악 후 공개 결정” 정세균 국무총리 “제주도 무사증 제도 일시 중단” 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광 종사자·입도객에게 마스크 배부 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 관광 종사자·입도객에게 마스크 배부 등록 2020.02.01 14:58:39 작게 크게 [제주=뉴시스]우장호 기자 = '우한 폐렴'으로 불리는 중국발 신종 코로나바이러스가 무서운 속도로 퍼지고 있는 가운데 28일 제주국제공항에서 이용객들에게 마스크를 나눠 주고 있다. 2020.01.28. woo1223@newsis.com[제주=뉴시스] 강정만 기자 = 제주특별자치도는 신종 코로나바이러스 감염병을 차단하기 위해 오는 3일부터 관광서비스 종사자와 입도객을 대상으로 마스크 7만개를 배부한다고 1일 밝혔다. 도는  도내 전 카지노 시설 위생용품 비치상황을 점검하고, 공항을 비롯 사람을 접촉하는 관광관련 종사자의 마스크 소요량을 파악해 이 같이 결정했다. 도는 1단계로 1만개를 최일선 관광서비스 종사자와 입도객에게 배부하고, 2단계로 6만개를  관광통역안내사, 문화관광해설사, 관광숙박업 등 서비스 종사자에게 배부한다. 도는  이와 별도로 취약계층 등을 위한 마스크 15만개와 손세정제 5만개를 확보해 배부를 추진하고 있다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 43분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 김주형은 될성부른 나무…한국 무대서도 최연소 기록 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 롯데케미칼, 일진머티리얼즈 주식매매계약 체결 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, GS25 전용 빵빠레 샌드 카스타드 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 BAT "궐련형 전자담배 전환시 연초 대비 '위해 저감' 효과" 주장 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 연세대 고등과학원, 노벨상 수상 석학 초청 행사 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 물품 대금 5억 빼돌린 안성 지역농협 직원 자수...검찰 송치 [안성소식] 시, 하반기 농민기본소득 지급 등 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 청도군 "가을밤 코미디와 함께 반시 맛 즐겨보세요" 김대중컨벤션센터서 광주식품대전 개막…13~16일 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
   </si>
 </sst>
 </file>
@@ -467,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -500,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -522,7 +663,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -533,7 +674,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -544,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -555,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -566,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -577,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -588,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -599,7 +740,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -610,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -621,7 +762,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -632,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -643,7 +784,273 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
